--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\source\repos\TP3-Electro\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A16A5-4CD0-462D-A7BE-32BF9743B402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3279936-83D8-4B92-BEE8-69995B33C0DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -567,12 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +574,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,16 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,39 +925,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="R1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -973,34 +973,36 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="11" t="str">
+      <c r="M2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="11" t="str">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1047,7 +1049,9 @@
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="H4" s="8" t="e">
@@ -1105,7 +1109,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1115,35 +1121,37 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="H8" s="16" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="M8" s="15" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="M8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="R8" s="10" t="s">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="R8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1159,36 +1167,38 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="13" t="str">
         <f>$A$8</f>
         <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="11" t="str">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="13" t="str">
         <f>$A$8</f>
         <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="str">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="R9" s="13" t="str">
         <f>$A$8</f>
         <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1230,10 +1240,12 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="H11" s="8" t="e">
         <f>B13/D13*1000</f>
         <v>#DIV/0!</v>
@@ -1287,34 +1299,38 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="H15" s="17" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="H15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1330,12 +1346,12 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1343,7 +1359,9 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="H17" s="7" t="s">
         <v>10</v>
@@ -1365,7 +1383,9 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="8" t="e">
         <f>B18/D18*1000</f>
         <v>#DIV/0!</v>
@@ -1384,19 +1404,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1412,18 +1432,20 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1445,7 +1467,9 @@
         <v>5</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="H23" s="8" t="e">
@@ -1466,19 +1490,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="10" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="H25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1494,19 +1518,21 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="H27" s="7" t="s">
@@ -1529,7 +1555,9 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="H28" s="8" t="e">
         <f>B28/C28</f>
         <v>#DIV/0!</v>
@@ -1548,19 +1576,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="H30" s="10" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="H30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1576,19 +1604,21 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="H32" s="7" t="s">
@@ -1611,7 +1641,9 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
       <c r="H33" s="8" t="e">
         <f>B33/C33</f>
         <v>#DIV/0!</v>
@@ -1634,6 +1666,16 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1647,19 +1689,9 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="H21:K21"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1671,38 +1703,38 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="R1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1718,34 +1750,36 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="11" t="str">
+      <c r="M2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="11" t="str">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1792,7 +1826,9 @@
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="H4" s="8" t="e">
@@ -1850,7 +1886,9 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1860,7 +1898,9 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
   </sheetData>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\source\repos\TP3-Electro\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3279936-83D8-4B92-BEE8-69995B33C0DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAF7BC-50FA-44E7-BE7B-64721509DE95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,12 +242,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </t>
-  </si>
-  <si>
     <r>
       <t>Z</t>
     </r>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </t>
+  </si>
+  <si>
+    <t>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</t>
+  </si>
+  <si>
+    <t>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</t>
   </si>
 </sst>
 </file>
@@ -567,6 +567,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,9 +586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,12 +600,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,9 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,39 +925,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="17" t="s">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="R1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -973,28 +973,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="11" t="str">
         <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="11" t="str">
         <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="str">
+        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="R2" s="11" t="str">
         <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "A" - Nro. De serie: 9601 </v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1007,41 +1007,41 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1127,31 +1127,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="19" t="s">
+      <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="M8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="R8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1167,27 +1167,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="11" t="str">
         <f>$A$8</f>
-        <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13" t="str">
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="M9" s="11" t="str">
         <f>$A$8</f>
-        <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="13" t="str">
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="R9" s="11" t="str">
         <f>$A$8</f>
-        <v xml:space="preserve">Cuadripolo "B" - Nro. De serie: 9612 </v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1200,40 +1200,40 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="S10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="U10" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
@@ -1318,19 +1318,19 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="H15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="H15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1346,12 +1346,12 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="H16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1364,16 +1364,16 @@
       </c>
       <c r="E17" s="1"/>
       <c r="H17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -1404,19 +1404,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="A20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="H20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1432,12 +1432,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1450,16 +1450,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="H22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -1490,19 +1490,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="H25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="A25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="H25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1518,12 +1518,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="H26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1536,16 +1536,16 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="H27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -1576,19 +1576,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="H30" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="A30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="H30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1604,12 +1604,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="H31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1622,16 +1622,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="H32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -1666,16 +1666,6 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1692,6 +1682,16 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1702,39 +1702,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3F020-B580-4D4F-BDCD-1C2230945BAB}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="17" t="s">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="R1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1750,28 +1750,28 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="11" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="11" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="str">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="R2" s="11" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -1784,41 +1784,41 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAF7BC-50FA-44E7-BE7B-64721509DE95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4975F4-CD71-487A-8B2A-651CDF5FC87E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -406,10 +406,10 @@
     <t xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </t>
   </si>
   <si>
-    <t>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</t>
-  </si>
-  <si>
-    <t>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</t>
+    <t>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</t>
+  </si>
+  <si>
+    <t>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,46 +567,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -926,38 +929,38 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="20" t="s">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -973,28 +976,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="13" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="11" t="str">
+      <c r="M2" s="13" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="11" t="str">
+        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9602 (15 V - 20 mA)</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1003,9 +1006,17 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="D3" s="1">
+        <f>0.5*23</f>
+        <v>11.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>32*0.5</f>
+        <v>16</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1048,110 +1059,134 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>3.05</v>
+      </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="H4" s="8" t="e">
+      <c r="D4" s="1">
+        <f>33.5*0.5</f>
+        <v>16.75</v>
+      </c>
+      <c r="E4" s="1">
+        <f>0.5*23</f>
+        <v>11.5</v>
+      </c>
+      <c r="H4" s="8">
         <f>B6/D6*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="8" t="e">
+        <v>371.95121951219505</v>
+      </c>
+      <c r="I4" s="8">
         <f>B5/E5*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="8" t="e">
+        <v>310.29411764705878</v>
+      </c>
+      <c r="J4" s="8">
         <f>C6/D6*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="8" t="e">
+        <v>266.46341463414632</v>
+      </c>
+      <c r="K4" s="8">
         <f>C5/E5*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="8" t="e">
+        <v>448.5294117647058</v>
+      </c>
+      <c r="M4" s="8">
         <f>D4/B4/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="8" t="e">
+        <v>5.4918032786885245E-3</v>
+      </c>
+      <c r="N4" s="8">
         <f>D3/C3/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="8" t="e">
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="O4" s="8">
         <f>E4/B4/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="8" t="e">
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="P4" s="8">
         <f>E3/C3/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="8" t="e">
+        <v>5.2459016393442632E-3</v>
+      </c>
+      <c r="R4" s="8">
         <f>B6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="8" t="e">
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="S4" s="8">
         <f>-B4/E4*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="8" t="e">
+        <v>-265.21739130434781</v>
+      </c>
+      <c r="T4" s="8">
         <f>D6/C6/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" s="8" t="e">
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="U4" s="8">
         <f>-D4/E4</f>
-        <v>#DIV/0!</v>
+        <v>-1.4565217391304348</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <f>2.11</f>
+        <v>2.11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.05</v>
+      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f>0.1*68</f>
+        <v>6.8000000000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="C6" s="24">
+        <f>2.185</f>
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f>82*0.1</f>
+        <v>8.2000000000000011</v>
+      </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="H8" s="13" t="s">
+      <c r="A8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="M8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="R8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1167,27 +1202,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="13" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="11" t="str">
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="13" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="str">
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="R9" s="13" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 20 mA)</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1196,9 +1231,17 @@
       <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="D10" s="9">
+        <f>83*0.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="E10" s="9">
+        <f>60*0.5</f>
+        <v>30</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1240,97 +1283,122 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="9">
+        <v>3.05</v>
+      </c>
       <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9">
+        <f>72*0.5</f>
+        <v>36</v>
+      </c>
+      <c r="E11" s="9">
+        <f>60.5*0.5</f>
+        <v>30.25</v>
+      </c>
       <c r="H11" s="8" t="e">
-        <f>B13/D13*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="8" t="e">
+        <f>D13/#REF!*1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="8">
         <f>B12/E12*1000</f>
-        <v>#DIV/0!</v>
+        <v>157.35384615384615</v>
       </c>
       <c r="J11" s="8" t="e">
-        <f>C13/D13*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="8" t="e">
+        <f>C13/#REF!*1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="8">
         <f>C12/E12*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="8" t="e">
+        <v>187.69230769230768</v>
+      </c>
+      <c r="M11" s="8">
         <f>D11/B11/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="8" t="e">
+        <v>1.180327868852459E-2</v>
+      </c>
+      <c r="N11" s="8">
         <f>D10/C10/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="8" t="e">
+        <v>1.3606557377049182E-2</v>
+      </c>
+      <c r="O11" s="8">
         <f>E11/B11/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="8" t="e">
+        <v>9.9180327868852464E-3</v>
+      </c>
+      <c r="P11" s="8">
         <f>E10/C10/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="8" t="e">
-        <f>B13/C13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="8" t="e">
+        <v>9.8360655737704927E-3</v>
+      </c>
+      <c r="R11" s="8">
+        <f>D13/C13</f>
+        <v>6.3549704947798462</v>
+      </c>
+      <c r="S11" s="8">
         <f>-B11/E11*1000</f>
-        <v>#DIV/0!</v>
+        <v>-100.82644628099173</v>
       </c>
       <c r="T11" s="8" t="e">
-        <f>D13/C13/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="8" t="e">
+        <f>#REF!/C13/1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U11" s="8">
         <f>-D11/E11</f>
-        <v>#DIV/0!</v>
+        <v>-1.1900826446280992</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="24">
+        <f>2.557</f>
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <f>3.05</f>
+        <v>3.05</v>
+      </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f>32.5*0.5</f>
+        <v>16.25</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9">
+        <v>3.05</v>
+      </c>
+      <c r="C13" s="24">
+        <f>2.203</f>
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="D13" s="9">
+        <f>28*0.5</f>
+        <v>14</v>
+      </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="H15" s="21" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="H15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1346,12 +1414,12 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1404,19 +1472,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="H20" s="12" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="H20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1432,12 +1500,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1490,19 +1558,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="H25" s="10" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="H25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1518,12 +1586,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1576,19 +1644,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="H30" s="10" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="H30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1604,12 +1672,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1666,6 +1734,16 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1682,16 +1760,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1709,32 +1777,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1750,28 +1818,28 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="11" t="str">
+      <c r="M2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="11" t="str">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4975F4-CD71-487A-8B2A-651CDF5FC87E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E66553-4136-4518-81A5-BABA949D9588}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <r>
       <t>V</t>
@@ -406,10 +406,13 @@
     <t xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </t>
   </si>
   <si>
-    <t>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</t>
-  </si>
-  <si>
-    <t>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</t>
+    <t>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</t>
+  </si>
+  <si>
+    <t>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</t>
+  </si>
+  <si>
+    <t>Conectamos B y A dado vuelta</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +570,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,9 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,16 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -928,39 +937,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -976,28 +985,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="12" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="12" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="str">
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="R2" s="12" t="str">
         <f>$A$1</f>
-        <v>Cuadripolo "A" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1148,7 +1157,7 @@
       <c r="B6" s="1">
         <v>3.05</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="10">
         <f>2.185</f>
         <v>2.1850000000000001</v>
       </c>
@@ -1162,31 +1171,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="23" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="H8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="M8" s="21" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="R8" s="22" t="s">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="R8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1202,27 +1211,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="12" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13" t="str">
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="M9" s="12" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="13" t="str">
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="R9" s="12" t="str">
         <f>$A$8</f>
-        <v>Cuadripolo "B" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1297,17 +1306,17 @@
         <f>60.5*0.5</f>
         <v>30.25</v>
       </c>
-      <c r="H11" s="8" t="e">
-        <f>D13/#REF!*1000</f>
-        <v>#REF!</v>
+      <c r="H11" s="8">
+        <f>B13/D13*1000</f>
+        <v>217.85714285714283</v>
       </c>
       <c r="I11" s="8">
         <f>B12/E12*1000</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="J11" s="8" t="e">
-        <f>C13/#REF!*1000</f>
-        <v>#REF!</v>
+      <c r="J11" s="8">
+        <f>C13/D13*1000</f>
+        <v>157.35714285714283</v>
       </c>
       <c r="K11" s="8">
         <f>C12/E12*1000</f>
@@ -1350,7 +1359,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="10">
         <f>2.557</f>
         <v>2.5569999999999999</v>
       </c>
@@ -1373,7 +1382,7 @@
       <c r="B13" s="9">
         <v>3.05</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="10">
         <f>2.203</f>
         <v>2.2029999999999998</v>
       </c>
@@ -1386,19 +1395,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="H15" s="18" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="N15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1414,23 +1428,31 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="25">
+        <f>2.158</f>
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3.09</v>
+      </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <f>51*0.1</f>
+        <v>5.1000000000000005</v>
+      </c>
       <c r="H17" s="7" t="s">
         <v>8</v>
       </c>
@@ -1448,43 +1470,51 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="C18" s="1">
+        <f>2.375</f>
+        <v>2.375</v>
+      </c>
+      <c r="D18" s="1">
+        <f>55*0.1</f>
+        <v>5.5</v>
+      </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="8" t="e">
+      <c r="H18" s="8">
         <f>B18/D18*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="8" t="e">
-        <f>B17/E17*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="8" t="e">
+        <v>561.81818181818176</v>
+      </c>
+      <c r="I18" s="8">
+        <f>B18/E17*1000</f>
+        <v>605.88235294117646</v>
+      </c>
+      <c r="J18" s="8">
         <f>C18/D18*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="8" t="e">
-        <f>C17/E17*1000</f>
-        <v>#DIV/0!</v>
+        <v>431.81818181818181</v>
+      </c>
+      <c r="K18" s="8">
+        <f>C18/E17*1000</f>
+        <v>465.68627450980387</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="H20" s="21" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="H20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1500,12 +1530,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1514,7 +1544,9 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="9">
+        <v>3.09</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="H22" s="7" t="s">
@@ -1534,43 +1566,45 @@
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="9">
+        <v>3.09</v>
+      </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="H23" s="8" t="e">
+      <c r="H23" s="8">
         <f>D23/1000/B23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <f>D22/1000/C22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
         <f>E23/1000/B23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
         <f>E22/1000/C22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="H25" s="22" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="H25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1586,12 +1620,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1644,19 +1678,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="H30" s="22" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="H30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1672,12 +1706,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1733,17 +1767,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="26">
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
+  <mergeCells count="27">
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1760,6 +1784,17 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1771,38 +1806,38 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1818,28 +1853,28 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="12" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="12" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="str">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="R2" s="12" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E66553-4136-4518-81A5-BABA949D9588}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5DF05-9A27-4452-9181-AA3D9181AD72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
   <si>
     <r>
       <t>V</t>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Conectamos B y A dado vuelta</t>
+  </si>
+  <si>
+    <t>Conectamos A y B</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,52 +576,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -937,39 +946,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="R1" s="11" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -985,28 +994,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="12" t="str">
+      <c r="M2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="12" t="str">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1171,31 +1180,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="H8" s="14" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="H8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="13" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="R8" s="11" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1211,27 +1220,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="H9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="M9" s="12" t="str">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="R9" s="12" t="str">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1395,24 +1404,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="H15" s="22" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="H15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
       <c r="N15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1428,18 +1437,18 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="11">
         <f>2.158</f>
         <v>2.1579999999999999</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1501,22 +1510,27 @@
         <v>465.68627450980387</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="H20" s="13" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="H20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="N20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -1530,14 +1544,14 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1547,8 +1561,14 @@
       <c r="C22" s="9">
         <v>3.09</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <f>0.5*83</f>
+        <v>41.5</v>
+      </c>
+      <c r="E22" s="1">
+        <f>0.25*23</f>
+        <v>5.75</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1572,41 +1592,47 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <f>0.5*45</f>
+        <v>22.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f>83*0.5</f>
+        <v>41.5</v>
+      </c>
       <c r="H23" s="8">
         <f>D23/1000/B23</f>
-        <v>0</v>
+        <v>7.2815533980582527E-3</v>
       </c>
       <c r="I23" s="8">
         <f>D22/1000/C22</f>
-        <v>0</v>
+        <v>1.3430420711974112E-2</v>
       </c>
       <c r="J23" s="8">
         <f>E23/1000/B23</f>
-        <v>0</v>
+        <v>1.3430420711974112E-2</v>
       </c>
       <c r="K23" s="8">
         <f>E22/1000/C22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+        <v>1.8608414239482201E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="H25" s="11" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="H25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -1620,23 +1646,31 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <f>0.5*41</f>
+        <v>20.5</v>
+      </c>
+      <c r="E27" s="9">
+        <f>0.1*60</f>
+        <v>6</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1650,49 +1684,56 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="e">
+      <c r="B28" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="D28" s="9">
+        <f>35.5*0.5</f>
+        <v>17.75</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <f>B28/C28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8" t="e">
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="I28" s="8">
         <f>-B27/E27*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="8" t="e">
+        <v>-515</v>
+      </c>
+      <c r="J28" s="8">
         <f>D28/C28/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="8" t="e">
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="K28" s="8">
         <f>-D27/E27</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+        <v>-3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="H30" s="11" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="H30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -1706,23 +1747,31 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="9">
+        <v>3.09</v>
+      </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1">
+        <f>29*0.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="E32" s="1">
+        <f>0.1*66</f>
+        <v>6.6000000000000005</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>19</v>
       </c>
@@ -1740,34 +1789,53 @@
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D33" s="9">
+        <f>25*0.5</f>
+        <v>12.5</v>
+      </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="8" t="e">
+      <c r="H33" s="8">
         <f>B33/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="8" t="e">
+        <v>3.5558112773302644</v>
+      </c>
+      <c r="I33" s="8">
         <f>-B32/E32*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="8" t="e">
-        <f>D33/C33/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="8" t="e">
+        <v>-468.18181818181813</v>
+      </c>
+      <c r="J33" s="8">
+        <f>E32/B33/1000</f>
+        <v>2.1359223300970879E-3</v>
+      </c>
+      <c r="K33" s="8">
         <f>-D32/E32</f>
-        <v>#DIV/0!</v>
+        <v>-2.1969696969696968</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1784,17 +1852,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1812,32 +1869,32 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="R1" s="11" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="R1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1853,28 +1910,28 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="15" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="12" t="str">
+      <c r="M2" s="15" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="12" t="str">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="str">
         <f>$A$1</f>
         <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5DF05-9A27-4452-9181-AA3D9181AD72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C50B17-8748-4A40-A031-878380836B36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
   <si>
     <r>
       <t>V</t>
@@ -403,9 +403,6 @@
     <t>Parametro T</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </t>
-  </si>
-  <si>
     <t>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</t>
   </si>
   <si>
@@ -416,6 +413,67 @@
   </si>
   <si>
     <t>Conectamos A y B</t>
+  </si>
+  <si>
+    <t>Resistencias…</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ohm]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ohm]</t>
+    </r>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -486,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -546,11 +604,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,6 +650,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,9 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,22 +701,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -946,39 +1023,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="19" t="s">
+      <c r="A1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="H1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="R1" s="24" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="R1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -994,28 +1071,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="str">
+      <c r="H2" s="13" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="15" t="str">
+      <c r="M2" s="13" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="str">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="R2" s="13" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1180,31 +1257,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="H8" s="25" t="s">
+      <c r="A8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="H8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="M8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="R8" s="24" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="R8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1220,27 +1297,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15" t="str">
+      <c r="H9" s="13" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="15" t="str">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="13" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15" t="str">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="R9" s="13" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1404,24 +1481,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="H15" s="20" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="N15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="N15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1437,12 +1514,17 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="N16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1482,9 +1564,9 @@
       <c r="B18" s="1">
         <v>3.09</v>
       </c>
-      <c r="C18" s="1">
-        <f>2.375</f>
-        <v>2.375</v>
+      <c r="C18" s="10">
+        <f>2.351</f>
+        <v>2.351</v>
       </c>
       <c r="D18" s="1">
         <f>55*0.1</f>
@@ -1503,32 +1585,32 @@
       </c>
       <c r="J18" s="8">
         <f>C18/D18*1000</f>
-        <v>431.81818181818181</v>
+        <v>427.4545454545455</v>
       </c>
       <c r="K18" s="8">
         <f>C18/E17*1000</f>
-        <v>465.68627450980387</v>
+        <v>460.98039215686271</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="H20" s="23" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="H20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="N20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="N20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1544,12 +1626,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1618,19 +1700,19 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="24" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="H25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1646,12 +1728,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1719,19 +1801,19 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="H30" s="24" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="H30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1747,12 +1829,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1823,19 +1905,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="28">
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
+  <mergeCells count="29">
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1852,6 +1922,19 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1859,45 +1942,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F3F020-B580-4D4F-BDCD-1C2230945BAB}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98DE4E-8D07-412A-8ADE-7579EC4BF84A}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="R1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1905,173 +1978,141 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="15" t="str">
-        <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="15" t="str">
-        <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="str">
-        <f>$A$1</f>
-        <v xml:space="preserve">Cuadripolo "X" - Nro. De serie: xxxx </v>
-      </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>191.4</v>
       </c>
       <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
+        <v>3.09</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3.09</v>
+      </c>
+      <c r="I3" s="29">
+        <v>1.18</v>
+      </c>
+      <c r="J3" s="29">
+        <f>28.5*0.5</f>
+        <v>14.25</v>
+      </c>
+      <c r="K3" s="29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="11"/>
+      <c r="I4" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="J4" s="9">
+        <f>24.5*0.5</f>
+        <v>12.25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="30"/>
+      <c r="I5" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J5" s="9">
+        <f>38.5*0.5</f>
+        <v>19.25</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="I6" s="9">
+        <v>1.117</v>
+      </c>
+      <c r="J6" s="9">
+        <f>31*0.5</f>
+        <v>15.5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="I7" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="J7" s="9">
+        <f>33.5*0.5</f>
+        <v>16.75</v>
+      </c>
+      <c r="K7" s="9">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="I8" s="9">
+        <v>1.21</v>
+      </c>
+      <c r="J8" s="9">
+        <f>28*0.5</f>
         <v>14</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="H4" s="8" t="e">
-        <f>B6/D6*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="8" t="e">
-        <f>B5/E5*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="8" t="e">
-        <f>C6/D6*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="8" t="e">
-        <f>C5/E5*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="8" t="e">
-        <f>D4/B4/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="8" t="e">
-        <f>D3/C3/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="8" t="e">
-        <f>E4/B4/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="8" t="e">
-        <f>E3/C3/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="8" t="e">
-        <f>B6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="8" t="e">
-        <f>-B4/E4*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="8" t="e">
-        <f>D6/C6/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" s="8" t="e">
-        <f>-D4/E4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="K8" s="9">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C50B17-8748-4A40-A031-878380836B36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF86459-06A3-47A5-B6C5-CFBDB39F0836}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="11550" yWindow="1440" windowWidth="15375" windowHeight="7875" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,15 +650,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,40 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1023,39 +1026,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="R1" s="12" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="R1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1071,28 +1074,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="17" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="13" t="str">
+      <c r="M2" s="17" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13" t="str">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1168,19 +1171,19 @@
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="31">
         <f>B6/D6*1000</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="31">
         <f>B5/E5*1000</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="31">
         <f>C6/D6*1000</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="31">
         <f>C5/E5*1000</f>
         <v>448.5294117647058</v>
       </c>
@@ -1200,11 +1203,11 @@
         <f>E3/C3/1000</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="31">
         <f>B6/C6</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="31">
         <f>-B4/E4*1000</f>
         <v>-265.21739130434781</v>
       </c>
@@ -1212,7 +1215,7 @@
         <f>D6/C6/1000</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="31">
         <f>-D4/E4</f>
         <v>-1.4565217391304348</v>
       </c>
@@ -1257,31 +1260,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="H8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="M8" s="14" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="M8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="R8" s="12" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="R8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1297,27 +1300,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="17" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13" t="str">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="M9" s="17" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="R9" s="13" t="str">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="R9" s="17" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1392,19 +1395,19 @@
         <f>60.5*0.5</f>
         <v>30.25</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="31">
         <f>B13/D13*1000</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="31">
         <f>B12/E12*1000</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="31">
         <f>C13/D13*1000</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="31">
         <f>C12/E12*1000</f>
         <v>187.69230769230768</v>
       </c>
@@ -1424,19 +1427,19 @@
         <f>E10/C10/1000</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="31">
         <f>D13/C13</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="31">
         <f>-B11/E11*1000</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="T11" s="8" t="e">
-        <f>#REF!/C13/1000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U11" s="8">
+      <c r="T11" s="31">
+        <f>D13/C13/1000</f>
+        <v>6.3549704947798462E-3</v>
+      </c>
+      <c r="U11" s="31">
         <f>-D11/E11</f>
         <v>-1.1900826446280992</v>
       </c>
@@ -1481,24 +1484,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="H15" s="26" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="N15" s="16" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="N15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1514,17 +1517,17 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="N16" s="16" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="N16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1575,42 +1578,42 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="31">
         <f>B18/D18*1000</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="31">
         <f>B18/E17*1000</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="31">
         <f>C18/D18*1000</f>
         <v>427.4545454545455</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="31">
         <f>C18/E17*1000</f>
         <v>460.98039215686271</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="H20" s="14" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="H20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="N20" s="16" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="N20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1626,12 +1629,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1700,19 +1703,19 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="H25" s="12" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="H25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1728,12 +1731,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1783,37 +1786,37 @@
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="31">
         <f>B28/C28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="31">
         <f>-B27/E27*1000</f>
         <v>-515</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="31">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="31">
         <f>-D27/E27</f>
         <v>-3.4166666666666665</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="H30" s="12" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="H30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -1829,12 +1832,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1884,11 +1887,11 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="31">
         <f>B33/C33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="31">
         <f>-B32/E32*1000</f>
         <v>-468.18181818181813</v>
       </c>
@@ -1896,7 +1899,7 @@
         <f>E32/B33/1000</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="31">
         <f>-D32/E32</f>
         <v>-2.1969696969696968</v>
       </c>
@@ -1906,6 +1909,19 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="29">
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1922,19 +1938,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1945,27 +1948,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98DE4E-8D07-412A-8ADE-7579EC4BF84A}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2021,22 +2024,22 @@
       <c r="H3" s="9">
         <v>3.09</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="12">
         <v>1.18</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="12">
         <f>28.5*0.5</f>
         <v>14.25</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="12">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="11"/>
       <c r="I4" s="9">
         <v>1.34</v>
@@ -2052,7 +2055,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="13"/>
       <c r="I5" s="9">
         <v>0.82899999999999996</v>
       </c>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF86459-06A3-47A5-B6C5-CFBDB39F0836}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D958A-0A87-4EF2-9BBF-A4D59CE7B910}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="1440" windowWidth="15375" windowHeight="7875" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
   <si>
     <r>
       <t>V</t>
@@ -474,6 +474,36 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Parametro Z (Teórico)</t>
+  </si>
+  <si>
+    <t>Parametro Y  (Teórico)</t>
+  </si>
+  <si>
+    <t>Parametro T  (Teórico)</t>
+  </si>
+  <si>
+    <t>Parametro Z (Diferencia)</t>
+  </si>
+  <si>
+    <t>Parametro Y (Diferencia)</t>
+  </si>
+  <si>
+    <t>Parametro T (Diferencia)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -656,6 +686,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,9 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,27 +738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1024,43 +1054,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="K18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="H1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="R1" s="26" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="R1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1074,30 +1104,30 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="str">
+      <c r="H2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="17" t="str">
+      <c r="M2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="R2" s="17" t="str">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="R2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1171,19 +1201,19 @@
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="14">
         <f>B6/D6*1000</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="14">
         <f>B5/E5*1000</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="14">
         <f>C6/D6*1000</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="14">
         <f>C5/E5*1000</f>
         <v>448.5294117647058</v>
       </c>
@@ -1203,11 +1233,11 @@
         <f>E3/C3/1000</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="14">
         <f>B6/C6</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="14">
         <f>-B4/E4*1000</f>
         <v>-265.21739130434781</v>
       </c>
@@ -1215,12 +1245,12 @@
         <f>D6/C6/1000</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="14">
         <f>-D4/E4</f>
         <v>-1.4565217391304348</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1269,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1259,34 +1289,34 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="H8" s="27" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="M8" s="25" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="M8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="R8" s="26" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="R8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -1300,29 +1330,29 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17" t="str">
+      <c r="H9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="M9" s="17" t="str">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="R9" s="17" t="str">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="R9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1365,19 +1395,19 @@
         <v>17</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1395,19 +1425,19 @@
         <f>60.5*0.5</f>
         <v>30.25</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="14">
         <f>B13/D13*1000</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="14">
         <f>B12/E12*1000</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="14">
         <f>C13/D13*1000</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="14">
         <f>C12/E12*1000</f>
         <v>187.69230769230768</v>
       </c>
@@ -1427,24 +1457,24 @@
         <f>E10/C10/1000</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="14">
         <f>D13/C13</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="14">
         <f>-B11/E11*1000</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="14">
         <f>D13/C13/1000</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="14">
         <f>-D11/E11</f>
         <v>-1.1900826446280992</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1494,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1483,27 +1513,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="H15" s="22" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="H15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="N15" s="28" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="N15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="R15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
+      <c r="W15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -1517,19 +1559,31 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="N16" s="28" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="N16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="R16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
+      <c r="W16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1559,8 +1613,32 @@
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="R17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1578,44 +1656,88 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="14">
         <f>B18/D18*1000</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="14">
         <f>B18/E17*1000</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="14">
         <f>C18/D18*1000</f>
         <v>427.4545454545455</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="14">
         <f>C18/E17*1000</f>
         <v>460.98039215686271</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="R18" s="14">
+        <f>H4+H11</f>
+        <v>589.80836236933783</v>
+      </c>
+      <c r="S18" s="14">
+        <f t="shared" ref="S18:U18" si="0">I4+I11</f>
+        <v>467.6479638009049</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="0"/>
+        <v>423.82055749128915</v>
+      </c>
+      <c r="U18" s="14">
+        <f t="shared" si="0"/>
+        <v>636.22171945701348</v>
+      </c>
+      <c r="W18" s="14">
+        <f>ABS(H18-R18)</f>
+        <v>27.990180551156072</v>
+      </c>
+      <c r="X18" s="14">
+        <f t="shared" ref="X18:Z18" si="1">ABS(I18-S18)</f>
+        <v>138.23438914027156</v>
+      </c>
+      <c r="Y18" s="14">
+        <f t="shared" si="1"/>
+        <v>3.6339879632563452</v>
+      </c>
+      <c r="Z18" s="14">
+        <f t="shared" si="1"/>
+        <v>175.24132730015077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="H20" s="25" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="H20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="N20" s="28" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="N20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="R20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="W20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -1629,14 +1751,26 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="R21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="W21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,8 +1800,32 @@
       <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="R22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1701,23 +1859,67 @@
         <f>E22/1000/C22</f>
         <v>1.8608414239482201E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="R23" s="8">
+        <f>M4+M11</f>
+        <v>1.7295081967213115E-2</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" ref="S23:U23" si="2">N4+N11</f>
+        <v>1.7377049180327869E-2</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3688524590163936E-2</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5081967213114757E-2</v>
+      </c>
+      <c r="W23" s="14">
+        <f>ABS(H23-R23)</f>
+        <v>1.0013528569154863E-2</v>
+      </c>
+      <c r="X23" s="14">
+        <f t="shared" ref="X23" si="3">ABS(I23-S23)</f>
+        <v>3.9466284683537575E-3</v>
+      </c>
+      <c r="Y23" s="14">
+        <f t="shared" ref="Y23" si="4">ABS(J23-T23)</f>
+        <v>2.5810387818982379E-4</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" ref="Z23" si="5">ABS(K23-U23)</f>
+        <v>1.3221125789166536E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="H25" s="26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="H25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="R25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="W25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -1731,14 +1933,26 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="R26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="W26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1768,8 +1982,32 @@
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="R27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1786,39 +2024,83 @@
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="14">
         <f>B28/C28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="14">
         <f>-B27/E27*1000</f>
         <v>-515</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="14">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="14">
         <f>-D27/E27</f>
         <v>-3.4166666666666665</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="R28" s="14">
+        <f>R4*R11+S4*T11</f>
+        <v>7.1853339164089753</v>
+      </c>
+      <c r="S28" s="14">
+        <f>R4*S11+S4*U11</f>
+        <v>174.88889309151426</v>
+      </c>
+      <c r="T28" s="14">
+        <f>T4*R11+U4*T11</f>
+        <v>1.4593164511468141E-2</v>
+      </c>
+      <c r="U28" s="14">
+        <f>T4*S11+U4*U11</f>
+        <v>1.3549936645422396</v>
+      </c>
+      <c r="W28" s="14">
+        <f>ABS(H28-R28)</f>
+        <v>4.8964450275200866</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" ref="X28" si="6">ABS(I28-S28)</f>
+        <v>689.88889309151432</v>
+      </c>
+      <c r="Y28" s="14">
+        <f t="shared" ref="Y28" si="7">ABS(J28-T28)</f>
+        <v>1.4450163633199942E-3</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" ref="Z28" si="8">ABS(K28-U28)</f>
+        <v>4.7716603312089063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="H30" s="26" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="H30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="R30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="W30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -1832,14 +2114,26 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="R31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="W31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1869,8 +2163,32 @@
       <c r="K32" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="R32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1887,11 +2205,11 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="14">
         <f>B33/C33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="14">
         <f>-B32/E32*1000</f>
         <v>-468.18181818181813</v>
       </c>
@@ -1899,29 +2217,61 @@
         <f>E32/B33/1000</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="14">
         <f>-D32/E32</f>
         <v>-2.1969696969696968</v>
+      </c>
+      <c r="R33" s="14">
+        <f>R11*R4+S11*T4</f>
+        <v>8.4923950341301602</v>
+      </c>
+      <c r="S33" s="14">
+        <f>R11*S4+S11*U4</f>
+        <v>-1538.5927855540797</v>
+      </c>
+      <c r="T33" s="8">
+        <f>T11*R4+U11*T4</f>
+        <v>4.4045685689373523E-3</v>
+      </c>
+      <c r="U33" s="14">
+        <f>T11*S4+U11*U4</f>
+        <v>4.7932546821054967E-2</v>
+      </c>
+      <c r="W33" s="14">
+        <f>ABS(H33-R33)</f>
+        <v>4.9365837567998962</v>
+      </c>
+      <c r="X33" s="14">
+        <f t="shared" ref="X33" si="9">ABS(I33-S33)</f>
+        <v>1070.4109673722614</v>
+      </c>
+      <c r="Y33" s="14">
+        <f t="shared" ref="Y33" si="10">ABS(J33-T33)</f>
+        <v>2.2686462388402644E-3</v>
+      </c>
+      <c r="Z33" s="14">
+        <f t="shared" ref="Z33" si="11">ABS(K33-U33)</f>
+        <v>2.2449022437907518</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="29">
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
+  <mergeCells count="45">
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -1938,6 +2288,22 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1955,20 +2321,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D958A-0A87-4EF2-9BBF-A4D59CE7B910}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F8CA3-B1F7-4E08-B44B-50521F14D3A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -689,15 +689,45 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,36 +738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,39 +1056,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="M11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="H1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="R1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="R1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1104,28 +1104,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="str">
+      <c r="H2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="16" t="str">
+      <c r="M2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="R2" s="16" t="str">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1290,31 +1290,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="H8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="M8" s="17" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="M8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="R8" s="15" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1330,27 +1330,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="M9" s="16" t="str">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16" t="str">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1514,36 +1514,36 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="H15" s="29" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="H15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="N15" s="19" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="N15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="R15" s="29" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="R15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
-      <c r="W15" s="29" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="W15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="31"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1559,29 +1559,29 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="N16" s="19" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="N16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="R16" s="22" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="R16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
-      <c r="W16" s="22" t="s">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="W16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1706,36 +1706,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="H20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="H20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="19" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="N20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="R20" s="17" t="s">
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="R20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="W20" s="17" t="s">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="W20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1751,24 +1751,24 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="R21" s="16" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="R21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="W21" s="16" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="W21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1893,31 +1893,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="H25" s="15" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="H25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="R25" s="15" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="R25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="W25" s="15" t="s">
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="W25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1933,24 +1933,24 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="R26" s="16" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="R26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="W26" s="16" t="s">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="W26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2074,31 +2074,31 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="H30" s="15" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="H30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="R30" s="15" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="W30" s="15" t="s">
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="W30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2114,24 +2114,24 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="R31" s="16" t="s">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="R31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="W31" s="16" t="s">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="W31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2259,19 +2259,22 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="45">
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R20:U20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -2288,22 +2291,19 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2321,20 +2321,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F8CA3-B1F7-4E08-B44B-50521F14D3A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2818E8-B312-4ECB-AFDE-CFCE565734E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -689,10 +689,25 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,9 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,18 +738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,39 +1056,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="H1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="R1" s="16" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="R1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1104,28 +1104,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="str">
+      <c r="H2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="15" t="str">
+      <c r="M2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="str">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="R2" s="16" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1290,31 +1290,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="H8" s="28" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="H8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="M8" s="23" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="M8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="R8" s="16" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="R8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1330,27 +1330,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15" t="str">
+      <c r="H9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="15" t="str">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15" t="str">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="R9" s="16" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1514,36 +1514,36 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="H15" s="17" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="H15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="N15" s="29" t="s">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="N15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="R15" s="17" t="s">
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="R15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="W15" s="17" t="s">
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="24"/>
+      <c r="W15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1559,29 +1559,29 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="N16" s="29" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="N16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="R16" s="20" t="s">
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="R16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-      <c r="W16" s="20" t="s">
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="27"/>
+      <c r="W16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1706,36 +1706,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="H20" s="23" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="H20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="N20" s="29" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="N20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="R20" s="23" t="s">
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="R20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="W20" s="23" t="s">
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="W20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1751,24 +1751,24 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="R21" s="15" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="R21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="W21" s="15" t="s">
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="W21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1893,31 +1893,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="H25" s="16" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="H25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="R25" s="16" t="s">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="R25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="W25" s="16" t="s">
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="W25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1933,24 +1933,24 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="R26" s="15" t="s">
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="R26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="W26" s="15" t="s">
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="W26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2074,31 +2074,31 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="H30" s="16" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="H30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="R30" s="16" t="s">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="R30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="W30" s="16" t="s">
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="W30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2114,24 +2114,24 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="R31" s="15" t="s">
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="R31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="W31" s="15" t="s">
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="W31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2259,6 +2259,35 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="45">
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H25:K25"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="R2:U2"/>
@@ -2275,35 +2304,6 @@
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="R16:U16"/>
     <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2314,27 +2314,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98DE4E-8D07-412A-8ADE-7579EC4BF84A}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2390,15 +2390,15 @@
       <c r="H3" s="9">
         <v>3.09</v>
       </c>
-      <c r="I3" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="J3" s="12">
-        <f>28.5*0.5</f>
-        <v>14.25</v>
-      </c>
-      <c r="K3" s="12">
-        <v>80</v>
+      <c r="I3" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J3" s="9">
+        <f>38.5*0.5</f>
+        <v>19.25</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,14 +2408,14 @@
       <c r="D4" s="13"/>
       <c r="E4" s="11"/>
       <c r="I4" s="9">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="J4" s="9">
-        <f>24.5*0.5</f>
-        <v>12.25</v>
+        <f>33.5*0.5</f>
+        <v>16.75</v>
       </c>
       <c r="K4" s="9">
-        <v>120</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2423,29 +2423,29 @@
       <c r="D5" s="11"/>
       <c r="E5" s="13"/>
       <c r="I5" s="9">
-        <v>0.82899999999999996</v>
+        <v>1.117</v>
       </c>
       <c r="J5" s="9">
-        <f>38.5*0.5</f>
-        <v>19.25</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>34</v>
+        <f>31*0.5</f>
+        <v>15.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="I6" s="9">
-        <v>1.117</v>
-      </c>
-      <c r="J6" s="9">
-        <f>31*0.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="K6" s="9">
-        <v>73</v>
+      <c r="I6" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="J6" s="12">
+        <f>28.5*0.5</f>
+        <v>14.25</v>
+      </c>
+      <c r="K6" s="12">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2453,14 +2453,14 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="I7" s="9">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="J7" s="9">
-        <f>33.5*0.5</f>
-        <v>16.75</v>
+        <f>28*0.5</f>
+        <v>14</v>
       </c>
       <c r="K7" s="9">
-        <v>61.6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2468,14 +2468,14 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="I8" s="9">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="J8" s="9">
-        <f>28*0.5</f>
-        <v>14</v>
+        <f>24.5*0.5</f>
+        <v>12.25</v>
       </c>
       <c r="K8" s="9">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2818E8-B312-4ECB-AFDE-CFCE565734E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CD6DA-0C1D-4B10-A4D9-F52DD00BBF8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
   <si>
     <r>
       <t>V</t>
@@ -504,14 +504,191 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>P[W]</t>
+  </si>
+  <si>
+    <t>Equivalencias</t>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>Medido</t>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SERIE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARALELO</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculado</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CASCADA A-B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CASCADA B-A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>Diferencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -536,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +750,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -647,11 +848,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,15 +899,45 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,34 +950,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1054,41 +1321,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="H1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="R1" s="15" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="R1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1104,28 +1375,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="str">
+      <c r="H2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="16" t="str">
+      <c r="M2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="R2" s="16" t="str">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1290,31 +1561,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="H8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="M8" s="17" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="M8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="R8" s="15" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1330,27 +1601,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="M9" s="16" t="str">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16" t="str">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="15" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1514,36 +1785,36 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="H15" s="22" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="H15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="N15" s="19" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="N15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="R15" s="22" t="s">
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="R15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
-      <c r="W15" s="22" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="W15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1559,29 +1830,29 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="N16" s="19" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="N16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="R16" s="25" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="R16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="27"/>
-      <c r="W16" s="25" t="s">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="W16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1706,36 +1977,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="H20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="H20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="19" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="N20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="R20" s="17" t="s">
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="R20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="W20" s="17" t="s">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="W20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1751,24 +2022,24 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="R21" s="16" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="R21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="W21" s="16" t="s">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="W21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1893,31 +2164,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="H25" s="15" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="H25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="R25" s="15" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="R25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="W25" s="15" t="s">
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="W25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1933,24 +2204,24 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="R26" s="16" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="R26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="W26" s="16" t="s">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="W26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2074,31 +2345,31 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="H30" s="15" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="H30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="R30" s="15" t="s">
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="W30" s="15" t="s">
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="W30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2114,24 +2385,24 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="R31" s="16" t="s">
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="R31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="W31" s="16" t="s">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="W31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2253,25 +2524,546 @@
         <f t="shared" ref="Z33" si="11">ABS(K33-U33)</f>
         <v>2.2449022437907518</v>
       </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="37">
+        <f>H4</f>
+        <v>371.95121951219505</v>
+      </c>
+      <c r="D37" s="37">
+        <f>I4</f>
+        <v>310.29411764705878</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="38">
+        <f>M4</f>
+        <v>5.4918032786885245E-3</v>
+      </c>
+      <c r="I37" s="38">
+        <f>N4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="J37" s="41"/>
+      <c r="K37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="41"/>
+      <c r="M37" s="38">
+        <f>R4</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="N37" s="38">
+        <f>S4</f>
+        <v>-265.21739130434781</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="37">
+        <f>J4</f>
+        <v>266.46341463414632</v>
+      </c>
+      <c r="D38" s="37">
+        <f>K4</f>
+        <v>448.5294117647058</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="38">
+        <f>O4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="I38" s="38">
+        <f>P4</f>
+        <v>5.2459016393442632E-3</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="38">
+        <f>T4</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="N38" s="38">
+        <f>U4</f>
+        <v>-1.4565217391304348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="37">
+        <f>H11</f>
+        <v>217.85714285714283</v>
+      </c>
+      <c r="D40" s="37">
+        <f>I11</f>
+        <v>157.35384615384615</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="38">
+        <f>M11</f>
+        <v>1.180327868852459E-2</v>
+      </c>
+      <c r="I40" s="38">
+        <f>N11</f>
+        <v>1.3606557377049182E-2</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="K40" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="41"/>
+      <c r="M40" s="38">
+        <f>R11</f>
+        <v>6.3549704947798462</v>
+      </c>
+      <c r="N40" s="38">
+        <f>S11</f>
+        <v>-100.82644628099173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="37">
+        <f>J11</f>
+        <v>157.35714285714283</v>
+      </c>
+      <c r="D41" s="37">
+        <f>K11</f>
+        <v>187.69230769230768</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="38">
+        <f>O11</f>
+        <v>9.9180327868852464E-3</v>
+      </c>
+      <c r="I41" s="38">
+        <f>P11</f>
+        <v>9.8360655737704927E-3</v>
+      </c>
+      <c r="J41" s="41"/>
+      <c r="K41" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="41"/>
+      <c r="M41" s="38">
+        <f>T11</f>
+        <v>6.3549704947798462E-3</v>
+      </c>
+      <c r="N41" s="38">
+        <f>U11</f>
+        <v>-1.1900826446280992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="37">
+        <f>H18</f>
+        <v>561.81818181818176</v>
+      </c>
+      <c r="D43" s="37">
+        <f>I18</f>
+        <v>605.88235294117646</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="45">
+        <f>C37+C40</f>
+        <v>589.80836236933783</v>
+      </c>
+      <c r="I43" s="45">
+        <f>D37+D40</f>
+        <v>467.6479638009049</v>
+      </c>
+      <c r="K43" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="42"/>
+      <c r="M43" s="50">
+        <f>ABS(C43-H43)</f>
+        <v>27.990180551156072</v>
+      </c>
+      <c r="N43" s="50">
+        <f>ABS(D43-I43)</f>
+        <v>138.23438914027156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="37">
+        <f>J11</f>
+        <v>157.35714285714283</v>
+      </c>
+      <c r="D44" s="37">
+        <f>K11</f>
+        <v>187.69230769230768</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="45">
+        <f>C38+C41</f>
+        <v>423.82055749128915</v>
+      </c>
+      <c r="I44" s="45">
+        <f>D38+D41</f>
+        <v>636.22171945701348</v>
+      </c>
+      <c r="K44" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="42"/>
+      <c r="M44" s="50">
+        <f>ABS(C44-H44)</f>
+        <v>266.46341463414632</v>
+      </c>
+      <c r="N44" s="50">
+        <f>ABS(D44-I44)</f>
+        <v>448.5294117647058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="G45" s="42"/>
+      <c r="L45" s="42"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="38">
+        <f>H23</f>
+        <v>7.2815533980582527E-3</v>
+      </c>
+      <c r="D46" s="38">
+        <f>I23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="47">
+        <f>H37+H40</f>
+        <v>1.7295081967213115E-2</v>
+      </c>
+      <c r="I46" s="47">
+        <f>I37+I40</f>
+        <v>1.7377049180327869E-2</v>
+      </c>
+      <c r="K46" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="42"/>
+      <c r="M46" s="50">
+        <f>ABS(C46-H46)</f>
+        <v>1.0013528569154863E-2</v>
+      </c>
+      <c r="N46" s="50">
+        <f>ABS(D46-I46)</f>
+        <v>3.9466284683537575E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="38">
+        <f>J23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="D47" s="38">
+        <f>K23</f>
+        <v>1.8608414239482201E-3</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="47">
+        <f>H38+H41</f>
+        <v>1.3688524590163936E-2</v>
+      </c>
+      <c r="I47" s="47">
+        <f>I38+I41</f>
+        <v>1.5081967213114757E-2</v>
+      </c>
+      <c r="K47" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="52">
+        <f>ABS(C47-H47)</f>
+        <v>2.5810387818982379E-4</v>
+      </c>
+      <c r="N47" s="50">
+        <f>ABS(D47-I47)</f>
+        <v>1.3221125789166536E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="L48" s="42"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="37">
+        <f>H28</f>
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="D49" s="37">
+        <f>I28</f>
+        <v>-515</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="42"/>
+      <c r="H49" s="48">
+        <f t="array" ref="H49:I50">MMULT(M40:N41,M37:N38)</f>
+        <v>8.4923950341301602</v>
+      </c>
+      <c r="I49" s="48">
+        <v>-1538.5927855540797</v>
+      </c>
+      <c r="K49" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="42"/>
+      <c r="M49" s="50">
+        <f>ABS(C49-H49)</f>
+        <v>6.2035061452412714</v>
+      </c>
+      <c r="N49" s="50">
+        <f>ABS(D49-I49)</f>
+        <v>1023.5927855540797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="37">
+        <f>J28</f>
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="D50" s="37">
+        <f>K28</f>
+        <v>-3.4166666666666665</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="42"/>
+      <c r="H50" s="48">
+        <v>4.4045685689373523E-3</v>
+      </c>
+      <c r="I50" s="48">
+        <v>4.7932546821054967E-2</v>
+      </c>
+      <c r="K50" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="50">
+        <f>ABS(C50-H50)</f>
+        <v>8.7435795792107952E-3</v>
+      </c>
+      <c r="N50" s="50">
+        <f>ABS(D50-I50)</f>
+        <v>3.4645992134877215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="L51" s="42"/>
+    </row>
+    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="37">
+        <f>H33</f>
+        <v>3.5558112773302644</v>
+      </c>
+      <c r="D52" s="37">
+        <f>I33</f>
+        <v>-468.18181818181813</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="48">
+        <f t="array" ref="H52:I53">MMULT(M37:N38,M40:N41)</f>
+        <v>7.1853339164089753</v>
+      </c>
+      <c r="I52" s="48">
+        <v>174.88889309151426</v>
+      </c>
+      <c r="K52" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="42"/>
+      <c r="M52" s="50">
+        <f>ABS(C52-H52)</f>
+        <v>3.629522639078711</v>
+      </c>
+      <c r="N52" s="50">
+        <f>ABS(D52-I52)</f>
+        <v>643.07071127333234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="38">
+        <f>J33</f>
+        <v>2.1359223300970879E-3</v>
+      </c>
+      <c r="D53" s="38">
+        <f>K33</f>
+        <v>-2.1969696969696968</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="48">
+        <v>1.4593164511468141E-2</v>
+      </c>
+      <c r="I53" s="48">
+        <v>1.3549936645422396</v>
+      </c>
+      <c r="K53" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="42"/>
+      <c r="M53" s="50">
+        <f>ABS(C53-H53)</f>
+        <v>1.2457242181371054E-2</v>
+      </c>
+      <c r="N53" s="50">
+        <f>ABS(D53-I53)</f>
+        <v>3.5519633615119366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="45">
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
+  <mergeCells count="46">
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R20:U20"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
@@ -2288,22 +3080,19 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2312,31 +3101,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98DE4E-8D07-412A-8ADE-7579EC4BF84A}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +3157,11 @@
       <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>191.4</v>
       </c>
@@ -2400,8 +3193,12 @@
       <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="34">
+        <f>I3*J3</f>
+        <v>15.95825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2417,8 +3214,12 @@
       <c r="K4" s="9">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="34">
+        <f t="shared" ref="L4:L8" si="0">I4*J4</f>
+        <v>16.9175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="13"/>
@@ -2432,8 +3233,12 @@
       <c r="K5" s="9">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="34">
+        <f t="shared" si="0"/>
+        <v>17.313500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2447,8 +3252,12 @@
       <c r="K6" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="34">
+        <f t="shared" si="0"/>
+        <v>16.814999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2462,8 +3271,12 @@
       <c r="K7" s="9">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="34">
+        <f t="shared" si="0"/>
+        <v>16.939999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -2477,11 +3290,15 @@
       <c r="K8" s="9">
         <v>120</v>
       </c>
+      <c r="L8" s="34">
+        <f t="shared" si="0"/>
+        <v>16.415000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CD6DA-0C1D-4B10-A4D9-F52DD00BBF8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85607357-8F0C-4512-8D47-EB0BB1DA132F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <r>
       <t>V</t>
@@ -679,6 +679,74 @@
   </si>
   <si>
     <t>Diferencia</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ^-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ^-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T+K85</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -687,8 +755,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -861,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,67 +967,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,19 +1000,82 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1321,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51:N51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,32 +1405,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="H1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="R1" s="16" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="R1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1375,28 +1446,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="str">
+      <c r="H2" s="35" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="15" t="str">
+      <c r="M2" s="35" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="str">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="R2" s="35" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1561,31 +1632,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="H8" s="28" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="H8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="M8" s="23" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="M8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="R8" s="16" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="R8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1601,27 +1672,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15" t="str">
+      <c r="H9" s="35" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="15" t="str">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="35" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15" t="str">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="R9" s="35" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1785,36 +1856,36 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="H15" s="17" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="H15" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="N15" s="29" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="N15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="R15" s="17" t="s">
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="R15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="W15" s="17" t="s">
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="43"/>
+      <c r="W15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="43"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1830,29 +1901,29 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="N16" s="29" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="N16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="R16" s="20" t="s">
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="R16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-      <c r="W16" s="20" t="s">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46"/>
+      <c r="W16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="46"/>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1977,36 +2048,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="H20" s="23" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="H20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="N20" s="29" t="s">
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="N20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="R20" s="23" t="s">
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="R20" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="W20" s="23" t="s">
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="W20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -2022,24 +2093,24 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="R21" s="15" t="s">
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="R21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="W21" s="15" t="s">
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="W21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2164,31 +2235,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="H25" s="16" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="H25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="R25" s="16" t="s">
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="R25" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="W25" s="16" t="s">
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="W25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -2204,24 +2275,24 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="R26" s="15" t="s">
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="R26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="W26" s="15" t="s">
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="W26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2345,31 +2416,31 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="H30" s="16" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="H30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="R30" s="16" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="R30" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="W30" s="16" t="s">
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2385,24 +2456,24 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="R31" s="15" t="s">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="R31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="W31" s="15" t="s">
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="W31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2526,527 +2597,825 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="37">
+      <c r="B37" s="21"/>
+      <c r="C37" s="17">
         <f>H4</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="17">
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="36" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="38">
+      <c r="G37" s="21"/>
+      <c r="H37" s="18">
         <f>M4</f>
         <v>5.4918032786885245E-3</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="18">
         <f>N4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="36" t="s">
+      <c r="J37" s="21"/>
+      <c r="K37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="38">
+      <c r="L37" s="21"/>
+      <c r="M37" s="18">
         <f>R4</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="18">
         <f>S4</f>
         <v>-265.21739130434781</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="37">
+      <c r="C38" s="17">
         <f>J4</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="17">
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="38">
+      <c r="H38" s="18">
         <f>O4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="18">
         <f>P4</f>
         <v>5.2459016393442632E-3</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="19" t="s">
         <v>49</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="38">
+      <c r="M38" s="18">
         <f>T4</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="18">
         <f>U4</f>
         <v>-1.4565217391304348</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="37">
+      <c r="B40" s="21"/>
+      <c r="C40" s="17">
         <f>H11</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="17">
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="36" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="38">
+      <c r="G40" s="21"/>
+      <c r="H40" s="18">
         <f>M11</f>
         <v>1.180327868852459E-2</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="18">
         <f>N11</f>
         <v>1.3606557377049182E-2</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="36" t="s">
+      <c r="J40" s="21"/>
+      <c r="K40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="38">
+      <c r="L40" s="21"/>
+      <c r="M40" s="18">
         <f>R11</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="18">
         <f>S11</f>
         <v>-100.82644628099173</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="37">
+      <c r="B41" s="21"/>
+      <c r="C41" s="17">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="17">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="39" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="38">
+      <c r="G41" s="21"/>
+      <c r="H41" s="18">
         <f>O11</f>
         <v>9.9180327868852464E-3</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="18">
         <f>P11</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="39" t="s">
+      <c r="J41" s="21"/>
+      <c r="K41" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="41"/>
-      <c r="M41" s="38">
+      <c r="L41" s="21"/>
+      <c r="M41" s="18">
         <f>T11</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="18">
         <f>U11</f>
         <v>-1.1900826446280992</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="37">
+      <c r="B43" s="22"/>
+      <c r="C43" s="17">
         <f>H18</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="17">
         <f>I18</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="45">
+      <c r="G43" s="22"/>
+      <c r="H43" s="25">
         <f>C37+C40</f>
         <v>589.80836236933783</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="25">
         <f>D37+D40</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="50">
+      <c r="L43" s="22"/>
+      <c r="M43" s="30">
         <f>ABS(C43-H43)</f>
         <v>27.990180551156072</v>
       </c>
-      <c r="N43" s="50">
+      <c r="N43" s="30">
         <f>ABS(D43-I43)</f>
         <v>138.23438914027156</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="37">
+      <c r="B44" s="22"/>
+      <c r="C44" s="17">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="17">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="45">
+      <c r="G44" s="22"/>
+      <c r="H44" s="25">
         <f>C38+C41</f>
         <v>423.82055749128915</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="25">
         <f>D38+D41</f>
         <v>636.22171945701348</v>
       </c>
-      <c r="K44" s="51" t="s">
+      <c r="K44" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="42"/>
-      <c r="M44" s="50">
+      <c r="L44" s="22"/>
+      <c r="M44" s="30">
         <f>ABS(C44-H44)</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="N44" s="50">
+      <c r="N44" s="30">
         <f>ABS(D44-I44)</f>
         <v>448.5294117647058</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="G45" s="42"/>
-      <c r="L45" s="42"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="G45" s="22"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="38">
+      <c r="B46" s="22"/>
+      <c r="C46" s="18">
         <f>H23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="18">
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="47">
+      <c r="G46" s="22"/>
+      <c r="H46" s="27">
         <f>H37+H40</f>
         <v>1.7295081967213115E-2</v>
       </c>
-      <c r="I46" s="47">
+      <c r="I46" s="27">
         <f>I37+I40</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="K46" s="49" t="s">
+      <c r="K46" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L46" s="42"/>
-      <c r="M46" s="50">
+      <c r="L46" s="22"/>
+      <c r="M46" s="30">
         <f>ABS(C46-H46)</f>
         <v>1.0013528569154863E-2</v>
       </c>
-      <c r="N46" s="50">
+      <c r="N46" s="30">
         <f>ABS(D46-I46)</f>
         <v>3.9466284683537575E-3</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="38">
+      <c r="B47" s="22"/>
+      <c r="C47" s="18">
         <f>J23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="18">
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="47">
+      <c r="G47" s="22"/>
+      <c r="H47" s="27">
         <f>H38+H41</f>
         <v>1.3688524590163936E-2</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="27">
         <f>I38+I41</f>
         <v>1.5081967213114757E-2</v>
       </c>
-      <c r="K47" s="51" t="s">
+      <c r="K47" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="52">
+      <c r="L47" s="22"/>
+      <c r="M47" s="32">
         <f>ABS(C47-H47)</f>
         <v>2.5810387818982379E-4</v>
       </c>
-      <c r="N47" s="50">
+      <c r="N47" s="30">
         <f>ABS(D47-I47)</f>
         <v>1.3221125789166536E-2</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="G48" s="42"/>
-      <c r="L48" s="42"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="37">
+      <c r="B49" s="22"/>
+      <c r="C49" s="17">
         <f>H28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="17">
         <f>I28</f>
         <v>-515</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="48">
+      <c r="G49" s="22"/>
+      <c r="H49" s="28">
         <f t="array" ref="H49:I50">MMULT(M40:N41,M37:N38)</f>
         <v>8.4923950341301602</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="28">
         <v>-1538.5927855540797</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L49" s="42"/>
-      <c r="M49" s="50">
+      <c r="L49" s="22"/>
+      <c r="M49" s="30">
         <f>ABS(C49-H49)</f>
         <v>6.2035061452412714</v>
       </c>
-      <c r="N49" s="50">
+      <c r="N49" s="30">
         <f>ABS(D49-I49)</f>
         <v>1023.5927855540797</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="37">
+      <c r="B50" s="22"/>
+      <c r="C50" s="17">
         <f>J28</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="17">
         <f>K28</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="48">
+      <c r="G50" s="22"/>
+      <c r="H50" s="28">
         <v>4.4045685689373523E-3</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="28">
         <v>4.7932546821054967E-2</v>
       </c>
-      <c r="K50" s="51" t="s">
+      <c r="K50" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L50" s="42"/>
-      <c r="M50" s="50">
+      <c r="L50" s="22"/>
+      <c r="M50" s="30">
         <f>ABS(C50-H50)</f>
         <v>8.7435795792107952E-3</v>
       </c>
-      <c r="N50" s="50">
+      <c r="N50" s="30">
         <f>ABS(D50-I50)</f>
         <v>3.4645992134877215</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="G51" s="42"/>
-      <c r="L51" s="42"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="37">
+      <c r="B52" s="22"/>
+      <c r="C52" s="17">
         <f>H33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="17">
         <f>I33</f>
         <v>-468.18181818181813</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="48">
+      <c r="G52" s="22"/>
+      <c r="H52" s="28">
         <f t="array" ref="H52:I53">MMULT(M37:N38,M40:N41)</f>
         <v>7.1853339164089753</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="28">
         <v>174.88889309151426</v>
       </c>
-      <c r="K52" s="49" t="s">
+      <c r="K52" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="42"/>
-      <c r="M52" s="50">
+      <c r="L52" s="22"/>
+      <c r="M52" s="30">
         <f>ABS(C52-H52)</f>
         <v>3.629522639078711</v>
       </c>
-      <c r="N52" s="50">
+      <c r="N52" s="30">
         <f>ABS(D52-I52)</f>
         <v>643.07071127333234</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="38">
+      <c r="B53" s="22"/>
+      <c r="C53" s="18">
         <f>J33</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="18">
         <f>K33</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="48">
+      <c r="G53" s="22"/>
+      <c r="H53" s="28">
         <v>1.4593164511468141E-2</v>
       </c>
-      <c r="I53" s="48">
+      <c r="I53" s="28">
         <v>1.3549936645422396</v>
       </c>
-      <c r="K53" s="51" t="s">
+      <c r="K53" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="42"/>
-      <c r="M53" s="50">
+      <c r="L53" s="22"/>
+      <c r="M53" s="30">
         <f>ABS(C53-H53)</f>
         <v>1.2457242181371054E-2</v>
       </c>
-      <c r="N53" s="50">
+      <c r="N53" s="30">
         <f>ABS(D53-I53)</f>
         <v>3.5519633615119366</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
+      <c r="B54" s="22"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="17">
+        <v>371.95121951219505</v>
+      </c>
+      <c r="D55" s="17">
+        <v>310.29411764705878</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="25">
+        <f t="array" ref="H55:I56">MINVERSE(H37:I38)</f>
+        <v>359.48434622467772</v>
+      </c>
+      <c r="I55" s="25">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="53">
+        <f t="array" ref="M55:N56">MINVERSE(M37:N38)</f>
+        <v>1.4034608378870677</v>
+      </c>
+      <c r="N55" s="53">
+        <v>-255.55555555555557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="17">
+        <v>266.46341463414632</v>
+      </c>
+      <c r="D56" s="17">
+        <v>448.5294117647058</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="25">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="I56" s="25">
+        <v>376.33517495395944</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="53">
+        <v>3.6161441856006147E-3</v>
+      </c>
+      <c r="N56" s="53">
+        <v>-1.3450292397660819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="17">
+        <v>217.85714285714283</v>
+      </c>
+      <c r="D58" s="17">
+        <v>157.35384615384615</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="25">
+        <f t="array" ref="H58:I59">MINVERSE(H40:I41)</f>
+        <v>-521.73913043478262</v>
+      </c>
+      <c r="I58" s="25">
+        <v>721.73913043478262</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" s="53">
+        <f t="array" ref="M58:N59">MINVERSE(M40:N41)</f>
+        <v>0.17192282679384349</v>
+      </c>
+      <c r="N58" s="53">
+        <v>-14.565683936700626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="17">
+        <v>157.35714285714283</v>
+      </c>
+      <c r="D59" s="17">
+        <v>187.69230769230768</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="25">
+        <v>526.08695652173913</v>
+      </c>
+      <c r="I59" s="25">
+        <v>-626.08695652173913</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="53">
+        <v>9.1805766312594848E-4</v>
+      </c>
+      <c r="N59" s="53">
+        <v>-0.91805766312594839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G60" s="22"/>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="17">
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="D61" s="17">
+        <v>-265.21739130434781</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="28">
+        <f>C55/C56</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="I61" s="28">
+        <f>MDETERM(C55:D56)/C56</f>
+        <v>315.79956925561976</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="18">
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="D62" s="17">
+        <v>-1.4565217391304348</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="28">
+        <f>1/C56</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="I62" s="28">
+        <f>D56/C56</f>
+        <v>1.6832682729842507</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="G63" s="22"/>
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="17">
+        <v>6.3549704947798462</v>
+      </c>
+      <c r="D64" s="17">
+        <v>-100.82644628099173</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="28">
+        <f>C58/C59</f>
+        <v>1.3844757149341806</v>
+      </c>
+      <c r="I64" s="28">
+        <f>MDETERM(C58:D59)/C59</f>
+        <v>102.50159572610777</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+    </row>
+    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="17">
+        <v>6.3549704947798462E-3</v>
+      </c>
+      <c r="D65" s="17">
+        <v>-1.1900826446280992</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="28">
+        <f>1/C59</f>
+        <v>6.354970494779847E-3</v>
+      </c>
+      <c r="I65" s="28">
+        <f>D59/C59</f>
+        <v>1.1927790774817557</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G66" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="46">
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="R1:U1"/>
@@ -3063,36 +3432,6 @@
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3110,21 +3449,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3193,7 +3532,7 @@
       <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="15">
         <f>I3*J3</f>
         <v>15.95825</v>
       </c>
@@ -3214,7 +3553,7 @@
       <c r="K4" s="9">
         <v>61.6</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="15">
         <f t="shared" ref="L4:L8" si="0">I4*J4</f>
         <v>16.9175</v>
       </c>
@@ -3233,7 +3572,7 @@
       <c r="K5" s="9">
         <v>73</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>17.313500000000001</v>
       </c>
@@ -3252,7 +3591,7 @@
       <c r="K6" s="12">
         <v>80</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>16.814999999999998</v>
       </c>
@@ -3271,7 +3610,7 @@
       <c r="K7" s="9">
         <v>88</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>16.939999999999998</v>
       </c>
@@ -3290,7 +3629,7 @@
       <c r="K8" s="9">
         <v>120</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>16.415000000000003</v>
       </c>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85607357-8F0C-4512-8D47-EB0BB1DA132F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBC3DE-9579-424A-8F98-3B8135095908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
   <si>
     <r>
       <t>V</t>
@@ -678,9 +678,6 @@
     </r>
   </si>
   <si>
-    <t>Diferencia</t>
-  </si>
-  <si>
     <r>
       <t>Y</t>
     </r>
@@ -730,22 +727,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ^-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T+K85</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
     </r>
   </si>
 </sst>
@@ -753,9 +734,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -781,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,12 +813,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,30 +977,48 @@
     <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,43 +1031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,32 +1364,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="H1" s="50" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="H1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="R1" s="34" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="R1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1446,28 +1405,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="35" t="str">
+      <c r="H2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="35" t="str">
+      <c r="M2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="R2" s="35" t="str">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="R2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1632,31 +1591,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="H8" s="37" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="H8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="M8" s="36" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="R8" s="34" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="R8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1672,27 +1631,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="35" t="str">
+      <c r="H9" s="29" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="M9" s="35" t="str">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="M9" s="29" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="R9" s="35" t="str">
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="R9" s="29" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1856,36 +1815,36 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="H15" s="41" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="H15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="N15" s="38" t="s">
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="N15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="R15" s="41" t="s">
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="R15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="43"/>
-      <c r="W15" s="41" t="s">
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="33"/>
+      <c r="W15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="43"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="33"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1901,29 +1860,29 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="N16" s="38" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="N16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
-      <c r="R16" s="44" t="s">
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="R16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="46"/>
-      <c r="W16" s="44" t="s">
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+      <c r="W16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="46"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="36"/>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -2048,36 +2007,36 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="H20" s="36" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="H20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="N20" s="38" t="s">
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="N20" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
-      <c r="R20" s="36" t="s">
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="R20" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="W20" s="36" t="s">
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="W20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -2093,24 +2052,24 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="R21" s="35" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="R21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="W21" s="35" t="s">
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="W21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2235,31 +2194,31 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="H25" s="34" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="H25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="R25" s="34" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="R25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="W25" s="34" t="s">
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="W25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -2275,24 +2234,24 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="R26" s="35" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="R26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="W26" s="35" t="s">
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="W26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2416,31 +2375,31 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="H30" s="34" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="H30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="R30" s="34" t="s">
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="R30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="W30" s="34" t="s">
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="W30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2456,24 +2415,24 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="R31" s="35" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="R31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="W31" s="35" t="s">
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="W31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2597,17 +2556,17 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
@@ -2813,18 +2772,6 @@
         <f>D37+D40</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="K43" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="30">
-        <f>ABS(C43-H43)</f>
-        <v>27.990180551156072</v>
-      </c>
-      <c r="N43" s="30">
-        <f>ABS(D43-I43)</f>
-        <v>138.23438914027156</v>
-      </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
@@ -2850,18 +2797,6 @@
       <c r="I44" s="25">
         <f>D38+D41</f>
         <v>636.22171945701348</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="30">
-        <f>ABS(C44-H44)</f>
-        <v>266.46341463414632</v>
-      </c>
-      <c r="N44" s="30">
-        <f>ABS(D44-I44)</f>
-        <v>448.5294117647058</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -2870,7 +2805,6 @@
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="G45" s="22"/>
-      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
@@ -2897,18 +2831,6 @@
         <f>I37+I40</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="K46" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="30">
-        <f>ABS(C46-H46)</f>
-        <v>1.0013528569154863E-2</v>
-      </c>
-      <c r="N46" s="30">
-        <f>ABS(D46-I46)</f>
-        <v>3.9466284683537575E-3</v>
-      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
@@ -2934,18 +2856,6 @@
       <c r="I47" s="27">
         <f>I38+I41</f>
         <v>1.5081967213114757E-2</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="32">
-        <f>ABS(C47-H47)</f>
-        <v>2.5810387818982379E-4</v>
-      </c>
-      <c r="N47" s="30">
-        <f>ABS(D47-I47)</f>
-        <v>1.3221125789166536E-2</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -2954,9 +2864,8 @@
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="G48" s="22"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>54</v>
       </c>
@@ -2980,20 +2889,8 @@
       <c r="I49" s="28">
         <v>-1538.5927855540797</v>
       </c>
-      <c r="K49" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="30">
-        <f>ABS(C49-H49)</f>
-        <v>6.2035061452412714</v>
-      </c>
-      <c r="N49" s="30">
-        <f>ABS(D49-I49)</f>
-        <v>1023.5927855540797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>49</v>
       </c>
@@ -3016,28 +2913,15 @@
       <c r="I50" s="28">
         <v>4.7932546821054967E-2</v>
       </c>
-      <c r="K50" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="30">
-        <f>ABS(C50-H50)</f>
-        <v>8.7435795792107952E-3</v>
-      </c>
-      <c r="N50" s="30">
-        <f>ABS(D50-I50)</f>
-        <v>3.4645992134877215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="G51" s="22"/>
-      <c r="L51" s="22"/>
-    </row>
-    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
@@ -3061,20 +2945,8 @@
       <c r="I52" s="28">
         <v>174.88889309151426</v>
       </c>
-      <c r="K52" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="30">
-        <f>ABS(C52-H52)</f>
-        <v>3.629522639078711</v>
-      </c>
-      <c r="N52" s="30">
-        <f>ABS(D52-I52)</f>
-        <v>643.07071127333234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>49</v>
       </c>
@@ -3097,24 +2969,12 @@
       <c r="I53" s="28">
         <v>1.3549936645422396</v>
       </c>
-      <c r="K53" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="30">
-        <f>ABS(C53-H53)</f>
-        <v>1.2457242181371054E-2</v>
-      </c>
-      <c r="N53" s="30">
-        <f>ABS(D53-I53)</f>
-        <v>3.5519633615119366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="22"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
@@ -3136,18 +2996,8 @@
       <c r="I55" s="25">
         <v>-258.37937384898709</v>
       </c>
-      <c r="K55" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M55" s="53">
-        <f t="array" ref="M55:N56">MINVERSE(M37:N38)</f>
-        <v>1.4034608378870677</v>
-      </c>
-      <c r="N55" s="53">
-        <v>-255.55555555555557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>49</v>
       </c>
@@ -3159,7 +3009,7 @@
         <v>448.5294117647058</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="25">
@@ -3168,25 +3018,15 @@
       <c r="I56" s="25">
         <v>376.33517495395944</v>
       </c>
-      <c r="K56" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M56" s="53">
-        <v>3.6161441856006147E-3</v>
-      </c>
-      <c r="N56" s="53">
-        <v>-1.3450292397660819</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="G57" s="22"/>
-      <c r="L57" s="22"/>
-    </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>48</v>
       </c>
@@ -3208,18 +3048,8 @@
       <c r="I58" s="25">
         <v>721.73913043478262</v>
       </c>
-      <c r="K58" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" s="53">
-        <f t="array" ref="M58:N59">MINVERSE(M40:N41)</f>
-        <v>0.17192282679384349</v>
-      </c>
-      <c r="N58" s="53">
-        <v>-14.565683936700626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>49</v>
       </c>
@@ -3231,7 +3061,7 @@
         <v>187.69230769230768</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="25">
@@ -3240,21 +3070,11 @@
       <c r="I59" s="25">
         <v>-626.08695652173913</v>
       </c>
-      <c r="K59" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" s="53">
-        <v>9.1805766312594848E-4</v>
-      </c>
-      <c r="N59" s="53">
-        <v>-0.91805766312594839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G60" s="22"/>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>59</v>
       </c>
@@ -3277,13 +3097,8 @@
         <f>MDETERM(C55:D56)/C56</f>
         <v>315.79956925561976</v>
       </c>
-      <c r="K61" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-    </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>49</v>
       </c>
@@ -3306,21 +3121,15 @@
         <f>D56/C56</f>
         <v>1.6832682729842507</v>
       </c>
-      <c r="K62" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="G63" s="22"/>
-      <c r="L63" s="22"/>
-    </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
         <v>58</v>
       </c>
@@ -3343,13 +3152,8 @@
         <f>MDETERM(C58:D59)/C59</f>
         <v>102.50159572610777</v>
       </c>
-      <c r="K64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-    </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>49</v>
       </c>
@@ -3372,13 +3176,8 @@
         <f>D59/C59</f>
         <v>1.1927790774817557</v>
       </c>
-      <c r="K65" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G66" s="22"/>
     </row>
   </sheetData>
@@ -3386,36 +3185,6 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="46">
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="R1:U1"/>
@@ -3432,6 +3201,36 @@
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3449,21 +3248,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="G1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBC3DE-9579-424A-8F98-3B8135095908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBB795-D329-43A4-9D7B-CA7219542594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
   <si>
     <r>
       <t>V</t>
@@ -476,24 +476,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Parametro Z (Teórico)</t>
-  </si>
-  <si>
-    <t>Parametro Y  (Teórico)</t>
-  </si>
-  <si>
-    <t>Parametro T  (Teórico)</t>
-  </si>
-  <si>
-    <t>Parametro Z (Diferencia)</t>
-  </si>
-  <si>
-    <t>Parametro Y (Diferencia)</t>
-  </si>
-  <si>
-    <t>Parametro T (Diferencia)</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -727,6 +709,38 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ^-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Con Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Con Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
     </r>
   </si>
 </sst>
@@ -734,9 +748,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -903,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,7 +956,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,67 +989,79 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,35 +1390,35 @@
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="R1" s="30" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="R1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1405,30 +1432,30 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29" t="str">
+      <c r="H2" s="30" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="29" t="str">
+      <c r="M2" s="30" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="R2" s="29" t="str">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="R2" s="30" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1578,7 @@
         <v>-1.4565217391304348</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1597,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1590,34 +1617,34 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="H8" s="43" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="H8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="M8" s="37" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="R8" s="30" t="s">
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="R8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -1631,29 +1658,29 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="30" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="M9" s="29" t="str">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="M9" s="30" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="R9" s="29" t="str">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="R9" s="30" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1696,19 +1723,19 @@
         <v>17</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1802,7 @@
         <v>-1.1900826446280992</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1822,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1814,39 +1841,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="H15" s="31" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="H15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-      <c r="N15" s="44" t="s">
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="N15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
-      <c r="R15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="33"/>
-      <c r="W15" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-    </row>
-    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -1860,31 +1875,19 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="N16" s="44" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="N16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="R16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="36"/>
-      <c r="W16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="36"/>
-    </row>
-    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1914,32 +1917,8 @@
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1973,72 +1952,28 @@
         <f>C18/E17*1000</f>
         <v>460.98039215686271</v>
       </c>
-      <c r="R18" s="14">
-        <f>H4+H11</f>
-        <v>589.80836236933783</v>
-      </c>
-      <c r="S18" s="14">
-        <f t="shared" ref="S18:U18" si="0">I4+I11</f>
-        <v>467.6479638009049</v>
-      </c>
-      <c r="T18" s="14">
-        <f t="shared" si="0"/>
-        <v>423.82055749128915</v>
-      </c>
-      <c r="U18" s="14">
-        <f t="shared" si="0"/>
-        <v>636.22171945701348</v>
-      </c>
-      <c r="W18" s="14">
-        <f>ABS(H18-R18)</f>
-        <v>27.990180551156072</v>
-      </c>
-      <c r="X18" s="14">
-        <f t="shared" ref="X18:Z18" si="1">ABS(I18-S18)</f>
-        <v>138.23438914027156</v>
-      </c>
-      <c r="Y18" s="14">
-        <f t="shared" si="1"/>
-        <v>3.6339879632563452</v>
-      </c>
-      <c r="Z18" s="14">
-        <f t="shared" si="1"/>
-        <v>175.24132730015077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="H20" s="37" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="H20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="N20" s="44" t="s">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="N20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="R20" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="W20" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-    </row>
-    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -2052,26 +1987,14 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="R21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="W21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -2101,32 +2024,8 @@
       <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2160,67 +2059,23 @@
         <f>E22/1000/C22</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="R23" s="8">
-        <f>M4+M11</f>
-        <v>1.7295081967213115E-2</v>
-      </c>
-      <c r="S23" s="8">
-        <f t="shared" ref="S23:U23" si="2">N4+N11</f>
-        <v>1.7377049180327869E-2</v>
-      </c>
-      <c r="T23" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3688524590163936E-2</v>
-      </c>
-      <c r="U23" s="8">
-        <f t="shared" si="2"/>
-        <v>1.5081967213114757E-2</v>
-      </c>
-      <c r="W23" s="14">
-        <f>ABS(H23-R23)</f>
-        <v>1.0013528569154863E-2</v>
-      </c>
-      <c r="X23" s="14">
-        <f t="shared" ref="X23" si="3">ABS(I23-S23)</f>
-        <v>3.9466284683537575E-3</v>
-      </c>
-      <c r="Y23" s="14">
-        <f t="shared" ref="Y23" si="4">ABS(J23-T23)</f>
-        <v>2.5810387818982379E-4</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" ref="Z23" si="5">ABS(K23-U23)</f>
-        <v>1.3221125789166536E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="H25" s="30" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="H25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="R25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="W25" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-    </row>
-    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -2234,26 +2089,14 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="R26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="W26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-    </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2283,32 +2126,8 @@
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2341,67 +2160,23 @@
         <f>-D27/E27</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="R28" s="14">
-        <f>R4*R11+S4*T11</f>
-        <v>7.1853339164089753</v>
-      </c>
-      <c r="S28" s="14">
-        <f>R4*S11+S4*U11</f>
-        <v>174.88889309151426</v>
-      </c>
-      <c r="T28" s="14">
-        <f>T4*R11+U4*T11</f>
-        <v>1.4593164511468141E-2</v>
-      </c>
-      <c r="U28" s="14">
-        <f>T4*S11+U4*U11</f>
-        <v>1.3549936645422396</v>
-      </c>
-      <c r="W28" s="14">
-        <f>ABS(H28-R28)</f>
-        <v>4.8964450275200866</v>
-      </c>
-      <c r="X28" s="14">
-        <f t="shared" ref="X28" si="6">ABS(I28-S28)</f>
-        <v>689.88889309151432</v>
-      </c>
-      <c r="Y28" s="14">
-        <f t="shared" ref="Y28" si="7">ABS(J28-T28)</f>
-        <v>1.4450163633199942E-3</v>
-      </c>
-      <c r="Z28" s="14">
-        <f t="shared" ref="Z28" si="8">ABS(K28-U28)</f>
-        <v>4.7716603312089063</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="H30" s="30" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="H30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="R30" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="W30" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-    </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -2415,26 +2190,14 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="R31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="W31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-    </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2464,32 +2227,8 @@
       <c r="K32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2522,55 +2261,28 @@
         <f>-D32/E32</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="R33" s="14">
-        <f>R11*R4+S11*T4</f>
-        <v>8.4923950341301602</v>
-      </c>
-      <c r="S33" s="14">
-        <f>R11*S4+S11*U4</f>
-        <v>-1538.5927855540797</v>
-      </c>
-      <c r="T33" s="8">
-        <f>T11*R4+U11*T4</f>
-        <v>4.4045685689373523E-3</v>
-      </c>
-      <c r="U33" s="14">
-        <f>T11*S4+U11*U4</f>
-        <v>4.7932546821054967E-2</v>
-      </c>
-      <c r="W33" s="14">
-        <f>ABS(H33-R33)</f>
-        <v>4.9365837567998962</v>
-      </c>
-      <c r="X33" s="14">
-        <f t="shared" ref="X33" si="9">ABS(I33-S33)</f>
-        <v>1070.4109673722614</v>
-      </c>
-      <c r="Y33" s="14">
-        <f t="shared" ref="Y33" si="10">ABS(J33-T33)</f>
-        <v>2.2686462388402644E-3</v>
-      </c>
-      <c r="Z33" s="14">
-        <f t="shared" ref="Z33" si="11">ABS(K33-U33)</f>
-        <v>2.2449022437907518</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-    </row>
-    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="17">
@@ -2583,7 +2295,7 @@
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="18">
@@ -2596,7 +2308,7 @@
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="18">
@@ -2608,9 +2320,9 @@
         <v>-265.21739130434781</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="17">
@@ -2623,7 +2335,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="18">
@@ -2636,7 +2348,7 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="18">
@@ -2648,7 +2360,7 @@
         <v>-1.4565217391304348</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -2664,9 +2376,9 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="17">
@@ -2679,7 +2391,7 @@
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="18">
@@ -2692,7 +2404,7 @@
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L40" s="21"/>
       <c r="M40" s="18">
@@ -2704,9 +2416,9 @@
         <v>-100.82644628099173</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="17">
@@ -2719,7 +2431,7 @@
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="18">
@@ -2732,7 +2444,7 @@
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="18">
@@ -2744,12 +2456,12 @@
         <v>-1.1900826446280992</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="17">
@@ -2761,7 +2473,7 @@
         <v>605.88235294117646</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="25">
@@ -2773,9 +2485,9 @@
         <v>467.6479638009049</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="17">
@@ -2787,7 +2499,7 @@
         <v>187.69230769230768</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="25">
@@ -2799,16 +2511,16 @@
         <v>636.22171945701348</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="18">
@@ -2820,7 +2532,7 @@
         <v>1.3430420711974112E-2</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="27">
@@ -2832,9 +2544,9 @@
         <v>1.7377049180327869E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="18">
@@ -2846,7 +2558,7 @@
         <v>1.8608414239482201E-3</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="27">
@@ -2858,7 +2570,7 @@
         <v>1.5081967213114757E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
@@ -2867,7 +2579,7 @@
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="17">
@@ -2879,20 +2591,20 @@
         <v>-515</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="28">
         <f t="array" ref="H49:I50">MMULT(M40:N41,M37:N38)</f>
         <v>8.4923950341301602</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="51">
         <v>-1538.5927855540797</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="17">
@@ -2904,7 +2616,7 @@
         <v>-3.4166666666666665</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="28">
@@ -2923,7 +2635,7 @@
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="17">
@@ -2935,20 +2647,20 @@
         <v>-468.18181818181813</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="28">
         <f t="array" ref="H52:I53">MMULT(M37:N38,M40:N41)</f>
         <v>7.1853339164089753</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="52">
         <v>174.88889309151426</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="18">
@@ -2960,7 +2672,7 @@
         <v>-2.1969696969696968</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="28">
@@ -2976,7 +2688,7 @@
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="17">
@@ -2986,7 +2698,7 @@
         <v>310.29411764705878</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="25">
@@ -2999,7 +2711,7 @@
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="17">
@@ -3009,7 +2721,7 @@
         <v>448.5294117647058</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="25">
@@ -3028,7 +2740,7 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="17">
@@ -3038,7 +2750,7 @@
         <v>157.35384615384615</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="25">
@@ -3051,7 +2763,7 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="17">
@@ -3061,7 +2773,7 @@
         <v>187.69230769230768</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="25">
@@ -3076,7 +2788,7 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="17">
@@ -3086,21 +2798,21 @@
         <v>-265.21739130434781</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="28">
         <f>C55/C56</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="I61" s="28">
-        <f>MDETERM(C55:D56)/C56</f>
-        <v>315.79956925561976</v>
+      <c r="I61" s="52">
+        <f>-MDETERM(C55:D56)/C56</f>
+        <v>-315.79956925561976</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="18">
@@ -3110,16 +2822,15 @@
         <v>-1.4565217391304348</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="22"/>
+        <v>56</v>
+      </c>
       <c r="H62" s="28">
         <f>1/C56</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="I62" s="28">
-        <f>D56/C56</f>
-        <v>1.6832682729842507</v>
+      <c r="I62" s="52">
+        <f>-D56/C56</f>
+        <v>-1.6832682729842507</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,7 +2842,7 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="17">
@@ -3141,21 +2852,21 @@
         <v>-100.82644628099173</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G64" s="22"/>
-      <c r="H64" s="28">
+      <c r="H64" s="52">
         <f>C58/C59</f>
         <v>1.3844757149341806</v>
       </c>
-      <c r="I64" s="28">
-        <f>MDETERM(C58:D59)/C59</f>
-        <v>102.50159572610777</v>
+      <c r="I64" s="52">
+        <f>-MDETERM(C58:D59)/C59</f>
+        <v>-102.50159572610777</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="17">
@@ -3165,16 +2876,15 @@
         <v>-1.1900826446280992</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="28">
+        <v>57</v>
+      </c>
+      <c r="H65" s="52">
         <f>1/C59</f>
         <v>6.354970494779847E-3</v>
       </c>
-      <c r="I65" s="28">
-        <f>D59/C59</f>
-        <v>1.1927790774817557</v>
+      <c r="I65" s="52">
+        <f>-D59/C59</f>
+        <v>-1.1927790774817557</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3184,8 +2894,24 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="46">
-    <mergeCell ref="A35:I35"/>
+  <mergeCells count="30">
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="R2:U2"/>
@@ -3199,38 +2925,6 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W25:Z25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3248,21 +2942,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3296,7 +2990,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EBB795-D329-43A4-9D7B-CA7219542594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69C04C-B395-4411-9333-6F4153D940E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <r>
       <t>V</t>
@@ -821,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,36 +971,71 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,55 +1048,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1378,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,32 +1390,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="H1" s="42" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="R1" s="29" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="R1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1432,28 +1431,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30" t="str">
+      <c r="H2" s="34" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="30" t="str">
+      <c r="M2" s="34" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="R2" s="30" t="str">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="R2" s="34" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1618,31 +1617,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="H8" s="32" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="H8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="M8" s="31" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="M8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="R8" s="29" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="R8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1658,27 +1657,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="34" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="M9" s="30" t="str">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="M9" s="34" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="R9" s="30" t="str">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="R9" s="34" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1842,24 +1841,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="H15" s="36" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="H15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="N15" s="33" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="N15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="46"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1875,17 +1874,17 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="N16" s="33" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="N16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1954,24 +1953,24 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="H20" s="31" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="H20" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="N20" s="33" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="N20" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1987,12 +1986,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2061,19 +2060,19 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="H25" s="29" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="H25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -2089,12 +2088,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2162,19 +2161,19 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="H30" s="29" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="H30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2190,12 +2189,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2228,7 +2227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2262,639 +2261,481 @@
         <v>-2.1969696969696968</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="18">
+        <f>M4</f>
+        <v>5.4918032786885245E-3</v>
+      </c>
+      <c r="C37" s="18">
+        <f>N4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="18">
+        <f>M11</f>
+        <v>1.180327868852459E-2</v>
+      </c>
+      <c r="G37" s="18">
+        <f>N11</f>
+        <v>1.3606557377049182E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="18">
+        <f>O4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="C38" s="18">
+        <f>P4</f>
+        <v>5.2459016393442632E-3</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="18">
+        <f>O11</f>
+        <v>9.9180327868852464E-3</v>
+      </c>
+      <c r="G38" s="18">
+        <f>P11</f>
+        <v>9.8360655737704927E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="17">
+      <c r="B40" s="17">
         <f>H4</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="D37" s="17">
+      <c r="C40" s="17">
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="18">
-        <f>M4</f>
-        <v>5.4918032786885245E-3</v>
-      </c>
-      <c r="I37" s="18">
-        <f>N4</f>
-        <v>3.7704918032786887E-3</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="16" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="24">
+        <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
+        <v>359.48434622467772</v>
+      </c>
+      <c r="G40" s="24">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="I40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="18">
+      <c r="J40" s="18">
         <f>R4</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="N37" s="18">
+      <c r="K40" s="18">
         <f>S4</f>
         <v>-265.21739130434781</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="M40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="27">
+        <f>B40/B41</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="O40" s="29">
+        <f>MDETERM(B40:C41)/B41</f>
+        <v>315.79956925561976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="17">
+      <c r="B41" s="17">
         <f>J4</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="D38" s="17">
+      <c r="C41" s="17">
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="19" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="24">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="G41" s="24">
+        <v>376.33517495395944</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="18">
-        <f>O4</f>
-        <v>3.7704918032786887E-3</v>
-      </c>
-      <c r="I38" s="18">
-        <f>P4</f>
-        <v>5.2459016393442632E-3</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="18">
+      <c r="J41" s="18">
         <f>T4</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="N38" s="18">
+      <c r="K41" s="18">
         <f>U4</f>
         <v>-1.4565217391304348</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="M41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="27">
+        <f>1/B41</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="O41" s="29">
+        <f>C41/B41</f>
+        <v>1.6832682729842507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="17">
+      <c r="B43" s="17">
         <f>H11</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="D40" s="17">
+      <c r="C43" s="17">
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="18">
-        <f>M11</f>
-        <v>1.180327868852459E-2</v>
-      </c>
-      <c r="I40" s="18">
-        <f>N11</f>
-        <v>1.3606557377049182E-2</v>
-      </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="16" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="24">
+        <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
+        <v>-521.73913043478262</v>
+      </c>
+      <c r="G43" s="24">
+        <v>721.73913043478262</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L40" s="21"/>
-      <c r="M40" s="18">
+      <c r="J43" s="18">
         <f>R11</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="N40" s="18">
+      <c r="K43" s="18">
         <f>S11</f>
         <v>-100.82644628099173</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="M43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="27">
+        <f>B43/B44</f>
+        <v>1.3844757149341806</v>
+      </c>
+      <c r="O43" s="29">
+        <f>MDETERM(B43:C44)/B44</f>
+        <v>102.50159572610777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="17">
+      <c r="B44" s="17">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="D41" s="17">
+      <c r="C44" s="17">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="19" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="24">
+        <v>526.08695652173913</v>
+      </c>
+      <c r="G44" s="24">
+        <v>-626.08695652173913</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="18">
-        <f>O11</f>
-        <v>9.9180327868852464E-3</v>
-      </c>
-      <c r="I41" s="18">
-        <f>P11</f>
-        <v>9.8360655737704927E-3</v>
-      </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="18">
+      <c r="J44" s="18">
         <f>T11</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="N41" s="18">
+      <c r="K44" s="18">
         <f>U11</f>
         <v>-1.1900826446280992</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-    </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="M44" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="27">
+        <f>1/B44</f>
+        <v>6.354970494779847E-3</v>
+      </c>
+      <c r="O44" s="29">
+        <f>C44/B44</f>
+        <v>1.1927790774817557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="17">
+      <c r="B46" s="17">
         <f>H18</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="D43" s="17">
+      <c r="C46" s="17">
         <f>I18</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="E46" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="25">
-        <f>C37+C40</f>
+      <c r="F46" s="24">
+        <f>B40+B43</f>
         <v>589.80836236933783</v>
       </c>
-      <c r="I43" s="25">
-        <f>D37+D40</f>
+      <c r="G46" s="24">
+        <f>C40+C43</f>
         <v>467.6479638009049</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="I46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="17">
+        <f>H28</f>
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="K46" s="17">
+        <f>I28</f>
+        <v>-515</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="27">
+        <f t="array" ref="N46:O47">MMULT(J43:K44,J40:K41)</f>
+        <v>8.4923950341301602</v>
+      </c>
+      <c r="O46" s="28">
+        <v>-1538.5927855540797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="17">
+      <c r="B47" s="17">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="D44" s="17">
+      <c r="C47" s="17">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="25">
-        <f>C38+C41</f>
+      <c r="F47" s="24">
+        <f>B41+B44</f>
         <v>423.82055749128915</v>
       </c>
-      <c r="I44" s="25">
-        <f>D38+D41</f>
+      <c r="G47" s="24">
+        <f>C41+C44</f>
         <v>636.22171945701348</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="I47" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="17">
+        <f>J28</f>
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="K47" s="17">
+        <f>K28</f>
+        <v>-3.4166666666666665</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="27">
+        <v>4.4045685689373523E-3</v>
+      </c>
+      <c r="O47" s="27">
+        <v>4.7932546821054967E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="18">
+      <c r="B49" s="18">
         <f>H23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="D46" s="18">
+      <c r="C49" s="18">
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="27">
-        <f>H37+H40</f>
+      <c r="F49" s="26">
+        <f>B37+F37</f>
         <v>1.7295081967213115E-2</v>
       </c>
-      <c r="I46" s="27">
-        <f>I37+I40</f>
+      <c r="G49" s="26">
+        <f>C37+G37</f>
         <v>1.7377049180327869E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="I49" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="17">
+        <f>H33</f>
+        <v>3.5558112773302644</v>
+      </c>
+      <c r="K49" s="17">
+        <f>I33</f>
+        <v>-468.18181818181813</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" s="27">
+        <f t="array" ref="N49:O50">MMULT(J40:K41,J43:K44)</f>
+        <v>7.1853339164089753</v>
+      </c>
+      <c r="O49" s="29">
+        <v>174.88889309151426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="18">
+      <c r="B50" s="18">
         <f>J23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="D47" s="18">
+      <c r="C50" s="18">
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="E50" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="27">
-        <f>H38+H41</f>
+      <c r="F50" s="26">
+        <f>B38+F38</f>
         <v>1.3688524590163936E-2</v>
       </c>
-      <c r="I47" s="27">
-        <f>I38+I41</f>
+      <c r="G50" s="26">
+        <f>C38+G38</f>
         <v>1.5081967213114757E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="17">
-        <f>H28</f>
-        <v>2.2888888888888888</v>
-      </c>
-      <c r="D49" s="17">
-        <f>I28</f>
-        <v>-515</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="28">
-        <f t="array" ref="H49:I50">MMULT(M40:N41,M37:N38)</f>
-        <v>8.4923950341301602</v>
-      </c>
-      <c r="I49" s="51">
-        <v>-1538.5927855540797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="I50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="17">
-        <f>J28</f>
-        <v>1.3148148148148147E-2</v>
-      </c>
-      <c r="D50" s="17">
-        <f>K28</f>
-        <v>-3.4166666666666665</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="28">
-        <v>4.4045685689373523E-3</v>
-      </c>
-      <c r="I50" s="28">
-        <v>4.7932546821054967E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="17">
-        <f>H33</f>
-        <v>3.5558112773302644</v>
-      </c>
-      <c r="D52" s="17">
-        <f>I33</f>
-        <v>-468.18181818181813</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="28">
-        <f t="array" ref="H52:I53">MMULT(M37:N38,M40:N41)</f>
-        <v>7.1853339164089753</v>
-      </c>
-      <c r="I52" s="52">
-        <v>174.88889309151426</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="18">
+      <c r="J50" s="18">
         <f>J33</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="D53" s="18">
+      <c r="K50" s="18">
         <f>K33</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="M50" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="28">
+      <c r="N50" s="27">
         <v>1.4593164511468141E-2</v>
       </c>
-      <c r="I53" s="28">
+      <c r="O50" s="27">
         <v>1.3549936645422396</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="17">
-        <v>371.95121951219505</v>
-      </c>
-      <c r="D55" s="17">
-        <v>310.29411764705878</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="25">
-        <f t="array" ref="H55:I56">MINVERSE(H37:I38)</f>
-        <v>359.48434622467772</v>
-      </c>
-      <c r="I55" s="25">
-        <v>-258.37937384898709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="17">
-        <v>266.46341463414632</v>
-      </c>
-      <c r="D56" s="17">
-        <v>448.5294117647058</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="25">
-        <v>-258.37937384898709</v>
-      </c>
-      <c r="I56" s="25">
-        <v>376.33517495395944</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="17">
-        <v>217.85714285714283</v>
-      </c>
-      <c r="D58" s="17">
-        <v>157.35384615384615</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="25">
-        <f t="array" ref="H58:I59">MINVERSE(H40:I41)</f>
-        <v>-521.73913043478262</v>
-      </c>
-      <c r="I58" s="25">
-        <v>721.73913043478262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="17">
-        <v>157.35714285714283</v>
-      </c>
-      <c r="D59" s="17">
-        <v>187.69230769230768</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="25">
-        <v>526.08695652173913</v>
-      </c>
-      <c r="I59" s="25">
-        <v>-626.08695652173913</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="17">
-        <v>1.3958810068649885</v>
-      </c>
-      <c r="D61" s="17">
-        <v>-265.21739130434781</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="28">
-        <f>C55/C56</f>
-        <v>1.3958810068649885</v>
-      </c>
-      <c r="I61" s="52">
-        <f>-MDETERM(C55:D56)/C56</f>
-        <v>-315.79956925561976</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="18">
-        <v>3.7528604118993139E-3</v>
-      </c>
-      <c r="D62" s="17">
-        <v>-1.4565217391304348</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H62" s="28">
-        <f>1/C56</f>
-        <v>3.7528604118993139E-3</v>
-      </c>
-      <c r="I62" s="52">
-        <f>-D56/C56</f>
-        <v>-1.6832682729842507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="17">
-        <v>6.3549704947798462</v>
-      </c>
-      <c r="D64" s="17">
-        <v>-100.82644628099173</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="52">
-        <f>C58/C59</f>
-        <v>1.3844757149341806</v>
-      </c>
-      <c r="I64" s="52">
-        <f>-MDETERM(C58:D59)/C59</f>
-        <v>-102.50159572610777</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="17">
-        <v>6.3549704947798462E-3</v>
-      </c>
-      <c r="D65" s="17">
-        <v>-1.1900826446280992</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="52">
-        <f>1/C59</f>
-        <v>6.354970494779847E-3</v>
-      </c>
-      <c r="I65" s="52">
-        <f>-D59/C59</f>
-        <v>-1.1927790774817557</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G66" s="22"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
     <mergeCell ref="A35:N35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -2911,20 +2752,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2942,21 +2769,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="G1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B69C04C-B395-4411-9333-6F4153D940E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CFEE25-FB93-4E04-B104-18A4F29AF48C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -832,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -914,11 +914,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,16 +972,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -976,15 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,6 +998,36 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,9 +1040,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,9 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,34 +1058,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1411,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,32 +1421,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="6"/>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="R1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="R1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1431,28 +1462,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="34" t="str">
+      <c r="H2" s="27" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="34" t="str">
+      <c r="M2" s="27" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="R2" s="34" t="str">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="R2" s="27" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1617,31 +1648,31 @@
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="H8" s="43" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="H8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="M8" s="38" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="R8" s="42" t="s">
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="R8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1657,27 +1688,27 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="34" t="str">
+      <c r="H9" s="27" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="M9" s="34" t="str">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="27" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="R9" s="34" t="str">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="R9" s="27" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1841,24 +1872,24 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="H15" s="35" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="H15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="N15" s="44" t="s">
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="N15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -1874,17 +1905,17 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="N16" s="44" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="N16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1953,24 +1984,24 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="H20" s="38" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="H20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="N20" s="44" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="N20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1986,12 +2017,12 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2060,19 +2091,19 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="H25" s="42" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="H25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -2088,12 +2119,12 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2161,19 +2192,19 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="H30" s="42" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="H30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -2189,12 +2220,12 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2262,480 +2293,480 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="51"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="35"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="48">
         <f>M4</f>
         <v>5.4918032786885245E-3</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <f>N4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="48">
         <f>M11</f>
         <v>1.180327868852459E-2</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <f>N11</f>
         <v>1.3606557377049182E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="48">
         <f>O4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <f>P4</f>
         <v>5.2459016393442632E-3</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="48">
         <f>O11</f>
         <v>9.9180327868852464E-3</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="17">
         <f>P11</f>
         <v>9.8360655737704927E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="49">
         <f>H4</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="23" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="52">
         <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
         <v>359.48434622467772</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="21">
         <v>-258.37937384898709</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="48">
         <f>R4</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="17">
         <f>S4</f>
         <v>-265.21739130434781</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="54">
         <f>B40/B41</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="25">
         <f>MDETERM(B40:C41)/B41</f>
         <v>315.79956925561976</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="49">
         <f>J4</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="52">
         <v>-258.37937384898709</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="21">
         <v>376.33517495395944</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="48">
         <f>T4</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="17">
         <f>U4</f>
         <v>-1.4565217391304348</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="54">
         <f>1/B41</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="25">
         <f>C41/B41</f>
         <v>1.6832682729842507</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="5"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="49">
         <f>H11</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="23" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="52">
         <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
         <v>-521.73913043478262</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="21">
         <v>721.73913043478262</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="48">
         <f>R11</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="17">
         <f>S11</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="M43" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="54">
         <f>B43/B44</f>
         <v>1.3844757149341806</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="25">
         <f>MDETERM(B43:C44)/B44</f>
         <v>102.50159572610777</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="49">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="23" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="52">
         <v>526.08695652173913</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="21">
         <v>-626.08695652173913</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="48">
         <f>T11</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="17">
         <f>U11</f>
         <v>-1.1900826446280992</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M44" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="54">
         <f>1/B44</f>
         <v>6.354970494779847E-3</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O44" s="25">
         <f>C44/B44</f>
         <v>1.1927790774817557</v>
       </c>
     </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="49">
         <f>H18</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <f>I18</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="52">
         <f>B40+B43</f>
         <v>589.80836236933783</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="21">
         <f>C40+C43</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="49">
         <f>H28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="16">
         <f>I28</f>
         <v>-515</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M46" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N46" s="54">
         <f t="array" ref="N46:O47">MMULT(J43:K44,J40:K41)</f>
         <v>8.4923950341301602</v>
       </c>
-      <c r="O46" s="28">
+      <c r="O46" s="24">
         <v>-1538.5927855540797</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="49">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="52">
         <f>B41+B44</f>
         <v>423.82055749128915</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="21">
         <f>C41+C44</f>
         <v>636.22171945701348</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="49">
         <f>J28</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="16">
         <f>K28</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M47" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="54">
         <v>4.4045685689373523E-3</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="23">
         <v>4.7932546821054967E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="E48" s="5"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="48">
         <f>H23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="53">
         <f>B37+F37</f>
         <v>1.7295081967213115E-2</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="22">
         <f>C37+G37</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="49">
         <f>H33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="16">
         <f>I33</f>
         <v>-468.18181818181813</v>
       </c>
-      <c r="M49" s="23" t="s">
+      <c r="M49" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="54">
         <f t="array" ref="N49:O50">MMULT(J40:K41,J43:K44)</f>
         <v>7.1853339164089753</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="25">
         <v>174.88889309151426</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="48">
         <f>J23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="53">
         <f>B38+F38</f>
         <v>1.3688524590163936E-2</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="22">
         <f>C38+G38</f>
         <v>1.5081967213114757E-2</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="48">
         <f>J33</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="17">
         <f>K33</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="M50" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="54">
         <v>1.4593164511468141E-2</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="23">
         <v>1.3549936645422396</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="M51" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
     <mergeCell ref="A35:N35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -2752,6 +2783,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2769,21 +2814,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="G1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CFEE25-FB93-4E04-B104-18A4F29AF48C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9CFC44-542B-4288-93BB-06469607236C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
   <si>
     <r>
       <t>V</t>
@@ -741,6 +741,32 @@
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ES SIEMPRE SALIENTE</t>
     </r>
   </si>
 </sst>
@@ -748,10 +774,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -776,7 +801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,9 +971,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,13 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,36 +1002,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,79 +1056,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1410,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,32 +1482,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="H1" s="39" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="28" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="R1" s="26" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1462,1311 +1523,1574 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="str">
+      <c r="H2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="27" t="str">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="R2" s="27" t="str">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="R2" s="29" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="13">
         <v>3.05</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="13">
         <f>32*0.5</f>
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>3.05</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <f>33.5*0.5</f>
         <v>16.75</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="H4" s="14">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="13">
         <f>B6/D6*1000</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f>B5/E5*1000</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f>C6/D6*1000</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>C5/E5*1000</f>
         <v>448.5294117647058</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>D4/B4/1000</f>
         <v>5.4918032786885245E-3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>D3/C3/1000</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f>E4/B4/1000</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f>E3/C3/1000</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="R4" s="14">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="7">
         <f>B6/C6</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="7">
         <f>-B4/E4*1000</f>
         <v>-265.21739130434781</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f>D6/C6/1000</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="7">
         <f>-D4/E4</f>
         <v>-1.4565217391304348</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <f>2.11</f>
         <v>2.11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="13">
         <v>3.05</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
         <f>0.1*68</f>
         <v>6.8000000000000007</v>
       </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>3.05</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <f>2.185</f>
         <v>2.1850000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <f>82*0.1</f>
         <v>8.2000000000000011</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="H8" s="29" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="M8" s="28" t="s">
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="M8" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="R8" s="26" t="s">
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="27" t="str">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="58" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="M9" s="27" t="str">
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="M9" s="70" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="R9" s="27" t="str">
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="70" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="13">
         <v>3.05</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="13">
         <f>83*0.5</f>
         <v>41.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="13">
         <f>60*0.5</f>
         <v>30</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="13">
         <v>3.05</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <f>72*0.5</f>
         <v>36</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="13">
         <f>60.5*0.5</f>
         <v>30.25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="13">
         <f>B13/D13*1000</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f>B12/E12*1000</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f>C13/D13*1000</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f>C12/E12*1000</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f>D11/B11/1000</f>
         <v>1.180327868852459E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f>D10/C10/1000</f>
         <v>1.3606557377049182E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f>E11/B11/1000</f>
         <v>9.9180327868852464E-3</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f>E10/C10/1000</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="R11" s="14">
+      <c r="Q11" s="40"/>
+      <c r="R11" s="7">
         <f>D13/C13</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="7">
         <f>-B11/E11*1000</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="7">
         <f>D13/C13/1000</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="7">
         <f>-D11/E11</f>
         <v>-1.1900826446280992</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <f>2.557</f>
         <v>2.5569999999999999</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="13">
         <f>3.05</f>
         <v>3.05</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="13">
         <f>32.5*0.5</f>
         <v>16.25</v>
       </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>3.05</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="13">
         <f>2.203</f>
         <v>2.2029999999999998</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <f>28*0.5</f>
         <v>14</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="H15" s="40" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="N15" s="30" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="N15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="N16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="N16" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="65">
         <f>2.158</f>
         <v>2.1579999999999999</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="13">
         <v>3.09</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <f>51*0.1</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="50" t="s">
         <v>11</v>
       </c>
+      <c r="N17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>3.09</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <f>2.351</f>
         <v>2.351</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="13">
         <f>55*0.1</f>
         <v>5.5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="14">
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="13">
         <f>B18/D18*1000</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f>B18/E17*1000</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <f>C18/D18*1000</f>
         <v>427.4545454545455</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>C18/E17*1000</f>
         <v>460.98039215686271</v>
       </c>
     </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+    </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="H20" s="28" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="N20" s="30" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="N20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="13">
         <v>3.09</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <f>0.5*83</f>
         <v>41.5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="13">
         <f>0.25*23</f>
         <v>5.75</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="13">
         <v>3.09</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="13">
         <f>0.5*45</f>
         <v>22.5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="13">
         <f>83*0.5</f>
         <v>41.5</v>
       </c>
-      <c r="H23" s="8">
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="13">
         <f>D23/1000/B23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="13">
         <f>D22/1000/C22</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="13">
         <f>E23/1000/B23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="13">
         <f>E22/1000/C22</f>
         <v>1.8608414239482201E-3</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+    </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="H25" s="26" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="13">
         <v>3.09</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="13">
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="13">
         <f>0.5*41</f>
         <v>20.5</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="13">
         <f>0.1*60</f>
         <v>6</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="13">
         <v>3.09</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="13">
         <v>1.35</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="13">
         <f>35.5*0.5</f>
         <v>17.75</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="13">
         <v>0</v>
       </c>
-      <c r="H28" s="14">
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="13">
         <f>B28/C28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <f>-B27/E27*1000</f>
         <v>-515</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f>-D27/E27</f>
         <v>-3.4166666666666665</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+    </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="H30" s="26" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="13">
         <v>3.09</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="13">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="13">
         <f>29*0.5</f>
         <v>14.5</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="13">
         <f>0.1*66</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="13">
         <v>3.09</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="13">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="13">
         <f>25*0.5</f>
         <v>12.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="13">
         <v>0</v>
       </c>
-      <c r="H33" s="14">
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="13">
         <f>B33/C33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <f>-B32/E32*1000</f>
         <v>-468.18181818181813</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="13">
         <f>E32/B33/1000</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f>-D32/E32</f>
         <v>-2.1969696969696968</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="35"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="18">
         <f>M4</f>
         <v>5.4918032786885245E-3</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <f>N4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="50" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="18">
         <f>M11</f>
         <v>1.180327868852459E-2</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="14">
         <f>N11</f>
         <v>1.3606557377049182E-2</v>
       </c>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="18">
         <f>O4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <f>P4</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="51" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="18">
         <f>O11</f>
         <v>9.9180327868852464E-3</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <f>P11</f>
         <v>9.8360655737704927E-3</v>
       </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="18">
         <f>H4</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="55" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="21">
         <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
         <v>359.48434622467772</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="17">
         <v>-258.37937384898709</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="H40" s="40"/>
+      <c r="I40" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="18">
         <f>R4</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="14">
         <f>S4</f>
         <v>-265.21739130434781</v>
       </c>
-      <c r="M40" s="55" t="s">
+      <c r="L40" s="40"/>
+      <c r="M40" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="54">
+      <c r="N40" s="21">
         <f>B40/B41</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O40" s="17">
         <f>MDETERM(B40:C41)/B41</f>
         <v>315.79956925561976</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="18">
         <f>J4</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="56" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="21">
         <v>-258.37937384898709</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="17">
         <v>376.33517495395944</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="H41" s="40"/>
+      <c r="I41" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="18">
         <f>T4</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="14">
         <f>U4</f>
         <v>-1.4565217391304348</v>
       </c>
-      <c r="M41" s="56" t="s">
+      <c r="L41" s="40"/>
+      <c r="M41" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="54">
+      <c r="N41" s="21">
         <f>1/B41</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="O41" s="25">
+      <c r="O41" s="17">
         <f>C41/B41</f>
         <v>1.6832682729842507</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="5"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="M42" s="5"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="18">
         <f>H11</f>
         <v>217.85714285714283</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="55" t="s">
+      <c r="D43" s="38"/>
+      <c r="E43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="21">
         <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
         <v>-521.73913043478262</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="17">
         <v>721.73913043478262</v>
       </c>
-      <c r="I43" s="50" t="s">
+      <c r="H43" s="40"/>
+      <c r="I43" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="48">
+      <c r="J43" s="18">
         <f>R11</f>
         <v>6.3549704947798462</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="14">
         <f>S11</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="M43" s="55" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="N43" s="54">
+      <c r="N43" s="21">
         <f>B43/B44</f>
         <v>1.3844757149341806</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="17">
         <f>MDETERM(B43:C44)/B44</f>
         <v>102.50159572610777</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="18">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="56" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="21">
         <v>526.08695652173913</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="17">
         <v>-626.08695652173913</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="H44" s="40"/>
+      <c r="I44" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="18">
         <f>T11</f>
         <v>6.3549704947798462E-3</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="14">
         <f>U11</f>
         <v>-1.1900826446280992</v>
       </c>
-      <c r="M44" s="56" t="s">
+      <c r="L44" s="40"/>
+      <c r="M44" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="54">
+      <c r="N44" s="21">
         <f>1/B44</f>
         <v>6.354970494779847E-3</v>
       </c>
-      <c r="O44" s="25">
+      <c r="O44" s="17">
         <f>C44/B44</f>
         <v>1.1927790774817557</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="18">
         <f>H18</f>
         <v>561.81818181818176</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <f>I18</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="40"/>
+      <c r="E46" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="21">
         <f>B40+B43</f>
         <v>589.80836236933783</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="17">
         <f>C40+C43</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="I46" s="50" t="s">
+      <c r="H46" s="40"/>
+      <c r="I46" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="18">
         <f>H28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="14">
         <f>I28</f>
         <v>-515</v>
       </c>
-      <c r="M46" s="55" t="s">
+      <c r="L46" s="40"/>
+      <c r="M46" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N46" s="54">
-        <f t="array" ref="N46:O47">MMULT(J43:K44,J40:K41)</f>
-        <v>8.4923950341301602</v>
-      </c>
-      <c r="O46" s="24">
-        <v>-1538.5927855540797</v>
+      <c r="N46" s="21">
+        <f t="array" ref="N46:O47">MMULT(N43:O44,N40:O41)</f>
+        <v>2.3172375356994666</v>
+      </c>
+      <c r="O46" s="17">
+        <v>609.75451843709573</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="18">
         <f>J11</f>
         <v>157.35714285714283</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="14">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="40"/>
+      <c r="E47" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="21">
         <f>B41+B44</f>
         <v>423.82055749128915</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="17">
         <f>C41+C44</f>
         <v>636.22171945701348</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="H47" s="40"/>
+      <c r="I47" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="49">
+      <c r="J47" s="18">
         <f>J28</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="14">
         <f>K28</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="M47" s="57" t="s">
+      <c r="L47" s="40"/>
+      <c r="M47" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="54">
-        <v>4.4045685689373523E-3</v>
-      </c>
-      <c r="O47" s="23">
-        <v>4.7932546821054967E-2</v>
+      <c r="N47" s="21">
+        <v>1.3347115992873653E-2</v>
+      </c>
+      <c r="O47" s="17">
+        <v>4.014664122688111</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="E48" s="5"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="M48" s="5"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="48">
+      <c r="B49" s="18">
         <f>H23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="14">
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="D49" s="40"/>
+      <c r="E49" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="21">
         <f>B37+F37</f>
         <v>1.7295081967213115E-2</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="17">
         <f>C37+G37</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="H49" s="40"/>
+      <c r="I49" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="49">
+      <c r="J49" s="18">
         <f>H33</f>
         <v>3.5558112773302644</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="14">
         <f>I33</f>
         <v>-468.18181818181813</v>
       </c>
-      <c r="M49" s="55" t="s">
+      <c r="L49" s="40"/>
+      <c r="M49" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="N49" s="54">
-        <f t="array" ref="N49:O50">MMULT(J40:K41,J43:K44)</f>
-        <v>7.1853339164089753</v>
-      </c>
-      <c r="O49" s="25">
-        <v>174.88889309151426</v>
+      <c r="N49" s="21">
+        <f t="array" ref="N49:O50">MMULT(N40:O41,N43:O44)</f>
+        <v>3.9394602998260972</v>
+      </c>
+      <c r="O49" s="17">
+        <v>519.75914953328129</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="18">
         <f>J23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="14">
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="21">
         <f>B38+F38</f>
         <v>1.3688524590163936E-2</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="17">
         <f>C38+G38</f>
         <v>1.5081967213114757E-2</v>
       </c>
-      <c r="I50" s="51" t="s">
+      <c r="H50" s="40"/>
+      <c r="I50" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="48">
+      <c r="J50" s="18">
         <f>J33</f>
         <v>2.1359223300970879E-3</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="14">
         <f>K33</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="M50" s="57" t="s">
+      <c r="L50" s="40"/>
+      <c r="M50" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="N50" s="54">
-        <v>1.4593164511468141E-2</v>
-      </c>
-      <c r="O50" s="23">
-        <v>1.3549936645422396</v>
+      <c r="N50" s="21">
+        <v>1.5892864311426426E-2</v>
+      </c>
+      <c r="O50" s="17">
+        <v>2.3924413585614803</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="M51" s="5"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:N35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -2783,20 +3107,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2814,21 +3124,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="G1" s="46" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="G1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2837,10 +3147,10 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2852,10 +3162,10 @@
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2869,132 +3179,132 @@
       <c r="A3" s="2">
         <v>191.4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>3.09</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>80.2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>3.09</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.82899999999999996</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f>38.5*0.5</f>
         <v>19.25</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <f>I3*J3</f>
         <v>15.95825</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11"/>
-      <c r="I4" s="9">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="I4" s="8">
         <v>1.01</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f>33.5*0.5</f>
         <v>16.75</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>61.6</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" ref="L4:L8" si="0">I4*J4</f>
         <v>16.9175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13"/>
-      <c r="I5" s="9">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="I5" s="8">
         <v>1.117</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f>31*0.5</f>
         <v>15.5</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>73</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="0"/>
         <v>17.313500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="I6" s="12">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="I6" s="11">
         <v>1.18</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f>28.5*0.5</f>
         <v>14.25</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>80</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" si="0"/>
         <v>16.814999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="I7" s="9">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="I7" s="8">
         <v>1.21</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f>28*0.5</f>
         <v>14</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>88</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="0"/>
         <v>16.939999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="I8" s="9">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="I8" s="8">
         <v>1.34</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f>24.5*0.5</f>
         <v>12.25</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>120</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f t="shared" si="0"/>
         <v>16.415000000000003</v>
       </c>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9CFC44-542B-4288-93BB-06469607236C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD00522-CE14-4EB4-B47A-A5C6757AFC91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -778,7 +778,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +796,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1017,54 +1025,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,34 +1057,67 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1134,25 +1127,40 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1471,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,32 +1490,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="H1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="R1" s="31" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1523,28 +1531,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="29" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="R2" s="29" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1564,18 +1572,18 @@
         <f>32*0.5</f>
         <v>16</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="4"/>
@@ -1622,8 +1630,8 @@
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="13">
         <f>B6/D6*1000</f>
         <v>371.95121951219505</v>
@@ -1656,7 +1664,7 @@
         <f>E3/C3/1000</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="Q4" s="40"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="7">
         <f>B6/C6</f>
         <v>1.3958810068649885</v>
@@ -1692,21 +1700,21 @@
         <f>0.1*68</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1726,77 +1734,77 @@
       <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="55" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="M8" s="68" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="69" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1808,30 +1816,30 @@
       <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="58" t="str">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="56" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="M9" s="70" t="str">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="70" t="str">
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -1851,43 +1859,43 @@
         <f>60*0.5</f>
         <v>30</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="71" t="s">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="71" t="s">
+      <c r="S10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="71" t="s">
+      <c r="T10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="71" t="s">
+      <c r="U10" s="39" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1909,8 +1917,8 @@
         <f>60.5*0.5</f>
         <v>30.25</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="13">
         <f>B13/D13*1000</f>
         <v>217.85714285714283</v>
@@ -1943,7 +1951,7 @@
         <f>E10/C10/1000</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="Q11" s="40"/>
+      <c r="Q11" s="24"/>
       <c r="R11" s="7">
         <f>D13/C13</f>
         <v>6.3549704947798462</v>
@@ -1980,12 +1988,12 @@
         <f>32.5*0.5</f>
         <v>16.25</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
@@ -2005,51 +2013,51 @@
       <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="62" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="N15" s="37" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="N15" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2061,25 +2069,25 @@
       <c r="E16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="59" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="N16" s="32" t="s">
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="38">
         <f>2.158</f>
         <v>2.1579999999999999</v>
       </c>
@@ -2093,25 +2101,25 @@
         <f>51*0.1</f>
         <v>5.1000000000000005</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -2131,8 +2139,8 @@
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="13">
         <f>B18/D18*1000</f>
         <v>561.81818181818176</v>
@@ -2151,43 +2159,43 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="66" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="N20" s="32" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2199,14 +2207,14 @@
       <c r="E21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="58" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
@@ -2226,18 +2234,18 @@
         <f>0.25*23</f>
         <v>5.75</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2259,8 +2267,8 @@
         <f>83*0.5</f>
         <v>41.5</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="13">
         <f>D23/1000/B23</f>
         <v>7.2815533980582527E-3</v>
@@ -2279,38 +2287,38 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="67" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2322,14 +2330,14 @@
       <c r="E26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="58" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
@@ -2349,18 +2357,18 @@
         <f>0.1*60</f>
         <v>6</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2381,8 +2389,8 @@
       <c r="E28" s="13">
         <v>0</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="13">
         <f>B28/C28</f>
         <v>2.2888888888888888</v>
@@ -2401,38 +2409,38 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="67" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2444,14 +2452,14 @@
       <c r="E31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="58" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
@@ -2471,18 +2479,18 @@
         <f>0.1*66</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2503,8 +2511,8 @@
       <c r="E33" s="13">
         <v>0</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="13">
         <f>B33/C33</f>
         <v>3.5558112773302644</v>
@@ -2523,22 +2531,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
@@ -2552,8 +2561,8 @@
         <f>N4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="18">
@@ -2564,14 +2573,14 @@
         <f>N11</f>
         <v>1.3606557377049182E-2</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
@@ -2585,8 +2594,8 @@
         <f>P4</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F38" s="18">
@@ -2597,31 +2606,31 @@
         <f>P11</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
@@ -2635,8 +2644,8 @@
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="45" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="21">
@@ -2646,8 +2655,8 @@
       <c r="G40" s="17">
         <v>-258.37937384898709</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="39" t="s">
+      <c r="H40" s="24"/>
+      <c r="I40" s="23" t="s">
         <v>53</v>
       </c>
       <c r="J40" s="18">
@@ -2658,8 +2667,8 @@
         <f>S4</f>
         <v>-265.21739130434781</v>
       </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="45" t="s">
+      <c r="L40" s="24"/>
+      <c r="M40" s="29" t="s">
         <v>53</v>
       </c>
       <c r="N40" s="21">
@@ -2683,8 +2692,8 @@
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="46" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="30" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="21">
@@ -2693,8 +2702,8 @@
       <c r="G41" s="17">
         <v>376.33517495395944</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="42" t="s">
+      <c r="H41" s="24"/>
+      <c r="I41" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J41" s="18">
@@ -2705,8 +2714,8 @@
         <f>U4</f>
         <v>-1.4565217391304348</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="46" t="s">
+      <c r="L41" s="24"/>
+      <c r="M41" s="30" t="s">
         <v>56</v>
       </c>
       <c r="N41" s="21">
@@ -2720,20 +2729,20 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
@@ -2747,8 +2756,8 @@
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="45" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="29" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="21">
@@ -2758,8 +2767,8 @@
       <c r="G43" s="17">
         <v>721.73913043478262</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="39" t="s">
+      <c r="H43" s="24"/>
+      <c r="I43" s="23" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="18">
@@ -2770,8 +2779,8 @@
         <f>S11</f>
         <v>-100.82644628099173</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="45" t="s">
+      <c r="L43" s="24"/>
+      <c r="M43" s="29" t="s">
         <v>52</v>
       </c>
       <c r="N43" s="21">
@@ -2795,8 +2804,8 @@
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="46" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="30" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="21">
@@ -2805,8 +2814,8 @@
       <c r="G44" s="17">
         <v>-626.08695652173913</v>
       </c>
-      <c r="H44" s="40"/>
-      <c r="I44" s="42" t="s">
+      <c r="H44" s="24"/>
+      <c r="I44" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J44" s="18">
@@ -2817,8 +2826,8 @@
         <f>U11</f>
         <v>-1.1900826446280992</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="46" t="s">
+      <c r="L44" s="24"/>
+      <c r="M44" s="30" t="s">
         <v>57</v>
       </c>
       <c r="N44" s="21">
@@ -2832,20 +2841,20 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
@@ -2859,8 +2868,8 @@
         <f>I18</f>
         <v>605.88235294117646</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="45" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="21">
@@ -2871,8 +2880,8 @@
         <f>C40+C43</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="39" t="s">
+      <c r="H46" s="24"/>
+      <c r="I46" s="23" t="s">
         <v>48</v>
       </c>
       <c r="J46" s="18">
@@ -2883,8 +2892,8 @@
         <f>I28</f>
         <v>-515</v>
       </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="45" t="s">
+      <c r="L46" s="24"/>
+      <c r="M46" s="29" t="s">
         <v>48</v>
       </c>
       <c r="N46" s="21">
@@ -2907,8 +2916,8 @@
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="47" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F47" s="21">
@@ -2919,8 +2928,8 @@
         <f>C41+C44</f>
         <v>636.22171945701348</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="42" t="s">
+      <c r="H47" s="24"/>
+      <c r="I47" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J47" s="18">
@@ -2931,8 +2940,8 @@
         <f>K28</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="47" t="s">
+      <c r="L47" s="24"/>
+      <c r="M47" s="31" t="s">
         <v>47</v>
       </c>
       <c r="N47" s="21">
@@ -2944,20 +2953,20 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
@@ -2971,8 +2980,8 @@
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="45" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F49" s="21">
@@ -2983,8 +2992,8 @@
         <f>C37+G37</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="39" t="s">
+      <c r="H49" s="24"/>
+      <c r="I49" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J49" s="18">
@@ -2995,8 +3004,8 @@
         <f>I33</f>
         <v>-468.18181818181813</v>
       </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="45" t="s">
+      <c r="L49" s="24"/>
+      <c r="M49" s="29" t="s">
         <v>49</v>
       </c>
       <c r="N49" s="21">
@@ -3019,8 +3028,8 @@
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="47" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="31" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="21">
@@ -3031,8 +3040,8 @@
         <f>C38+G38</f>
         <v>1.5081967213114757E-2</v>
       </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="42" t="s">
+      <c r="H50" s="24"/>
+      <c r="I50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="18">
@@ -3043,8 +3052,8 @@
         <f>K33</f>
         <v>-2.1969696969696968</v>
       </c>
-      <c r="L50" s="40"/>
-      <c r="M50" s="47" t="s">
+      <c r="L50" s="24"/>
+      <c r="M50" s="31" t="s">
         <v>47</v>
       </c>
       <c r="N50" s="21">
@@ -3056,26 +3065,42 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H31:K31"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="R1:U1"/>
@@ -3091,22 +3116,6 @@
     <mergeCell ref="N20:P20"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3124,21 +3133,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="G1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\source\repos\TP3-Electro\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD00522-CE14-4EB4-B47A-A5C6757AFC91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737CB4A-96D3-4841-ADE2-8F00DFC19311}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <r>
       <t>V</t>
@@ -476,18 +476,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>P[W]</t>
   </si>
   <si>
@@ -768,6 +756,9 @@
       </rPr>
       <t xml:space="preserve"> ES SIEMPRE SALIENTE</t>
     </r>
+  </si>
+  <si>
+    <t>AD - BC = 1</t>
   </si>
 </sst>
 </file>
@@ -1067,15 +1058,69 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,64 +1148,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1477,47 +1468,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="H1" s="55" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="H1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1531,30 +1523,30 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1611,8 +1603,11 @@
       <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="W3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1670,19 +1665,23 @@
         <v>1.3958810068649885</v>
       </c>
       <c r="S4" s="7">
-        <f>-B4/E4*1000</f>
-        <v>-265.21739130434781</v>
+        <f>B4/E4*1000</f>
+        <v>265.21739130434781</v>
       </c>
       <c r="T4" s="7">
         <f>D6/C6/1000</f>
         <v>3.7528604118993139E-3</v>
       </c>
       <c r="U4" s="7">
-        <f>-D4/E4</f>
-        <v>-1.4565217391304348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+        <f>D4/E4</f>
+        <v>1.4565217391304348</v>
+      </c>
+      <c r="W4" s="13">
+        <f>R4*U4-S4*T4</f>
+        <v>1.037807183364839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -1715,8 +1714,9 @@
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="W5" s="33"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1749,8 +1749,9 @@
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1771,38 +1772,40 @@
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="W8" s="33"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
       <c r="B9" s="37" t="s">
         <v>0</v>
@@ -1818,30 +1821,31 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="56" t="str">
+      <c r="H9" s="47" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="24"/>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="W9" s="33"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -1886,20 +1890,23 @@
         <v>17</v>
       </c>
       <c r="Q10" s="24"/>
-      <c r="R10" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="R10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1957,19 +1964,23 @@
         <v>6.3549704947798462</v>
       </c>
       <c r="S11" s="7">
-        <f>-B11/E11*1000</f>
-        <v>-100.82644628099173</v>
+        <f>B11/E11*1000</f>
+        <v>100.82644628099173</v>
       </c>
       <c r="T11" s="7">
         <f>D13/C13/1000</f>
         <v>6.3549704947798462E-3</v>
       </c>
       <c r="U11" s="7">
-        <f>-D11/E11</f>
-        <v>-1.1900826446280992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+        <f>D11/E11</f>
+        <v>1.1900826446280992</v>
+      </c>
+      <c r="W11" s="13">
+        <f>R11*U11-S11*T11</f>
+        <v>6.9221910017519317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +2006,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2031,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -2033,29 +2044,29 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="N15" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="N15" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="37" t="s">
         <v>0</v>
@@ -2071,17 +2082,17 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="N16" s="48" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
@@ -2115,11 +2126,11 @@
       <c r="K17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -2172,26 +2183,26 @@
       <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="N20" s="48" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
@@ -2209,12 +2220,12 @@
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
@@ -2300,21 +2311,21 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
@@ -2332,12 +2343,13 @@
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
@@ -2370,6 +2382,9 @@
       </c>
       <c r="K27" s="34" t="s">
         <v>22</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2396,16 +2411,20 @@
         <v>2.2888888888888888</v>
       </c>
       <c r="I28" s="13">
-        <f>-B27/E27*1000</f>
-        <v>-515</v>
+        <f>B27/E27*1000</f>
+        <v>515</v>
       </c>
       <c r="J28" s="13">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
       <c r="K28" s="13">
-        <f>-D27/E27</f>
-        <v>-3.4166666666666665</v>
+        <f>D27/E27</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="M28" s="13">
+        <f>H28*K28-I28*J28</f>
+        <v>1.049074074074074</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2420,23 +2439,25 @@
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
@@ -2454,12 +2475,13 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="56" t="s">
+      <c r="H31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
@@ -2492,6 +2514,9 @@
       </c>
       <c r="K32" s="34" t="s">
         <v>22</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -2518,40 +2543,44 @@
         <v>3.5558112773302644</v>
       </c>
       <c r="I33" s="13">
-        <f>-B32/E32*1000</f>
-        <v>-468.18181818181813</v>
+        <f>B32/E32*1000</f>
+        <v>468.18181818181813</v>
       </c>
       <c r="J33" s="13">
         <f>E32/B33/1000</f>
         <v>2.1359223300970879E-3</v>
       </c>
       <c r="K33" s="13">
-        <f>-D32/E32</f>
-        <v>-2.1969696969696968</v>
+        <f>D32/E32</f>
+        <v>2.1969696969696968</v>
+      </c>
+      <c r="M33" s="13">
+        <f>H33*K33-I33*J33</f>
+        <v>6.8120096244377013</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="71"/>
+      <c r="A35" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B37" s="18">
         <f>M4</f>
@@ -2563,7 +2592,7 @@
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F37" s="18">
         <f>M11</f>
@@ -2584,7 +2613,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" s="18">
         <f>O4</f>
@@ -2596,7 +2625,7 @@
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
         <f>O11</f>
@@ -2634,7 +2663,7 @@
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="18">
         <f>H4</f>
@@ -2646,7 +2675,7 @@
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" s="21">
         <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
@@ -2657,7 +2686,7 @@
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J40" s="18">
         <f>R4</f>
@@ -2665,11 +2694,11 @@
       </c>
       <c r="K40" s="14">
         <f>S4</f>
-        <v>-265.21739130434781</v>
+        <v>265.21739130434781</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N40" s="21">
         <f>B40/B41</f>
@@ -2682,7 +2711,7 @@
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" s="18">
         <f>J4</f>
@@ -2694,7 +2723,7 @@
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F41" s="21">
         <v>-258.37937384898709</v>
@@ -2704,7 +2733,7 @@
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J41" s="18">
         <f>T4</f>
@@ -2712,11 +2741,11 @@
       </c>
       <c r="K41" s="14">
         <f>U4</f>
-        <v>-1.4565217391304348</v>
+        <v>1.4565217391304348</v>
       </c>
       <c r="L41" s="24"/>
       <c r="M41" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N41" s="21">
         <f>1/B41</f>
@@ -2746,7 +2775,7 @@
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="18">
         <f>H11</f>
@@ -2758,7 +2787,7 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F43" s="21">
         <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
@@ -2769,7 +2798,7 @@
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J43" s="18">
         <f>R11</f>
@@ -2777,11 +2806,11 @@
       </c>
       <c r="K43" s="14">
         <f>S11</f>
-        <v>-100.82644628099173</v>
+        <v>100.82644628099173</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N43" s="21">
         <f>B43/B44</f>
@@ -2794,7 +2823,7 @@
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="18">
         <f>J11</f>
@@ -2806,7 +2835,7 @@
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F44" s="21">
         <v>526.08695652173913</v>
@@ -2816,7 +2845,7 @@
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J44" s="18">
         <f>T11</f>
@@ -2824,11 +2853,11 @@
       </c>
       <c r="K44" s="14">
         <f>U11</f>
-        <v>-1.1900826446280992</v>
+        <v>1.1900826446280992</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N44" s="21">
         <f>1/B44</f>
@@ -2858,7 +2887,7 @@
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="18">
         <f>H18</f>
@@ -2870,7 +2899,7 @@
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F46" s="21">
         <f>B40+B43</f>
@@ -2882,7 +2911,7 @@
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J46" s="18">
         <f>H28</f>
@@ -2890,11 +2919,11 @@
       </c>
       <c r="K46" s="14">
         <f>I28</f>
-        <v>-515</v>
+        <v>515</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N46" s="21">
         <f t="array" ref="N46:O47">MMULT(N43:O44,N40:O41)</f>
@@ -2906,7 +2935,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B47" s="18">
         <f>J11</f>
@@ -2918,7 +2947,7 @@
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="21">
         <f>B41+B44</f>
@@ -2930,7 +2959,7 @@
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J47" s="18">
         <f>J28</f>
@@ -2938,11 +2967,11 @@
       </c>
       <c r="K47" s="14">
         <f>K28</f>
-        <v>-3.4166666666666665</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N47" s="21">
         <v>1.3347115992873653E-2</v>
@@ -2970,7 +2999,7 @@
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" s="18">
         <f>H23</f>
@@ -2982,7 +3011,7 @@
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" s="21">
         <f>B37+F37</f>
@@ -2994,7 +3023,7 @@
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J49" s="18">
         <f>H33</f>
@@ -3002,11 +3031,11 @@
       </c>
       <c r="K49" s="14">
         <f>I33</f>
-        <v>-468.18181818181813</v>
+        <v>468.18181818181813</v>
       </c>
       <c r="L49" s="24"/>
       <c r="M49" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N49" s="21">
         <f t="array" ref="N49:O50">MMULT(N40:O41,N43:O44)</f>
@@ -3018,7 +3047,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B50" s="18">
         <f>J23</f>
@@ -3030,7 +3059,7 @@
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="21">
         <f>B38+F38</f>
@@ -3042,7 +3071,7 @@
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J50" s="18">
         <f>J33</f>
@@ -3050,11 +3079,11 @@
       </c>
       <c r="K50" s="14">
         <f>K33</f>
-        <v>-2.1969696969696968</v>
+        <v>2.1969696969696968</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N50" s="21">
         <v>1.5892864311426426E-2</v>
@@ -3085,6 +3114,21 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -3101,21 +3145,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3133,21 +3162,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="G1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3181,7 +3210,7 @@
         <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\source\repos\TP3-Electro\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737CB4A-96D3-4841-ADE2-8F00DFC19311}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7491D6C-B81E-4C2E-911D-D7192B3CFC81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -1058,6 +1058,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,42 +1146,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,32 +1482,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="H1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="R1" s="60" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1523,28 +1523,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="58" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="R2" s="58" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1775,34 +1775,34 @@
       <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="M8" s="65" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="24"/>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -1821,28 +1821,28 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="47" t="str">
+      <c r="H9" s="59" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="M9" s="62" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="24"/>
-      <c r="R9" s="62" t="str">
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -1964,20 +1964,20 @@
         <v>6.3549704947798462</v>
       </c>
       <c r="S11" s="7">
-        <f>B11/E11*1000</f>
-        <v>100.82644628099173</v>
+        <f>-B11/E11*1000</f>
+        <v>-100.82644628099173</v>
       </c>
       <c r="T11" s="7">
         <f>D13/C13/1000</f>
         <v>6.3549704947798462E-3</v>
       </c>
       <c r="U11" s="7">
-        <f>D11/E11</f>
-        <v>1.1900826446280992</v>
+        <f>-D11/E11</f>
+        <v>-1.1900826446280992</v>
       </c>
       <c r="W11" s="13">
         <f>R11*U11-S11*T11</f>
-        <v>6.9221910017519317</v>
+        <v>-6.9221910017519317</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -2045,26 +2045,26 @@
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="N15" s="69" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="N15" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
@@ -2082,17 +2082,17 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="N16" s="66" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
@@ -2126,11 +2126,11 @@
       <c r="K17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
@@ -2183,26 +2183,26 @@
       <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="N20" s="66" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
@@ -2311,21 +2311,21 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
@@ -2343,12 +2343,12 @@
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2411,20 +2411,20 @@
         <v>2.2888888888888888</v>
       </c>
       <c r="I28" s="13">
-        <f>B27/E27*1000</f>
-        <v>515</v>
+        <f>-B27/E27*1000</f>
+        <v>-515</v>
       </c>
       <c r="J28" s="13">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
       <c r="K28" s="13">
-        <f>D27/E27</f>
-        <v>3.4166666666666665</v>
+        <f>-D27/E27</f>
+        <v>-3.4166666666666665</v>
       </c>
       <c r="M28" s="13">
         <f>H28*K28-I28*J28</f>
-        <v>1.049074074074074</v>
+        <v>-1.049074074074074</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2442,21 +2442,21 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2543,40 +2543,40 @@
         <v>3.5558112773302644</v>
       </c>
       <c r="I33" s="13">
-        <f>B32/E32*1000</f>
-        <v>468.18181818181813</v>
+        <f>-B32/E32*1000</f>
+        <v>-468.18181818181813</v>
       </c>
       <c r="J33" s="13">
         <f>E32/B33/1000</f>
         <v>2.1359223300970879E-3</v>
       </c>
       <c r="K33" s="13">
-        <f>D32/E32</f>
-        <v>2.1969696969696968</v>
+        <f>-D32/E32</f>
+        <v>-2.1969696969696968</v>
       </c>
       <c r="M33" s="13">
         <f>H33*K33-I33*J33</f>
-        <v>6.8120096244377013</v>
+        <v>-6.8120096244377013</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="K43" s="14">
         <f>S11</f>
-        <v>100.82644628099173</v>
+        <v>-100.82644628099173</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="29" t="s">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K44" s="14">
         <f>U11</f>
-        <v>1.1900826446280992</v>
+        <v>-1.1900826446280992</v>
       </c>
       <c r="L44" s="24"/>
       <c r="M44" s="30" t="s">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K46" s="14">
         <f>I28</f>
-        <v>515</v>
+        <v>-515</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="29" t="s">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="K47" s="14">
         <f>K28</f>
-        <v>3.4166666666666665</v>
+        <v>-3.4166666666666665</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="31" t="s">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="K49" s="14">
         <f>I33</f>
-        <v>468.18181818181813</v>
+        <v>-468.18181818181813</v>
       </c>
       <c r="L49" s="24"/>
       <c r="M49" s="29" t="s">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="K50" s="14">
         <f>K33</f>
-        <v>2.1969696969696968</v>
+        <v>-2.1969696969696968</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="31" t="s">
@@ -3114,21 +3114,6 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -3145,6 +3130,21 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3162,13 +3162,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="G1" s="70" t="s">
         <v>28</v>
       </c>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\source\repos\TP3-Electro\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7491D6C-B81E-4C2E-911D-D7192B3CFC81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F227CA8-DA40-4DE1-A3B6-2599EC7BA279}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="A dado vuelta" sheetId="1" r:id="rId1"/>
+    <sheet name="A normal" sheetId="4" r:id="rId2"/>
+    <sheet name="Potencias" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="54">
   <si>
     <r>
       <t>V</t>
@@ -468,12 +469,6 @@
       </rPr>
       <t>[Ohm]</t>
     </r>
-  </si>
-  <si>
-    <t>43.5</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>P[W]</t>
@@ -981,9 +976,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,15 +1050,69 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,64 +1140,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1470,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,32 +1477,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="H1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="R1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1523,59 +1518,59 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="57" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="57" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="R2" s="57" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>3.05</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>32*0.5</f>
         <v>16</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="4"/>
@@ -1603,43 +1598,43 @@
       <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="34" t="s">
-        <v>55</v>
+      <c r="W3" s="33" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>3.05</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>33.5*0.5</f>
         <v>16.75</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>0.5*23</f>
         <v>11.5</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="13">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="12">
         <f>B6/D6*1000</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f>B5/E5*1000</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>C6/D6*1000</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f>C5/E5*1000</f>
         <v>448.5294117647058</v>
       </c>
@@ -1659,7 +1654,7 @@
         <f>E3/C3/1000</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="23"/>
       <c r="R4" s="7">
         <f>B6/C6</f>
         <v>1.3958810068649885</v>
@@ -1676,220 +1671,220 @@
         <f>D4/E4</f>
         <v>1.4565217391304348</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="12">
         <f>R4*U4-S4*T4</f>
         <v>1.037807183364839</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>2.11</f>
         <v>2.11</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>3.05</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>0.1*68</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="W5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>3.05</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>2.185</f>
         <v>2.1850000000000001</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f>82*0.1</f>
         <v>8.2000000000000011</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="W6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="W6" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="W7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="46" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="M8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="43" t="s">
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="W8" s="33"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="59" t="str">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="46" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="61" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="44" t="str">
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="61" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="W9" s="33"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>3.05</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>83*0.5</f>
         <v>41.5</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f>60*0.5</f>
         <v>30</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="24"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1902,49 +1897,49 @@
       <c r="U10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="34" t="s">
-        <v>55</v>
+      <c r="W10" s="33" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>3.05</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
-        <f>72*0.5</f>
-        <v>36</v>
-      </c>
-      <c r="E11" s="13">
-        <f>60.5*0.5</f>
-        <v>30.25</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="13">
+      <c r="D11" s="12">
+        <f>70*0.5</f>
+        <v>35</v>
+      </c>
+      <c r="E11" s="12">
+        <f>59*0.5</f>
+        <v>29.5</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="12">
         <f>B13/D13*1000</f>
-        <v>217.85714285714283</v>
-      </c>
-      <c r="I11" s="13">
+        <v>222.69090909090909</v>
+      </c>
+      <c r="I11" s="12">
         <f>B12/E12*1000</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f>C13/D13*1000</f>
-        <v>157.35714285714283</v>
-      </c>
-      <c r="K11" s="13">
+        <v>160.58181818181819</v>
+      </c>
+      <c r="K11" s="12">
         <f>C12/E12*1000</f>
         <v>187.69230769230768</v>
       </c>
       <c r="M11" s="7">
         <f>D11/B11/1000</f>
-        <v>1.180327868852459E-2</v>
+        <v>1.1475409836065575E-2</v>
       </c>
       <c r="N11" s="7">
         <f>D10/C10/1000</f>
@@ -1952,1168 +1947,1183 @@
       </c>
       <c r="O11" s="7">
         <f>E11/B11/1000</f>
-        <v>9.9180327868852464E-3</v>
+        <v>9.6721311475409834E-3</v>
       </c>
       <c r="P11" s="7">
         <f>E10/C10/1000</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="Q11" s="24"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="7">
         <f>D13/C13</f>
-        <v>6.3549704947798462</v>
+        <v>6.2273550724637676</v>
       </c>
       <c r="S11" s="7">
         <f>-B11/E11*1000</f>
-        <v>-100.82644628099173</v>
+        <v>-103.38983050847457</v>
       </c>
       <c r="T11" s="7">
         <f>D13/C13/1000</f>
-        <v>6.3549704947798462E-3</v>
+        <v>6.227355072463768E-3</v>
       </c>
       <c r="U11" s="7">
         <f>-D11/E11</f>
-        <v>-1.1900826446280992</v>
-      </c>
-      <c r="W11" s="13">
+        <v>-1.1864406779661016</v>
+      </c>
+      <c r="W11" s="12">
         <f>R11*U11-S11*T11</f>
-        <v>-6.9221910017519317</v>
+        <v>-6.7445421886514367</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>2.557</f>
         <v>2.5569999999999999</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>3.05</f>
         <v>3.05</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>32.5*0.5</f>
         <v>16.25</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13">
-        <v>3.05</v>
-      </c>
-      <c r="C13" s="13">
-        <f>2.203</f>
-        <v>2.2029999999999998</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="B13" s="12">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C13" s="12">
+        <f>2.208</f>
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="D13" s="12">
+        <f>27.5*0.5</f>
+        <v>13.75</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="N15" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="N16" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37">
+        <f>2.158</f>
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <f>52.9*0.1</f>
+        <v>5.29</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C18" s="12">
+        <f>2.212</f>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D18" s="12">
+        <f>51.5*0.1</f>
+        <v>5.15</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="12">
+        <f>B18/D18*1000</f>
+        <v>594.56310679611647</v>
+      </c>
+      <c r="I18" s="12">
+        <f>B18/E17*1000</f>
+        <v>578.82797731568996</v>
+      </c>
+      <c r="J18" s="12">
+        <f>C18/D18*1000</f>
+        <v>429.51456310679612</v>
+      </c>
+      <c r="K18" s="12">
+        <f>C18/E17*1000</f>
+        <v>418.1474480151229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="N20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="D22" s="12">
+        <f>0.5*83</f>
+        <v>41.5</v>
+      </c>
+      <c r="E22" s="12">
+        <f>0.25*23</f>
+        <v>5.75</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f>0.5*45</f>
+        <v>22.5</v>
+      </c>
+      <c r="E23" s="12">
+        <f>83*0.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="12">
+        <f>D23/1000/B23</f>
+        <v>7.2815533980582527E-3</v>
+      </c>
+      <c r="I23" s="12">
+        <f>D22/1000/C22</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f>E23/1000/B23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="K23" s="12">
+        <f>E22/1000/C22</f>
+        <v>1.8608414239482201E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>0.5*41</f>
+        <v>20.5</v>
+      </c>
+      <c r="E27" s="12">
+        <f>0.1*60</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="D28" s="12">
+        <f>35.5*0.5</f>
+        <v>17.75</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="12">
+        <f>B28/C28</f>
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="I28" s="12">
+        <f>-B27/E27*1000</f>
+        <v>-515</v>
+      </c>
+      <c r="J28" s="12">
+        <f>D28/C28/1000</f>
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <f>-D27/E27</f>
+        <v>-3.4166666666666665</v>
+      </c>
+      <c r="M28" s="12">
+        <f>H28*K28-I28*J28</f>
+        <v>-1.049074074074074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
         <f>28*0.5</f>
         <v>14</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E32" s="12">
+        <f>0.1*65</f>
+        <v>6.5</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="12">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D33" s="12">
+        <f>24.5*0.5</f>
+        <v>12.25</v>
+      </c>
+      <c r="E33" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="N15" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="N16" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="38">
-        <f>2.158</f>
-        <v>2.1579999999999999</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="D17" s="13">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
-        <f>51*0.1</f>
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C18" s="13">
-        <f>2.351</f>
-        <v>2.351</v>
-      </c>
-      <c r="D18" s="13">
-        <f>55*0.1</f>
-        <v>5.5</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="13">
-        <f>B18/D18*1000</f>
-        <v>561.81818181818176</v>
-      </c>
-      <c r="I18" s="13">
-        <f>B18/E17*1000</f>
-        <v>605.88235294117646</v>
-      </c>
-      <c r="J18" s="13">
-        <f>C18/D18*1000</f>
-        <v>427.4545454545455</v>
-      </c>
-      <c r="K18" s="13">
-        <f>C18/E17*1000</f>
-        <v>460.98039215686271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="D22" s="13">
-        <f>0.5*83</f>
-        <v>41.5</v>
-      </c>
-      <c r="E22" s="13">
-        <f>0.25*23</f>
-        <v>5.75</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13">
-        <f>0.5*45</f>
-        <v>22.5</v>
-      </c>
-      <c r="E23" s="13">
-        <f>83*0.5</f>
-        <v>41.5</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="13">
-        <f>D23/1000/B23</f>
-        <v>7.2815533980582527E-3</v>
-      </c>
-      <c r="I23" s="13">
-        <f>D22/1000/C22</f>
-        <v>1.3430420711974112E-2</v>
-      </c>
-      <c r="J23" s="13">
-        <f>E23/1000/B23</f>
-        <v>1.3430420711974112E-2</v>
-      </c>
-      <c r="K23" s="13">
-        <f>E22/1000/C22</f>
-        <v>1.8608414239482201E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0</v>
-      </c>
-      <c r="D27" s="13">
-        <f>0.5*41</f>
-        <v>20.5</v>
-      </c>
-      <c r="E27" s="13">
-        <f>0.1*60</f>
-        <v>6</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.35</v>
-      </c>
-      <c r="D28" s="13">
-        <f>35.5*0.5</f>
-        <v>17.75</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="13">
-        <f>B28/C28</f>
-        <v>2.2888888888888888</v>
-      </c>
-      <c r="I28" s="13">
-        <f>-B27/E27*1000</f>
-        <v>-515</v>
-      </c>
-      <c r="J28" s="13">
-        <f>D28/C28/1000</f>
-        <v>1.3148148148148147E-2</v>
-      </c>
-      <c r="K28" s="13">
-        <f>-D27/E27</f>
-        <v>-3.4166666666666665</v>
-      </c>
-      <c r="M28" s="13">
-        <f>H28*K28-I28*J28</f>
-        <v>-1.049074074074074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
-        <f>29*0.5</f>
-        <v>14.5</v>
-      </c>
-      <c r="E32" s="13">
-        <f>0.1*66</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="13">
-        <v>3.09</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="D33" s="13">
-        <f>25*0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="13">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="12">
         <f>B33/C33</f>
-        <v>3.5558112773302644</v>
-      </c>
-      <c r="I33" s="13">
+        <v>3.5854800936768148</v>
+      </c>
+      <c r="I33" s="12">
         <f>-B32/E32*1000</f>
-        <v>-468.18181818181813</v>
-      </c>
-      <c r="J33" s="13">
+        <v>-471.07692307692304</v>
+      </c>
+      <c r="J33" s="12">
         <f>E32/B33/1000</f>
-        <v>2.1359223300970879E-3</v>
-      </c>
-      <c r="K33" s="13">
+        <v>2.122795558458524E-3</v>
+      </c>
+      <c r="K33" s="12">
         <f>-D32/E32</f>
-        <v>-2.1969696969696968</v>
-      </c>
-      <c r="M33" s="13">
+        <v>-2.1538461538461537</v>
+      </c>
+      <c r="M33" s="12">
         <f>H33*K33-I33*J33</f>
-        <v>-6.8120096244377013</v>
+        <v>-6.7225725094577546</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
+      <c r="A35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="18">
+      <c r="A37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="17">
         <f>M4</f>
         <v>5.4918032786885245E-3</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <f>N4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="D37" s="21"/>
+      <c r="E37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="17">
         <f>M11</f>
-        <v>1.180327868852459E-2</v>
-      </c>
-      <c r="G37" s="14">
+        <v>1.1475409836065575E-2</v>
+      </c>
+      <c r="G37" s="13">
         <f>N11</f>
         <v>1.3606557377049182E-2</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="18">
+      <c r="A38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17">
         <f>O4</f>
         <v>3.7704918032786887E-3</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <f>P4</f>
         <v>5.2459016393442632E-3</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="17">
         <f>O11</f>
-        <v>9.9180327868852464E-3</v>
-      </c>
-      <c r="G38" s="14">
+        <v>9.6721311475409834E-3</v>
+      </c>
+      <c r="G38" s="13">
         <f>P11</f>
         <v>9.8360655737704927E-3</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="18">
+      <c r="A40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17">
         <f>H4</f>
         <v>371.95121951219505</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <f>I4</f>
         <v>310.29411764705878</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="D40" s="21"/>
+      <c r="E40" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="20">
         <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
         <v>359.48434622467772</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="16">
         <v>-258.37937384898709</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="18">
+      <c r="H40" s="23"/>
+      <c r="I40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="17">
         <f>R4</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <f>S4</f>
         <v>265.21739130434781</v>
       </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="N40" s="21">
+      <c r="L40" s="23"/>
+      <c r="M40" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="20">
         <f>B40/B41</f>
         <v>1.3958810068649885</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="16">
         <f>MDETERM(B40:C41)/B41</f>
         <v>315.79956925561976</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="18">
+      <c r="A41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="17">
         <f>J4</f>
         <v>266.46341463414632</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <f>K4</f>
         <v>448.5294117647058</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="D41" s="24"/>
+      <c r="E41" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="20">
         <v>-258.37937384898709</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="16">
         <v>376.33517495395944</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="18">
+      <c r="H41" s="23"/>
+      <c r="I41" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="17">
         <f>T4</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <f>U4</f>
         <v>1.4565217391304348</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" s="21">
+      <c r="L41" s="23"/>
+      <c r="M41" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="20">
         <f>1/B41</f>
         <v>3.7528604118993139E-3</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="16">
         <f>C41/B41</f>
         <v>1.6832682729842507</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="18">
+      <c r="A43" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="17">
         <f>H11</f>
-        <v>217.85714285714283</v>
-      </c>
-      <c r="C43" s="14">
+        <v>222.69090909090909</v>
+      </c>
+      <c r="C43" s="13">
         <f>I11</f>
         <v>157.35384615384615</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="21">
+      <c r="D43" s="21"/>
+      <c r="E43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="20">
         <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
-        <v>-521.73913043478262</v>
-      </c>
-      <c r="G43" s="17">
-        <v>721.73913043478262</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="18">
+        <v>-525.10760401721677</v>
+      </c>
+      <c r="G43" s="16">
+        <v>726.39885222381656</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="17">
         <f>R11</f>
-        <v>6.3549704947798462</v>
-      </c>
-      <c r="K43" s="14">
+        <v>6.2273550724637676</v>
+      </c>
+      <c r="K43" s="13">
         <f>S11</f>
-        <v>-100.82644628099173</v>
-      </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" s="21">
+        <v>-103.38983050847457</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="20">
         <f>B43/B44</f>
-        <v>1.3844757149341806</v>
-      </c>
-      <c r="O43" s="17">
+        <v>1.3867753623188406</v>
+      </c>
+      <c r="O43" s="16">
         <f>MDETERM(B43:C44)/B44</f>
-        <v>102.50159572610777</v>
+        <v>102.93322185061309</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="18">
+      <c r="A44" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="17">
         <f>J11</f>
-        <v>157.35714285714283</v>
-      </c>
-      <c r="C44" s="14">
+        <v>160.58181818181819</v>
+      </c>
+      <c r="C44" s="13">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="30" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="20">
+        <v>516.35581061692983</v>
+      </c>
+      <c r="G44" s="16">
+        <v>-612.62553802008631</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="17">
+        <f>T11</f>
+        <v>6.227355072463768E-3</v>
+      </c>
+      <c r="K44" s="13">
+        <f>U11</f>
+        <v>-1.1864406779661016</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="21">
-        <v>526.08695652173913</v>
-      </c>
-      <c r="G44" s="17">
-        <v>-626.08695652173913</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="18">
-        <f>T11</f>
-        <v>6.3549704947798462E-3</v>
-      </c>
-      <c r="K44" s="14">
-        <f>U11</f>
-        <v>-1.1900826446280992</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44" s="21">
+      <c r="N44" s="20">
         <f>1/B44</f>
-        <v>6.354970494779847E-3</v>
-      </c>
-      <c r="O44" s="17">
+        <v>6.227355072463768E-3</v>
+      </c>
+      <c r="O44" s="16">
         <f>C44/B44</f>
-        <v>1.1927790774817557</v>
+        <v>1.1688266443701225</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="18">
+      <c r="A46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="17">
         <f>H18</f>
-        <v>561.81818181818176</v>
-      </c>
-      <c r="C46" s="14">
+        <v>594.56310679611647</v>
+      </c>
+      <c r="C46" s="13">
         <f>I18</f>
-        <v>605.88235294117646</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="21">
+        <v>578.82797731568996</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="20">
         <f>B40+B43</f>
-        <v>589.80836236933783</v>
-      </c>
-      <c r="G46" s="17">
+        <v>594.64212860310408</v>
+      </c>
+      <c r="G46" s="16">
         <f>C40+C43</f>
         <v>467.6479638009049</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="18">
+      <c r="H46" s="23"/>
+      <c r="I46" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="17">
         <f>H28</f>
         <v>2.2888888888888888</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="13">
         <f>I28</f>
         <v>-515</v>
       </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="21">
+      <c r="L46" s="23"/>
+      <c r="M46" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="20">
         <f t="array" ref="N46:O47">MMULT(N43:O44,N40:O41)</f>
-        <v>2.3172375356994666</v>
-      </c>
-      <c r="O46" s="17">
-        <v>609.75451843709573</v>
+        <v>2.3220674024015979</v>
+      </c>
+      <c r="O46" s="16">
+        <v>611.20728865178216</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="18">
+      <c r="A47" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="17">
         <f>J11</f>
-        <v>157.35714285714283</v>
-      </c>
-      <c r="C47" s="14">
+        <v>160.58181818181819</v>
+      </c>
+      <c r="C47" s="13">
         <f>K11</f>
         <v>187.69230769230768</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="21">
+      <c r="D47" s="23"/>
+      <c r="E47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="20">
         <f>B41+B44</f>
-        <v>423.82055749128915</v>
-      </c>
-      <c r="G47" s="17">
+        <v>427.04523281596448</v>
+      </c>
+      <c r="G47" s="16">
         <f>C41+C44</f>
         <v>636.22171945701348</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="18">
+      <c r="H47" s="23"/>
+      <c r="I47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="17">
         <f>J28</f>
         <v>1.3148148148148147E-2</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <f>K28</f>
         <v>-3.4166666666666665</v>
       </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="21">
-        <v>1.3347115992873653E-2</v>
-      </c>
-      <c r="O47" s="17">
-        <v>4.014664122688111</v>
+      <c r="L47" s="23"/>
+      <c r="M47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="20">
+        <v>1.3079089910686268E-2</v>
+      </c>
+      <c r="O47" s="16">
+        <v>3.9340448565727302</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="18">
+      <c r="A49" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="17">
         <f>H23</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <f>I23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="21">
+      <c r="D49" s="23"/>
+      <c r="E49" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="20">
         <f>B37+F37</f>
-        <v>1.7295081967213115E-2</v>
-      </c>
-      <c r="G49" s="17">
+        <v>1.69672131147541E-2</v>
+      </c>
+      <c r="G49" s="16">
         <f>C37+G37</f>
         <v>1.7377049180327869E-2</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="18">
+      <c r="H49" s="23"/>
+      <c r="I49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="17">
         <f>H33</f>
-        <v>3.5558112773302644</v>
-      </c>
-      <c r="K49" s="14">
+        <v>3.5854800936768148</v>
+      </c>
+      <c r="K49" s="13">
         <f>I33</f>
-        <v>-468.18181818181813</v>
-      </c>
-      <c r="L49" s="24"/>
-      <c r="M49" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="21">
+        <v>-471.07692307692304</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="20">
         <f t="array" ref="N49:O50">MMULT(N40:O41,N43:O44)</f>
-        <v>3.9394602998260972</v>
-      </c>
-      <c r="O49" s="17">
-        <v>519.75914953328129</v>
+        <v>3.9023694385350391</v>
+      </c>
+      <c r="O49" s="16">
+        <v>512.79748018326723</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="A50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="17">
         <f>J23</f>
         <v>1.3430420711974112E-2</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <f>K23</f>
         <v>1.8608414239482201E-3</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="21">
+      <c r="D50" s="23"/>
+      <c r="E50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="20">
         <f>B38+F38</f>
-        <v>1.3688524590163936E-2</v>
-      </c>
-      <c r="G50" s="17">
+        <v>1.3442622950819673E-2</v>
+      </c>
+      <c r="G50" s="16">
         <f>C38+G38</f>
         <v>1.5081967213114757E-2</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="18">
+      <c r="H50" s="23"/>
+      <c r="I50" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="17">
         <f>J33</f>
-        <v>2.1359223300970879E-3</v>
-      </c>
-      <c r="K50" s="14">
+        <v>2.122795558458524E-3</v>
+      </c>
+      <c r="K50" s="13">
         <f>K33</f>
-        <v>-2.1969696969696968</v>
-      </c>
-      <c r="L50" s="24"/>
-      <c r="M50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N50" s="21">
-        <v>1.5892864311426426E-2</v>
-      </c>
-      <c r="O50" s="17">
-        <v>2.3924413585614803</v>
+        <v>-2.1538461538461537</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1.5686683575529506E-2</v>
+      </c>
+      <c r="O50" s="16">
+        <v>2.3537428204392885</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:P24">
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -3130,21 +3140,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3152,33 +3147,1716 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98DE4E-8D07-412A-8ADE-7579EC4BF84A}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BAC0E1-5DAC-4D5C-9C52-9D1F4F90BAE0}">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="H1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="R1" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>$A$1</f>
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="57" t="str">
+        <f>$A$1</f>
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="R2" s="57" t="str">
+        <f>$A$1</f>
+        <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="D3" s="12">
+        <f>0.5*23</f>
+        <v>11.5</v>
+      </c>
+      <c r="E3" s="12">
+        <f>32*0.5</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <f>33.5*0.5</f>
+        <v>16.75</v>
+      </c>
+      <c r="E4" s="12">
+        <f>0.5*23</f>
+        <v>11.5</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="12">
+        <f>B6/D6*1000</f>
+        <v>371.95121951219505</v>
+      </c>
+      <c r="I4" s="12">
+        <f>B5/E5*1000</f>
+        <v>310.29411764705878</v>
+      </c>
+      <c r="J4" s="12">
+        <f>C6/D6*1000</f>
+        <v>266.46341463414632</v>
+      </c>
+      <c r="K4" s="12">
+        <f>C5/E5*1000</f>
+        <v>448.5294117647058</v>
+      </c>
+      <c r="M4" s="7">
+        <f>D4/B4/1000</f>
+        <v>5.4918032786885245E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <f>D3/C3/1000</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <f>E4/B4/1000</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="P4" s="7">
+        <f>E3/C3/1000</f>
+        <v>5.2459016393442632E-3</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="7">
+        <f>B6/C6</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="S4" s="7">
+        <f>B4/E4*1000</f>
+        <v>265.21739130434781</v>
+      </c>
+      <c r="T4" s="7">
+        <f>D6/C6/1000</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="U4" s="7">
+        <f>D4/E4</f>
+        <v>1.4565217391304348</v>
+      </c>
+      <c r="W4" s="12">
+        <f>R4*U4-S4*T4</f>
+        <v>1.037807183364839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <f>2.11</f>
+        <v>2.11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <f>0.1*68</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="W5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="C6" s="12">
+        <f>2.185</f>
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <f>82*0.1</f>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="W6" s="32"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="W7" s="32"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="M8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="W8" s="32"/>
+    </row>
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="46" t="str">
+        <f>$A$8</f>
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="M9" s="61" t="str">
+        <f>$A$8</f>
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="61" t="str">
+        <f>$A$8</f>
+        <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
+      </c>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="W9" s="32"/>
+    </row>
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="D10" s="12">
+        <f>83*0.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="E10" s="12">
+        <f>60*0.5</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <f>72*0.5</f>
+        <v>36</v>
+      </c>
+      <c r="E11" s="12">
+        <f>60.5*0.5</f>
+        <v>30.25</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="12">
+        <f>B13/D13*1000</f>
+        <v>217.85714285714283</v>
+      </c>
+      <c r="I11" s="12">
+        <f>B12/E12*1000</f>
+        <v>157.35384615384615</v>
+      </c>
+      <c r="J11" s="12">
+        <f>C13/D13*1000</f>
+        <v>157.35714285714283</v>
+      </c>
+      <c r="K11" s="12">
+        <f>C12/E12*1000</f>
+        <v>187.69230769230768</v>
+      </c>
+      <c r="M11" s="7">
+        <f>D11/B11/1000</f>
+        <v>1.180327868852459E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <f>D10/C10/1000</f>
+        <v>1.3606557377049182E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f>E11/B11/1000</f>
+        <v>9.9180327868852464E-3</v>
+      </c>
+      <c r="P11" s="7">
+        <f>E10/C10/1000</f>
+        <v>9.8360655737704927E-3</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="7">
+        <f>D13/C13</f>
+        <v>6.3549704947798462</v>
+      </c>
+      <c r="S11" s="7">
+        <f>-B11/E11*1000</f>
+        <v>-100.82644628099173</v>
+      </c>
+      <c r="T11" s="7">
+        <f>D13/C13/1000</f>
+        <v>6.3549704947798462E-3</v>
+      </c>
+      <c r="U11" s="7">
+        <f>-D11/E11</f>
+        <v>-1.1900826446280992</v>
+      </c>
+      <c r="W11" s="12">
+        <f>R11*U11-S11*T11</f>
+        <v>-6.9221910017519317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12">
+        <f>2.557</f>
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <f>3.05</f>
+        <v>3.05</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <f>32.5*0.5</f>
+        <v>16.25</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3.05</v>
+      </c>
+      <c r="C13" s="12">
+        <f>2.203</f>
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="D13" s="12">
+        <f>28*0.5</f>
+        <v>14</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="N15" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="N16" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37">
+        <f>2.158</f>
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <f>51*0.1</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C18" s="12">
+        <f>2.351</f>
+        <v>2.351</v>
+      </c>
+      <c r="D18" s="12">
+        <f>55*0.1</f>
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="12">
+        <f>B18/D18*1000</f>
+        <v>561.81818181818176</v>
+      </c>
+      <c r="I18" s="12">
+        <f>B18/E17*1000</f>
+        <v>605.88235294117646</v>
+      </c>
+      <c r="J18" s="12">
+        <f>C18/D18*1000</f>
+        <v>427.4545454545455</v>
+      </c>
+      <c r="K18" s="12">
+        <f>C18/E17*1000</f>
+        <v>460.98039215686271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="N20" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="D22" s="12">
+        <f>0.5*83</f>
+        <v>41.5</v>
+      </c>
+      <c r="E22" s="12">
+        <f>0.25*23</f>
+        <v>5.75</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f>0.5*45</f>
+        <v>22.5</v>
+      </c>
+      <c r="E23" s="12">
+        <f>83*0.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="12">
+        <f>D23/1000/B23</f>
+        <v>7.2815533980582527E-3</v>
+      </c>
+      <c r="I23" s="12">
+        <f>D22/1000/C22</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f>E23/1000/B23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="K23" s="12">
+        <f>E22/1000/C22</f>
+        <v>1.8608414239482201E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>0.5*41</f>
+        <v>20.5</v>
+      </c>
+      <c r="E27" s="12">
+        <f>0.1*60</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1.35</v>
+      </c>
+      <c r="D28" s="12">
+        <f>35.5*0.5</f>
+        <v>17.75</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="12">
+        <f>B28/C28</f>
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="I28" s="12">
+        <f>-B27/E27*1000</f>
+        <v>-515</v>
+      </c>
+      <c r="J28" s="12">
+        <f>D28/C28/1000</f>
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <f>-D27/E27</f>
+        <v>-3.4166666666666665</v>
+      </c>
+      <c r="M28" s="12">
+        <f>H28*K28-I28*J28</f>
+        <v>-1.049074074074074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f>29*0.5</f>
+        <v>14.5</v>
+      </c>
+      <c r="E32" s="12">
+        <f>0.1*66</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D33" s="12">
+        <f>25*0.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="12">
+        <f>B33/C33</f>
+        <v>3.5558112773302644</v>
+      </c>
+      <c r="I33" s="12">
+        <f>-B32/E32*1000</f>
+        <v>-468.18181818181813</v>
+      </c>
+      <c r="J33" s="12">
+        <f>E32/B33/1000</f>
+        <v>2.1359223300970879E-3</v>
+      </c>
+      <c r="K33" s="12">
+        <f>-D32/E32</f>
+        <v>-2.1969696969696968</v>
+      </c>
+      <c r="M33" s="12">
+        <f>H33*K33-I33*J33</f>
+        <v>-6.8120096244377013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="17">
+        <f>M4</f>
+        <v>5.4918032786885245E-3</v>
+      </c>
+      <c r="C37" s="13">
+        <f>N4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="17">
+        <f>M11</f>
+        <v>1.180327868852459E-2</v>
+      </c>
+      <c r="G37" s="13">
+        <f>N11</f>
+        <v>1.3606557377049182E-2</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17">
+        <f>O4</f>
+        <v>3.7704918032786887E-3</v>
+      </c>
+      <c r="C38" s="13">
+        <f>P4</f>
+        <v>5.2459016393442632E-3</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="17">
+        <f>O11</f>
+        <v>9.9180327868852464E-3</v>
+      </c>
+      <c r="G38" s="13">
+        <f>P11</f>
+        <v>9.8360655737704927E-3</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17">
+        <f>H4</f>
+        <v>371.95121951219505</v>
+      </c>
+      <c r="C40" s="13">
+        <f>I4</f>
+        <v>310.29411764705878</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
+        <v>359.48434622467772</v>
+      </c>
+      <c r="G40" s="16">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="17">
+        <f>R4</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="K40" s="13">
+        <f>S4</f>
+        <v>265.21739130434781</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="20">
+        <f>B40/B41</f>
+        <v>1.3958810068649885</v>
+      </c>
+      <c r="O40" s="16">
+        <f>MDETERM(B40:C41)/B41</f>
+        <v>315.79956925561976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="17">
+        <f>J4</f>
+        <v>266.46341463414632</v>
+      </c>
+      <c r="C41" s="13">
+        <f>K4</f>
+        <v>448.5294117647058</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="20">
+        <v>-258.37937384898709</v>
+      </c>
+      <c r="G41" s="16">
+        <v>376.33517495395944</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="17">
+        <f>T4</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="K41" s="13">
+        <f>U4</f>
+        <v>1.4565217391304348</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="20">
+        <f>1/B41</f>
+        <v>3.7528604118993139E-3</v>
+      </c>
+      <c r="O41" s="16">
+        <f>C41/B41</f>
+        <v>1.6832682729842507</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="17">
+        <f>H11</f>
+        <v>217.85714285714283</v>
+      </c>
+      <c r="C43" s="13">
+        <f>I11</f>
+        <v>157.35384615384615</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="array" ref="F43:G44">MINVERSE(F37:G38)</f>
+        <v>-521.73913043478262</v>
+      </c>
+      <c r="G43" s="16">
+        <v>721.73913043478262</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="17">
+        <f>R11</f>
+        <v>6.3549704947798462</v>
+      </c>
+      <c r="K43" s="13">
+        <f>S11</f>
+        <v>-100.82644628099173</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="20">
+        <f>B43/B44</f>
+        <v>1.3844757149341806</v>
+      </c>
+      <c r="O43" s="16">
+        <f>MDETERM(B43:C44)/B44</f>
+        <v>102.50159572610777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="17">
+        <f>J11</f>
+        <v>157.35714285714283</v>
+      </c>
+      <c r="C44" s="13">
+        <f>K11</f>
+        <v>187.69230769230768</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="20">
+        <v>526.08695652173913</v>
+      </c>
+      <c r="G44" s="16">
+        <v>-626.08695652173913</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="17">
+        <f>T11</f>
+        <v>6.3549704947798462E-3</v>
+      </c>
+      <c r="K44" s="13">
+        <f>U11</f>
+        <v>-1.1900826446280992</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="20">
+        <f>1/B44</f>
+        <v>6.354970494779847E-3</v>
+      </c>
+      <c r="O44" s="16">
+        <f>C44/B44</f>
+        <v>1.1927790774817557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="17">
+        <f>H18</f>
+        <v>561.81818181818176</v>
+      </c>
+      <c r="C46" s="13">
+        <f>I18</f>
+        <v>605.88235294117646</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="20">
+        <f>B40+B43</f>
+        <v>589.80836236933783</v>
+      </c>
+      <c r="G46" s="16">
+        <f>C40+C43</f>
+        <v>467.6479638009049</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="17">
+        <f>H28</f>
+        <v>2.2888888888888888</v>
+      </c>
+      <c r="K46" s="13">
+        <f>I28</f>
+        <v>-515</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="20">
+        <f t="array" ref="N46:O47">MMULT(N43:O44,N40:O41)</f>
+        <v>2.3172375356994666</v>
+      </c>
+      <c r="O46" s="16">
+        <v>609.75451843709573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="17">
+        <f>J11</f>
+        <v>157.35714285714283</v>
+      </c>
+      <c r="C47" s="13">
+        <f>K11</f>
+        <v>187.69230769230768</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="20">
+        <f>B41+B44</f>
+        <v>423.82055749128915</v>
+      </c>
+      <c r="G47" s="16">
+        <f>C41+C44</f>
+        <v>636.22171945701348</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="17">
+        <f>J28</f>
+        <v>1.3148148148148147E-2</v>
+      </c>
+      <c r="K47" s="13">
+        <f>K28</f>
+        <v>-3.4166666666666665</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="20">
+        <v>1.3347115992873653E-2</v>
+      </c>
+      <c r="O47" s="16">
+        <v>4.014664122688111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="17">
+        <f>H23</f>
+        <v>7.2815533980582527E-3</v>
+      </c>
+      <c r="C49" s="13">
+        <f>I23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="20">
+        <f>B37+F37</f>
+        <v>1.7295081967213115E-2</v>
+      </c>
+      <c r="G49" s="16">
+        <f>C37+G37</f>
+        <v>1.7377049180327869E-2</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="17">
+        <f>H33</f>
+        <v>3.5558112773302644</v>
+      </c>
+      <c r="K49" s="13">
+        <f>I33</f>
+        <v>-468.18181818181813</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="array" ref="N49:O50">MMULT(N40:O41,N43:O44)</f>
+        <v>3.9394602998260972</v>
+      </c>
+      <c r="O49" s="16">
+        <v>519.75914953328129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="17">
+        <f>J23</f>
+        <v>1.3430420711974112E-2</v>
+      </c>
+      <c r="C50" s="13">
+        <f>K23</f>
+        <v>1.8608414239482201E-3</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="20">
+        <f>B38+F38</f>
+        <v>1.3688524590163936E-2</v>
+      </c>
+      <c r="G50" s="16">
+        <f>C38+G38</f>
+        <v>1.5081967213114757E-2</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="17">
+        <f>J33</f>
+        <v>2.1359223300970879E-3</v>
+      </c>
+      <c r="K50" s="13">
+        <f>K33</f>
+        <v>-2.1969696969696968</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1.5892864311426426E-2</v>
+      </c>
+      <c r="O50" s="16">
+        <v>2.3924413585614803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A460C70-8EC6-4460-BB78-6752A67B18A7}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3189,168 +4867,373 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>191.4</v>
+        <v>383</v>
       </c>
       <c r="B3" s="8">
-        <v>3.09</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2">
-        <v>80.2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>3.09</v>
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <f>23*0.5</f>
+        <v>11.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>320</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C3*D3</f>
+        <v>16.007999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>188.3</v>
       </c>
       <c r="I3" s="8">
-        <v>0.82899999999999996</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="J3" s="8">
-        <f>38.5*0.5</f>
-        <v>19.25</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="13">
-        <f>I3*J3</f>
-        <v>15.95825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="I4" s="8">
-        <v>1.01</v>
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="K3" s="8">
+        <f>0.5*46</f>
+        <v>23</v>
+      </c>
+      <c r="L3" s="8">
+        <v>105.8</v>
+      </c>
+      <c r="M3" s="12">
+        <f>J3*K3</f>
+        <v>29.968999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8">
+        <v>1.411</v>
+      </c>
+      <c r="D4" s="8">
+        <f>23*0.5</f>
+        <v>11.5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>331</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F13" si="0">C4*D4</f>
+        <v>16.226500000000001</v>
       </c>
       <c r="J4" s="8">
-        <f>33.5*0.5</f>
-        <v>16.75</v>
+        <v>1.35</v>
       </c>
       <c r="K4" s="8">
-        <v>61.6</v>
-      </c>
-      <c r="L4" s="13">
-        <f t="shared" ref="L4:L8" si="0">I4*J4</f>
-        <v>16.9175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="I5" s="8">
-        <v>1.117</v>
+        <f>0.5*44.9</f>
+        <v>22.45</v>
+      </c>
+      <c r="L4" s="8">
+        <v>116</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M8" si="1">J4*K4</f>
+        <v>30.307500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>1.427</v>
+      </c>
+      <c r="D5" s="8">
+        <f>0.5*22.9</f>
+        <v>11.45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>342</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>16.33915</v>
       </c>
       <c r="J5" s="8">
-        <f>31*0.5</f>
-        <v>15.5</v>
+        <v>1.405</v>
       </c>
       <c r="K5" s="8">
-        <v>73</v>
-      </c>
-      <c r="L5" s="13">
+        <f>0.5*43.9</f>
+        <v>21.95</v>
+      </c>
+      <c r="L5" s="8">
+        <v>124</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="1"/>
+        <v>30.839749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="D6" s="8">
+        <f>0.5*22.7</f>
+        <v>11.35</v>
+      </c>
+      <c r="E6" s="8">
+        <v>355</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>17.313500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="I6" s="11">
-        <v>1.18</v>
-      </c>
-      <c r="J6" s="11">
-        <f>28.5*0.5</f>
-        <v>14.25</v>
-      </c>
-      <c r="K6" s="11">
-        <v>80</v>
-      </c>
-      <c r="L6" s="13">
+        <v>16.423449999999999</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="K6" s="10">
+        <f>0.5*42.5</f>
+        <v>21.25</v>
+      </c>
+      <c r="L6" s="10">
+        <v>145.6</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="1"/>
+        <v>31.216250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>1.454</v>
+      </c>
+      <c r="D7" s="8">
+        <f>0.5*22.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>360</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>16.814999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="I7" s="8">
-        <v>1.21</v>
+        <v>16.357499999999998</v>
       </c>
       <c r="J7" s="8">
-        <f>28*0.5</f>
-        <v>14</v>
+        <f>1.507</f>
+        <v>1.5069999999999999</v>
       </c>
       <c r="K7" s="8">
-        <v>88</v>
-      </c>
-      <c r="L7" s="13">
+        <f>0.5*41.9</f>
+        <v>20.95</v>
+      </c>
+      <c r="L7" s="8">
+        <v>157.4</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="1"/>
+        <v>31.571649999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <f>0.5*22.4</f>
+        <v>11.2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>371</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>16.939999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="I8" s="8">
-        <v>1.34</v>
+        <v>16.4528</v>
       </c>
       <c r="J8" s="8">
-        <f>24.5*0.5</f>
-        <v>12.25</v>
+        <v>1.54</v>
       </c>
       <c r="K8" s="8">
-        <v>120</v>
-      </c>
-      <c r="L8" s="13">
+        <f>41*0.5</f>
+        <v>20.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>167.8</v>
+      </c>
+      <c r="M8" s="12">
+        <f>J8*K8</f>
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <f>22.5*0.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="E9" s="8">
+        <v>383</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>16.415000000000003</v>
+        <v>16.68375</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="K9" s="8">
+        <f>41*0.5</f>
+        <v>20.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>174.5</v>
+      </c>
+      <c r="M9" s="12">
+        <f>J9*K9</f>
+        <v>31.918499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>1.492</v>
+      </c>
+      <c r="D10" s="8">
+        <f>0.5*22.2</f>
+        <v>11.1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>390</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>16.561199999999999</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="K10" s="8">
+        <f>0.5*40</f>
+        <v>20</v>
+      </c>
+      <c r="L10" s="8">
+        <v>180</v>
+      </c>
+      <c r="M10" s="12">
+        <f>J10*K10</f>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <f>0.5*21.5</f>
+        <v>10.75</v>
+      </c>
+      <c r="E11" s="8">
+        <v>400</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>16.20025</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K11" s="8">
+        <f>0.5*40.1</f>
+        <v>20.05</v>
+      </c>
+      <c r="L11" s="8">
+        <v>188.4</v>
+      </c>
+      <c r="M11" s="12">
+        <f>J11*K11</f>
+        <v>32.080000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <f>0.5*21</f>
+        <v>10.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>416</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>16.012499999999999</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.595</v>
+      </c>
+      <c r="K12" s="8">
+        <f>0.5*40.1</f>
+        <v>20.05</v>
+      </c>
+      <c r="L12" s="8">
+        <v>189</v>
+      </c>
+      <c r="M12" s="12">
+        <f>J12*K12</f>
+        <v>31.979749999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="71"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="K13" s="8">
+        <f>0.5*38</f>
+        <v>19</v>
+      </c>
+      <c r="L13" s="8">
+        <v>213</v>
+      </c>
+      <c r="M13" s="12">
+        <f>J13*K13</f>
+        <v>30.21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F227CA8-DA40-4DE1-A3B6-2599EC7BA279}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4380F6B-1B69-486C-BC28-46CC346517BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -1050,6 +1050,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1104,49 +1143,10 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,32 +1477,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="H1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="R1" s="59" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1518,28 +1518,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="57" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="R2" s="57" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -1549,11 +1549,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="12">
-        <v>3.05</v>
+        <v>3.093</v>
       </c>
       <c r="D3" s="12">
-        <f>0.5*23</f>
-        <v>11.5</v>
+        <f>0.5*23.5</f>
+        <v>11.75</v>
       </c>
       <c r="E3" s="12">
         <f>32*0.5</f>
@@ -1607,73 +1607,73 @@
         <v>5</v>
       </c>
       <c r="B4" s="12">
-        <v>3.05</v>
+        <v>3.093</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
       </c>
       <c r="D4" s="12">
-        <f>33.5*0.5</f>
-        <v>16.75</v>
+        <f>34*0.5</f>
+        <v>17</v>
       </c>
       <c r="E4" s="12">
-        <f>0.5*23</f>
-        <v>11.5</v>
+        <f>0.5*23.1</f>
+        <v>11.55</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="12">
         <f>B6/D6*1000</f>
-        <v>371.95121951219505</v>
+        <v>372.65060240963857</v>
       </c>
       <c r="I4" s="12">
         <f>B5/E5*1000</f>
-        <v>310.29411764705878</v>
+        <v>305.3237410071942</v>
       </c>
       <c r="J4" s="12">
         <f>C6/D6*1000</f>
-        <v>266.46341463414632</v>
+        <v>267.10843373493975</v>
       </c>
       <c r="K4" s="12">
         <f>C5/E5*1000</f>
-        <v>448.5294117647058</v>
+        <v>445.03597122302159</v>
       </c>
       <c r="M4" s="7">
         <f>D4/B4/1000</f>
-        <v>5.4918032786885245E-3</v>
+        <v>5.4962819269317818E-3</v>
       </c>
       <c r="N4" s="7">
         <f>D3/C3/1000</f>
-        <v>3.7704918032786887E-3</v>
+        <v>3.7989007436146135E-3</v>
       </c>
       <c r="O4" s="7">
         <f>E4/B4/1000</f>
-        <v>3.7704918032786887E-3</v>
+        <v>3.7342386032977693E-3</v>
       </c>
       <c r="P4" s="7">
         <f>E3/C3/1000</f>
-        <v>5.2459016393442632E-3</v>
+        <v>5.1729712253475585E-3</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="7">
         <f>B6/C6</f>
-        <v>1.3958810068649885</v>
+        <v>1.3951285520974288</v>
       </c>
       <c r="S4" s="7">
-        <f>B4/E4*1000</f>
-        <v>265.21739130434781</v>
+        <f>-B4/E4*1000</f>
+        <v>-267.79220779220776</v>
       </c>
       <c r="T4" s="7">
         <f>D6/C6/1000</f>
-        <v>3.7528604118993139E-3</v>
+        <v>3.7437979251240417E-3</v>
       </c>
       <c r="U4" s="7">
-        <f>D4/E4</f>
-        <v>1.4565217391304348</v>
+        <f>-D4/E4</f>
+        <v>-1.4718614718614718</v>
       </c>
       <c r="W4" s="12">
         <f>R4*U4-S4*T4</f>
-        <v>1.037807183364839</v>
+        <v>-1.050876052229232</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -1681,18 +1681,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <f>2.11</f>
-        <v>2.11</v>
+        <f>2.122</f>
+        <v>2.1219999999999999</v>
       </c>
       <c r="C5" s="12">
-        <v>3.05</v>
+        <v>3.093</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f>0.1*68</f>
-        <v>6.8000000000000007</v>
+        <f>0.1*69.5</f>
+        <v>6.95</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -1716,15 +1716,15 @@
         <v>7</v>
       </c>
       <c r="B6" s="12">
-        <v>3.05</v>
+        <v>3.093</v>
       </c>
       <c r="C6" s="12">
-        <f>2.185</f>
-        <v>2.1850000000000001</v>
+        <f>2.217</f>
+        <v>2.2170000000000001</v>
       </c>
       <c r="D6" s="12">
-        <f>82*0.1</f>
-        <v>8.2000000000000011</v>
+        <f>83*0.1</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
@@ -1770,34 +1770,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="M8" s="64" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="60" t="s">
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -1816,28 +1816,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="46" t="str">
+      <c r="H9" s="59" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="M9" s="61" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="61" t="str">
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -2040,26 +2040,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="N15" s="68" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="N15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="N16" s="65" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -2121,11 +2121,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -2178,26 +2178,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="N20" s="65" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -2306,21 +2306,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -2338,12 +2338,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2437,21 +2437,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2555,23 +2555,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -2579,11 +2579,11 @@
       </c>
       <c r="B37" s="17">
         <f>M4</f>
-        <v>5.4918032786885245E-3</v>
+        <v>5.4962819269317818E-3</v>
       </c>
       <c r="C37" s="13">
         <f>N4</f>
-        <v>3.7704918032786887E-3</v>
+        <v>3.7989007436146135E-3</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="22" t="s">
@@ -2612,11 +2612,11 @@
       </c>
       <c r="B38" s="17">
         <f>O4</f>
-        <v>3.7704918032786887E-3</v>
+        <v>3.7342386032977693E-3</v>
       </c>
       <c r="C38" s="13">
         <f>P4</f>
-        <v>5.2459016393442632E-3</v>
+        <v>5.1729712253475585E-3</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="25" t="s">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="B40" s="17">
         <f>H4</f>
-        <v>371.95121951219505</v>
+        <v>372.65060240963857</v>
       </c>
       <c r="C40" s="13">
         <f>I4</f>
-        <v>310.29411764705878</v>
+        <v>305.3237410071942</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="28" t="s">
@@ -2674,10 +2674,10 @@
       </c>
       <c r="F40" s="20">
         <f t="array" ref="F40:G41">MINVERSE(B37:C38)</f>
-        <v>359.48434622467772</v>
+        <v>363.11473906264325</v>
       </c>
       <c r="G40" s="16">
-        <v>-258.37937384898709</v>
+        <v>-266.66238649912867</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="22" t="s">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="J40" s="17">
         <f>R4</f>
-        <v>1.3958810068649885</v>
+        <v>1.3951285520974288</v>
       </c>
       <c r="K40" s="13">
         <f>S4</f>
-        <v>265.21739130434781</v>
+        <v>-267.79220779220776</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="28" t="s">
@@ -2697,11 +2697,11 @@
       </c>
       <c r="N40" s="20">
         <f>B40/B41</f>
-        <v>1.3958810068649885</v>
+        <v>1.395128552097429</v>
       </c>
       <c r="O40" s="16">
         <f>MDETERM(B40:C41)/B41</f>
-        <v>315.79956925561976</v>
+        <v>315.55864915645299</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -2710,21 +2710,21 @@
       </c>
       <c r="B41" s="17">
         <f>J4</f>
-        <v>266.46341463414632</v>
+        <v>267.10843373493975</v>
       </c>
       <c r="C41" s="13">
         <f>K4</f>
-        <v>448.5294117647058</v>
+        <v>445.03597122302159</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F41" s="20">
-        <v>-258.37937384898709</v>
+        <v>-262.12345226084568</v>
       </c>
       <c r="G41" s="16">
-        <v>376.33517495395944</v>
+        <v>385.80941025405861</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" s="25" t="s">
@@ -2732,11 +2732,11 @@
       </c>
       <c r="J41" s="17">
         <f>T4</f>
-        <v>3.7528604118993139E-3</v>
+        <v>3.7437979251240417E-3</v>
       </c>
       <c r="K41" s="13">
         <f>U4</f>
-        <v>1.4565217391304348</v>
+        <v>-1.4718614718614718</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="29" t="s">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="N41" s="20">
         <f>1/B41</f>
-        <v>3.7528604118993139E-3</v>
+        <v>3.7437979251240417E-3</v>
       </c>
       <c r="O41" s="16">
         <f>C41/B41</f>
-        <v>1.6832682729842507</v>
+        <v>1.666124745670311</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2898,11 +2898,11 @@
       </c>
       <c r="F46" s="20">
         <f>B40+B43</f>
-        <v>594.64212860310408</v>
+        <v>595.34151150054765</v>
       </c>
       <c r="G46" s="16">
         <f>C40+C43</f>
-        <v>467.6479638009049</v>
+        <v>462.67758716104038</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="22" t="s">
@@ -2922,10 +2922,10 @@
       </c>
       <c r="N46" s="20">
         <f t="array" ref="N46:O47">MMULT(N43:O44,N40:O41)</f>
-        <v>2.3220674024015979</v>
+        <v>2.3200910857069297</v>
       </c>
       <c r="O46" s="16">
-        <v>611.20728865178216</v>
+        <v>609.10854809366242</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2946,11 +2946,11 @@
       </c>
       <c r="F47" s="20">
         <f>B41+B44</f>
-        <v>427.04523281596448</v>
+        <v>427.69025191675792</v>
       </c>
       <c r="G47" s="16">
         <f>C41+C44</f>
-        <v>636.22171945701348</v>
+        <v>632.72827891532927</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="25" t="s">
@@ -2969,10 +2969,10 @@
         <v>41</v>
       </c>
       <c r="N47" s="20">
-        <v>1.3079089910686268E-2</v>
+        <v>1.3063811631665517E-2</v>
       </c>
       <c r="O47" s="16">
-        <v>3.9340448565727302</v>
+        <v>3.9125067500681054</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3010,11 +3010,11 @@
       </c>
       <c r="F49" s="20">
         <f>B37+F37</f>
-        <v>1.69672131147541E-2</v>
+        <v>1.6971691762997357E-2</v>
       </c>
       <c r="G49" s="16">
         <f>C37+G37</f>
-        <v>1.7377049180327869E-2</v>
+        <v>1.7405458120663797E-2</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="22" t="s">
@@ -3034,10 +3034,10 @@
       </c>
       <c r="N49" s="20">
         <f t="array" ref="N49:O50">MMULT(N40:O41,N43:O44)</f>
-        <v>3.9023694385350391</v>
+        <v>3.8998256578005237</v>
       </c>
       <c r="O49" s="16">
-        <v>512.79748018326723</v>
+        <v>512.43843375867505</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3058,11 +3058,11 @@
       </c>
       <c r="F50" s="20">
         <f>B38+F38</f>
-        <v>1.3442622950819673E-2</v>
+        <v>1.3406369750838754E-2</v>
       </c>
       <c r="G50" s="16">
         <f>C38+G38</f>
-        <v>1.5081967213114757E-2</v>
+        <v>1.5009036799118051E-2</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="25" t="s">
@@ -3081,10 +3081,10 @@
         <v>41</v>
       </c>
       <c r="N50" s="20">
-        <v>1.5686683575529506E-2</v>
+        <v>1.5567357110369833E-2</v>
       </c>
       <c r="O50" s="16">
-        <v>2.3537428204392885</v>
+        <v>2.3327721779745114</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3109,21 +3109,6 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -3140,6 +3125,21 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3162,32 +3162,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="H1" s="45" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="H1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="R1" s="59" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3203,28 +3203,28 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="57" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="R2" s="57" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3455,34 +3455,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="M8" s="64" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="60" t="s">
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3501,28 +3501,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="46" t="str">
+      <c r="H9" s="59" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="M9" s="61" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="61" t="str">
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3725,26 +3725,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="N15" s="68" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="N15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -3762,17 +3762,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="N16" s="65" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -3806,11 +3806,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -3863,26 +3863,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="N20" s="65" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -3991,21 +3991,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -4023,12 +4023,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4122,21 +4122,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4240,23 +4240,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -4791,22 +4791,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="H8:K8"/>
@@ -4815,13 +4806,22 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A35:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4839,22 +4839,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="H1" s="69" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="H1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4950,7 +4950,7 @@
         <v>331</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F13" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F12" si="0">C4*D4</f>
         <v>16.226500000000001</v>
       </c>
       <c r="J4" s="8">
@@ -4964,7 +4964,7 @@
         <v>116</v>
       </c>
       <c r="M4" s="12">
-        <f t="shared" ref="M4:M8" si="1">J4*K4</f>
+        <f t="shared" ref="M4:M7" si="1">J4*K4</f>
         <v>30.307500000000001</v>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
         <v>167.8</v>
       </c>
       <c r="M8" s="12">
-        <f>J8*K8</f>
+        <f t="shared" ref="M8:M13" si="2">J8*K8</f>
         <v>31.57</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
         <v>174.5</v>
       </c>
       <c r="M9" s="12">
-        <f>J9*K9</f>
+        <f t="shared" si="2"/>
         <v>31.918499999999998</v>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
         <v>180</v>
       </c>
       <c r="M10" s="12">
-        <f>J10*K10</f>
+        <f t="shared" si="2"/>
         <v>32.200000000000003</v>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
         <v>188.4</v>
       </c>
       <c r="M11" s="12">
-        <f>J11*K11</f>
+        <f t="shared" si="2"/>
         <v>32.080000000000005</v>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
         <v>189</v>
       </c>
       <c r="M12" s="12">
-        <f>J12*K12</f>
+        <f t="shared" si="2"/>
         <v>31.979749999999999</v>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="71"/>
+      <c r="F13" s="39"/>
       <c r="I13" s="11"/>
       <c r="J13" s="8">
         <v>1.59</v>
@@ -5226,7 +5226,7 @@
         <v>213</v>
       </c>
       <c r="M13" s="12">
-        <f>J13*K13</f>
+        <f t="shared" si="2"/>
         <v>30.21</v>
       </c>
     </row>

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4380F6B-1B69-486C-BC28-46CC346517BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBDCCB-E178-4E5E-A4D8-B7D6042C24E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="A dado vuelta" sheetId="1" r:id="rId1"/>
@@ -1053,42 +1053,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,6 +1107,42 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,6 +1164,2136 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P vs. R del Cuadripolo "B"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Potencias!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P[W]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Potencias!$E$2:$E$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Potencias!$E$3:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>416</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Potencias!$F$3:$F$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Potencias!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16.226500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.33915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.357499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.4528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.68375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.561199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.20025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4B7-45DB-A922-694F1F1D4197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="377030264"/>
+        <c:axId val="377025344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="377030264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Resistencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de carga [Ohm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377025344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="377025344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Potencia [W]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377030264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> vs. R del Cuadripolo "A"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Potencias!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>105.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Potencias!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.968999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.307500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.839749999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.216250000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.571649999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.918499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.979749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA53-4BF5-9A00-9B195CE8DABC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="379474808"/>
+        <c:axId val="379475792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="379474808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Resistencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de carga [Ohm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379475792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="379475792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Potencia [w]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379474808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF652B4-F76D-4733-8D57-5F373F23707E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056382EA-E87E-48A3-BB4C-DB564D0D73A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +3595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1234583-11C2-4965-B267-EB43A84ACFA3}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -1477,32 +3607,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="H1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1518,28 +3648,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -1770,34 +3900,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -1816,28 +3946,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="47" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -2040,26 +4170,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="N15" s="51" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="N15" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -2077,17 +4207,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="N16" s="48" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -2121,11 +4251,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -2178,26 +4308,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="48" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -2215,12 +4345,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -2306,21 +4436,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -2338,12 +4468,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2437,21 +4567,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2470,12 +4600,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -2555,23 +4685,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -3109,6 +5239,21 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -3125,21 +5270,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3162,32 +5292,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="H1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3203,28 +5333,28 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3455,34 +5585,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3501,28 +5631,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="47" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3725,26 +5855,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="N15" s="51" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="N15" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -3762,17 +5892,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="N16" s="48" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -3806,11 +5936,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -3863,26 +5993,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="48" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -3900,12 +6030,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -3991,21 +6121,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -4023,12 +6153,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4122,21 +6252,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4155,12 +6285,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4240,23 +6370,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -4791,13 +6921,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:K25"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="H8:K8"/>
@@ -4811,17 +6945,13 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4832,21 +6962,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A460C70-8EC6-4460-BB78-6752A67B18A7}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="H1" s="70" t="s">
         <v>28</v>
       </c>
@@ -4950,7 +7080,7 @@
         <v>331</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F12" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F5" si="0">C4*D4</f>
         <v>16.226500000000001</v>
       </c>
       <c r="J4" s="8">
@@ -5000,18 +7130,18 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
-        <v>1.4470000000000001</v>
+        <v>1.454</v>
       </c>
       <c r="D6" s="8">
-        <f>0.5*22.7</f>
-        <v>11.35</v>
+        <f>0.5*22.5</f>
+        <v>11.25</v>
       </c>
       <c r="E6" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>16.423449999999999</v>
+        <f>C6*D6</f>
+        <v>16.357499999999998</v>
       </c>
       <c r="J6" s="10">
         <v>1.4690000000000001</v>
@@ -5030,18 +7160,18 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
-        <v>1.454</v>
+        <v>1.4690000000000001</v>
       </c>
       <c r="D7" s="8">
-        <f>0.5*22.5</f>
-        <v>11.25</v>
+        <f>0.5*22.4</f>
+        <v>11.2</v>
       </c>
       <c r="E7" s="8">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>16.357499999999998</v>
+        <f>C7*D7</f>
+        <v>16.4528</v>
       </c>
       <c r="J7" s="8">
         <f>1.507</f>
@@ -5061,152 +7191,138 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="8">
-        <v>1.4690000000000001</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="D8" s="8">
-        <f>0.5*22.4</f>
-        <v>11.2</v>
+        <f>22.5*0.5</f>
+        <v>11.25</v>
       </c>
       <c r="E8" s="8">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>16.4528</v>
+        <f>C8*D8</f>
+        <v>16.68375</v>
       </c>
       <c r="J8" s="8">
-        <v>1.54</v>
+        <v>1.5569999999999999</v>
       </c>
       <c r="K8" s="8">
         <f>41*0.5</f>
         <v>20.5</v>
       </c>
       <c r="L8" s="8">
-        <v>167.8</v>
+        <v>174.5</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" ref="M8:M13" si="2">J8*K8</f>
-        <v>31.57</v>
+        <f>J8*K8</f>
+        <v>31.918499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8">
-        <v>1.4830000000000001</v>
+        <v>1.492</v>
       </c>
       <c r="D9" s="8">
-        <f>22.5*0.5</f>
-        <v>11.25</v>
-      </c>
-      <c r="E9" s="8">
-        <v>383</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>16.68375</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="K9" s="8">
-        <f>41*0.5</f>
-        <v>20.5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>174.5</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="2"/>
-        <v>31.918499999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="8">
-        <v>1.492</v>
-      </c>
-      <c r="D10" s="8">
         <f>0.5*22.2</f>
         <v>11.1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E9" s="8">
         <v>390</v>
       </c>
-      <c r="F10" s="12">
-        <f t="shared" si="0"/>
+      <c r="F9" s="12">
+        <f>C9*D9</f>
         <v>16.561199999999999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J9" s="8">
         <v>1.61</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K9" s="8">
         <f>0.5*40</f>
         <v>20</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L9" s="8">
         <v>180</v>
       </c>
-      <c r="M10" s="12">
-        <f t="shared" si="2"/>
+      <c r="M9" s="12">
+        <f>J9*K9</f>
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="7">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
         <v>1.5069999999999999</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D10" s="8">
         <f>0.5*21.5</f>
         <v>10.75</v>
       </c>
+      <c r="E10" s="8">
+        <v>400</v>
+      </c>
+      <c r="F10" s="12">
+        <f>C10*D10</f>
+        <v>16.20025</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K10" s="8">
+        <f>0.5*40.1</f>
+        <v>20.05</v>
+      </c>
+      <c r="L10" s="8">
+        <v>188.4</v>
+      </c>
+      <c r="M10" s="12">
+        <f>J10*K10</f>
+        <v>32.080000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <f>0.5*21</f>
+        <v>10.5</v>
+      </c>
       <c r="E11" s="8">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>16.20025</v>
+        <f>C11*D11</f>
+        <v>16.012499999999999</v>
       </c>
       <c r="J11" s="8">
-        <v>1.6</v>
+        <v>1.595</v>
       </c>
       <c r="K11" s="8">
         <f>0.5*40.1</f>
         <v>20.05</v>
       </c>
       <c r="L11" s="8">
-        <v>188.4</v>
+        <v>189</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="2"/>
-        <v>32.080000000000005</v>
+        <f>J11*K11</f>
+        <v>31.979749999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="D12" s="8">
-        <f>0.5*21</f>
-        <v>10.5</v>
-      </c>
-      <c r="E12" s="8">
-        <v>416</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>16.012499999999999</v>
-      </c>
       <c r="J12" s="8">
-        <v>1.595</v>
+        <v>1.59</v>
       </c>
       <c r="K12" s="8">
-        <f>0.5*40.1</f>
-        <v>20.05</v>
+        <f>0.5*38</f>
+        <v>19</v>
       </c>
       <c r="L12" s="8">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="2"/>
-        <v>31.979749999999999</v>
+        <f>J12*K12</f>
+        <v>30.21</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5215,20 +7331,6 @@
       <c r="E13" s="11"/>
       <c r="F13" s="39"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="8">
-        <v>1.59</v>
-      </c>
-      <c r="K13" s="8">
-        <f>0.5*38</f>
-        <v>19</v>
-      </c>
-      <c r="L13" s="8">
-        <v>213</v>
-      </c>
-      <c r="M13" s="12">
-        <f t="shared" si="2"/>
-        <v>30.21</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5236,5 +7338,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECBDCCB-E178-4E5E-A4D8-B7D6042C24E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F07E5-37AE-46DC-AD92-BC9A5646C59A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
@@ -1053,6 +1053,42 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,42 +1141,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,13 +1409,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Resistencia</a:t>
+                  <a:t>Resistencia de carga [Ohm]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> de carga [Ohm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3223,16 +3218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3607,32 +3602,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="H1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="R1" s="60" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3648,28 +3643,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="58" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="R2" s="58" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3900,34 +3895,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="M8" s="65" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3946,28 +3941,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="47" t="str">
+      <c r="H9" s="59" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="M9" s="62" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="62" t="str">
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -4170,26 +4165,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="N15" s="69" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="N15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -4207,17 +4202,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="N16" s="66" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -4251,11 +4246,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -4308,26 +4303,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="N20" s="66" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -4345,12 +4340,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -4436,21 +4431,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -4468,12 +4463,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4567,21 +4562,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4600,12 +4595,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4685,23 +4680,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -5239,21 +5234,6 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -5270,6 +5250,21 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5292,32 +5287,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="H1" s="46" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="H1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="R1" s="60" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="R1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -5333,28 +5328,28 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58" t="str">
+      <c r="H2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="58" t="str">
+      <c r="M2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="R2" s="58" t="str">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="R2" s="42" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -5585,34 +5580,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="M8" s="65" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -5631,28 +5626,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="47" t="str">
+      <c r="H9" s="59" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="M9" s="62" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="M9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="62" t="str">
+      <c r="R9" s="44" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -5855,26 +5850,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="N15" s="69" t="s">
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="N15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -5892,17 +5887,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="N16" s="66" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="N16" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -5936,11 +5931,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -5993,26 +5988,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="N20" s="66" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -6030,12 +6025,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -6121,21 +6116,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -6153,12 +6148,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6252,21 +6247,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6285,12 +6280,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6370,23 +6365,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -6921,17 +6916,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="H8:K8"/>
@@ -6945,13 +6936,17 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A35:O35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6962,21 +6957,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A460C70-8EC6-4460-BB78-6752A67B18A7}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
       <c r="H1" s="70" t="s">
         <v>28</v>
       </c>
@@ -7140,7 +7135,7 @@
         <v>360</v>
       </c>
       <c r="F6" s="12">
-        <f>C6*D6</f>
+        <f t="shared" ref="F6:F11" si="2">C6*D6</f>
         <v>16.357499999999998</v>
       </c>
       <c r="J6" s="10">
@@ -7170,7 +7165,7 @@
         <v>371</v>
       </c>
       <c r="F7" s="12">
-        <f>C7*D7</f>
+        <f t="shared" si="2"/>
         <v>16.4528</v>
       </c>
       <c r="J7" s="8">
@@ -7201,7 +7196,7 @@
         <v>383</v>
       </c>
       <c r="F8" s="12">
-        <f>C8*D8</f>
+        <f t="shared" si="2"/>
         <v>16.68375</v>
       </c>
       <c r="J8" s="8">
@@ -7231,7 +7226,7 @@
         <v>390</v>
       </c>
       <c r="F9" s="12">
-        <f>C9*D9</f>
+        <f t="shared" si="2"/>
         <v>16.561199999999999</v>
       </c>
       <c r="J9" s="8">
@@ -7261,7 +7256,7 @@
         <v>400</v>
       </c>
       <c r="F10" s="12">
-        <f>C10*D10</f>
+        <f t="shared" si="2"/>
         <v>16.20025</v>
       </c>
       <c r="J10" s="8">
@@ -7291,7 +7286,7 @@
         <v>416</v>
       </c>
       <c r="F11" s="12">
-        <f>C11*D11</f>
+        <f t="shared" si="2"/>
         <v>16.012499999999999</v>
       </c>
       <c r="J11" s="8">

--- a/TP5/Mediciones.xlsx
+++ b/TP5/Mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\Desktop\TP3 ELECTRO\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Desktop\Guitarra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F07E5-37AE-46DC-AD92-BC9A5646C59A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF6501-B1CD-413B-996F-5343A5180F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDA36349-2CEE-46F1-A8FD-45D31E04EF72}"/>
   </bookViews>
   <sheets>
     <sheet name="A dado vuelta" sheetId="1" r:id="rId1"/>
@@ -1053,42 +1053,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,6 +1107,42 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,7 +1169,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1231,7 +1231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1439,7 +1439,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1477,7 +1477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="377025344"/>
@@ -1559,7 +1559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1591,7 +1591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="377030264"/>
@@ -1639,7 +1639,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1653,7 +1653,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1719,7 +1719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1917,7 +1917,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1955,7 +1955,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="379475792"/>
@@ -2037,7 +2037,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2069,7 +2069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="379474808"/>
@@ -2117,7 +2117,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3292,7 +3292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3594,7 +3594,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3602,32 +3602,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="H1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -3643,28 +3643,28 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -3895,34 +3895,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -3941,28 +3941,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="47" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -4165,26 +4165,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="N15" s="51" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="N15" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -4202,17 +4202,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="N16" s="48" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -4246,11 +4246,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -4303,26 +4303,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="48" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -4431,21 +4431,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -4463,12 +4463,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4562,21 +4562,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -4680,23 +4680,23 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -5234,6 +5234,21 @@
     <sortCondition ref="O17:O24"/>
   </sortState>
   <mergeCells count="31">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H1:K1"/>
@@ -5250,21 +5265,6 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5275,11 +5275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BAC0E1-5DAC-4D5C-9C52-9D1F4F90BAE0}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -5287,32 +5287,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="H1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="R1" s="41" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="R1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -5328,28 +5328,28 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="42" t="str">
+      <c r="M2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="R2" s="42" t="str">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="R2" s="58" t="str">
         <f>$A$1</f>
         <v>Cuadripolo "B" - Nro. De serie: 9608 (15 V - 50 mA) (T)</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -5362,8 +5362,8 @@
         <v>3.05</v>
       </c>
       <c r="D3" s="12">
-        <f>0.5*23</f>
-        <v>11.5</v>
+        <f>-0.5*23</f>
+        <v>-11.5</v>
       </c>
       <c r="E3" s="12">
         <f>32*0.5</f>
@@ -5427,8 +5427,8 @@
         <v>16.75</v>
       </c>
       <c r="E4" s="12">
-        <f>0.5*23</f>
-        <v>11.5</v>
+        <f>-0.5*23</f>
+        <v>-11.5</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -5449,16 +5449,16 @@
         <v>448.5294117647058</v>
       </c>
       <c r="M4" s="7">
-        <f>D4/B4/1000</f>
+        <f>(D4/B4)/1000</f>
         <v>5.4918032786885245E-3</v>
       </c>
       <c r="N4" s="7">
         <f>D3/C3/1000</f>
-        <v>3.7704918032786887E-3</v>
+        <v>-3.7704918032786887E-3</v>
       </c>
       <c r="O4" s="7">
         <f>E4/B4/1000</f>
-        <v>3.7704918032786887E-3</v>
+        <v>-3.7704918032786887E-3</v>
       </c>
       <c r="P4" s="7">
         <f>E3/C3/1000</f>
@@ -5470,7 +5470,7 @@
         <v>1.3958810068649885</v>
       </c>
       <c r="S4" s="7">
-        <f>B4/E4*1000</f>
+        <f>-B4/E4*1000</f>
         <v>265.21739130434781</v>
       </c>
       <c r="T4" s="7">
@@ -5478,7 +5478,7 @@
         <v>3.7528604118993139E-3</v>
       </c>
       <c r="U4" s="7">
-        <f>D4/E4</f>
+        <f>-D4/E4</f>
         <v>1.4565217391304348</v>
       </c>
       <c r="W4" s="12">
@@ -5580,34 +5580,34 @@
       <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="M8" s="47" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="M8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="43" t="s">
+      <c r="R8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
       <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -5626,28 +5626,28 @@
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="47" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="M9" s="44" t="str">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="M9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="44" t="str">
+      <c r="R9" s="62" t="str">
         <f>$A$8</f>
         <v>Cuadripolo "A" - Nro. De serie: 9603 (15 V - 50 mA) (Pi)</v>
       </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
       <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -5661,8 +5661,8 @@
         <v>3.05</v>
       </c>
       <c r="D10" s="12">
-        <f>83*0.5</f>
-        <v>41.5</v>
+        <f>-83*0.5</f>
+        <v>-41.5</v>
       </c>
       <c r="E10" s="12">
         <f>60*0.5</f>
@@ -5726,8 +5726,8 @@
         <v>36</v>
       </c>
       <c r="E11" s="12">
-        <f>60.5*0.5</f>
-        <v>30.25</v>
+        <f>-60.5*0.5</f>
+        <v>-30.25</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -5753,11 +5753,11 @@
       </c>
       <c r="N11" s="7">
         <f>D10/C10/1000</f>
-        <v>1.3606557377049182E-2</v>
+        <v>-1.3606557377049182E-2</v>
       </c>
       <c r="O11" s="7">
         <f>E11/B11/1000</f>
-        <v>9.9180327868852464E-3</v>
+        <v>-9.9180327868852464E-3</v>
       </c>
       <c r="P11" s="7">
         <f>E10/C10/1000</f>
@@ -5765,12 +5765,12 @@
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="7">
-        <f>D13/C13</f>
-        <v>6.3549704947798462</v>
+        <f>B13/C13</f>
+        <v>1.3844757149341806</v>
       </c>
       <c r="S11" s="7">
         <f>-B11/E11*1000</f>
-        <v>-100.82644628099173</v>
+        <v>100.82644628099173</v>
       </c>
       <c r="T11" s="7">
         <f>D13/C13/1000</f>
@@ -5778,11 +5778,11 @@
       </c>
       <c r="U11" s="7">
         <f>-D11/E11</f>
-        <v>-1.1900826446280992</v>
+        <v>1.1900826446280992</v>
       </c>
       <c r="W11" s="12">
         <f>R11*U11-S11*T11</f>
-        <v>-6.9221910017519317</v>
+        <v>1.0068914290430406</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
@@ -5850,26 +5850,26 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="N15" s="51" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="N15" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
@@ -5887,17 +5887,17 @@
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="N16" s="48" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="N16" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
@@ -5931,11 +5931,11 @@
       <c r="K17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -5988,26 +5988,26 @@
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="48" t="s">
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="N20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
@@ -6025,12 +6025,12 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
@@ -6116,21 +6116,21 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
@@ -6148,12 +6148,12 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6216,20 +6216,20 @@
         <v>2.2888888888888888</v>
       </c>
       <c r="I28" s="12">
-        <f>-B27/E27*1000</f>
-        <v>-515</v>
+        <f>B27/E27*1000</f>
+        <v>515</v>
       </c>
       <c r="J28" s="12">
         <f>D28/C28/1000</f>
         <v>1.3148148148148147E-2</v>
       </c>
       <c r="K28" s="12">
-        <f>-D27/E27</f>
-        <v>-3.4166666666666665</v>
+        <f>D27/E27</f>
+        <v>3.4166666666666665</v>
       </c>
       <c r="M28" s="12">
         <f>H28*K28-I28*J28</f>
-        <v>-1.049074074074074</v>
+        <v>1.049074074074074</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -6247,21 +6247,21 @@
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6280,12 +6280,12 @@
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -6303,8 +6303,8 @@
         <v>14.5</v>
       </c>
       <c r="E32" s="12">
-        <f>0.1*66</f>
-        <v>6.6000000000000005</v>
+        <f>-0.1*66</f>
+        <v>-6.6000000000000005</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -6349,39 +6349,39 @@
       </c>
       <c r="I33" s="12">
         <f>-B32/E32*1000</f>
-        <v>-468.18181818181813</v>
+        <v>468.18181818181813</v>
       </c>
       <c r="J33" s="12">
-        <f>E32/B33/1000</f>
-        <v>2.1359223300970879E-3</v>
+        <f>D33/C33/1000</f>
+        <v>1.4384349827387804E-2</v>
       </c>
       <c r="K33" s="12">
         <f>-D32/E32</f>
-        <v>-2.1969696969696968</v>
+        <v>2.1969696969696968</v>
       </c>
       <c r="M33" s="12">
         <f>H33*K33-I33*J33</f>
-        <v>-6.8120096244377013</v>
+        <v>1.0775185688879576</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="C37" s="13">
         <f>N4</f>
-        <v>3.7704918032786887E-3</v>
+        <v>-3.7704918032786887E-3</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="22" t="s">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="G37" s="13">
         <f>N11</f>
-        <v>1.3606557377049182E-2</v>
+        <v>-1.3606557377049182E-2</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B38" s="17">
         <f>O4</f>
-        <v>3.7704918032786887E-3</v>
+        <v>-3.7704918032786887E-3</v>
       </c>
       <c r="C38" s="13">
         <f>P4</f>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="F38" s="17">
         <f>O11</f>
-        <v>9.9180327868852464E-3</v>
+        <v>-9.9180327868852464E-3</v>
       </c>
       <c r="G38" s="13">
         <f>P11</f>
@@ -6487,7 +6487,7 @@
         <v>359.48434622467772</v>
       </c>
       <c r="G40" s="16">
-        <v>-258.37937384898709</v>
+        <v>258.37937384898709</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="22" t="s">
@@ -6531,7 +6531,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="20">
-        <v>-258.37937384898709</v>
+        <v>258.37937384898709</v>
       </c>
       <c r="G41" s="16">
         <v>376.33517495395944</v>
@@ -6599,7 +6599,7 @@
         <v>-521.73913043478262</v>
       </c>
       <c r="G43" s="16">
-        <v>721.73913043478262</v>
+        <v>-721.73913043478262</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="22" t="s">
@@ -6607,11 +6607,11 @@
       </c>
       <c r="J43" s="17">
         <f>R11</f>
-        <v>6.3549704947798462</v>
+        <v>1.3844757149341806</v>
       </c>
       <c r="K43" s="13">
         <f>S11</f>
-        <v>-100.82644628099173</v>
+        <v>100.82644628099173</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="28" t="s">
@@ -6643,7 +6643,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="20">
-        <v>526.08695652173913</v>
+        <v>-526.08695652173913</v>
       </c>
       <c r="G44" s="16">
         <v>-626.08695652173913</v>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="K44" s="13">
         <f>U11</f>
-        <v>-1.1900826446280992</v>
+        <v>1.1900826446280992</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="29" t="s">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="K46" s="13">
         <f>I28</f>
-        <v>-515</v>
+        <v>515</v>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="28" t="s">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="K47" s="13">
         <f>K28</f>
-        <v>-3.4166666666666665</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="30" t="s">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G49" s="16">
         <f>C37+G37</f>
-        <v>1.7377049180327869E-2</v>
+        <v>-1.7377049180327869E-2</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="22" t="s">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="K49" s="13">
         <f>I33</f>
-        <v>-468.18181818181813</v>
+        <v>468.18181818181813</v>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="28" t="s">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="F50" s="20">
         <f>B38+F38</f>
-        <v>1.3688524590163936E-2</v>
+        <v>-1.3688524590163936E-2</v>
       </c>
       <c r="G50" s="16">
         <f>C38+G38</f>
@@ -6880,11 +6880,11 @@
       </c>
       <c r="J50" s="17">
         <f>J33</f>
-        <v>2.1359223300970879E-3</v>
+        <v>1.4384349827387804E-2</v>
       </c>
       <c r="K50" s="13">
         <f>K33</f>
-        <v>-2.1969696969696968</v>
+        <v>2.1969696969696968</v>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="30" t="s">
@@ -6916,13 +6916,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="H25:K25"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="H8:K8"/>
@@ -6936,17 +6940,13 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6957,21 +6957,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A460C70-8EC6-4460-BB78-6752A67B18A7}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
       <c r="H1" s="70" t="s">
         <v>28</v>
       </c>
